--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Validation_Failures.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Validation_Failures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mhclg-my.sharepoint.com/personal/william_may_communities_gov_uk/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{FE4F3936-EDC4-4FA9-86EB-500CD72E1383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ACCC2C4-40CF-4193-9CB1-0D8A00099F29}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{FE4F3936-EDC4-4FA9-86EB-500CD72E1383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7926BEDD-4691-41F6-A7AA-EC2502D9EC01}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="661" firstSheet="5" activeTab="7" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
@@ -6117,12 +6117,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6141,6 +6135,33 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6150,20 +6171,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6195,29 +6213,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6240,18 +6282,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6260,18 +6290,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6282,12 +6300,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6295,6 +6307,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6318,41 +6336,44 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6384,83 +6405,22 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6472,105 +6432,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6579,6 +6440,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6642,6 +6506,142 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -7649,10 +7649,10 @@
     <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="217"/>
+      <c r="C2" s="215"/>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -16330,10 +16330,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="217"/>
+      <c r="C2" s="215"/>
     </row>
     <row r="3" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="205" t="s">
@@ -16343,16 +16343,16 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="213"/>
+      <c r="C4" s="211"/>
     </row>
     <row r="5" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="214" t="s">
+      <c r="B5" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="215" t="s">
+      <c r="C5" s="213" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="6"/>
@@ -16364,138 +16364,138 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="217"/>
+      <c r="C7" s="215"/>
       <c r="I7" s="112"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I8" s="112"/>
     </row>
     <row r="9" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="213"/>
+      <c r="C9" s="211"/>
     </row>
     <row r="10" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="214" t="s">
+      <c r="B10" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="215"/>
+      <c r="C10" s="213"/>
     </row>
     <row r="11" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="212" t="s">
+      <c r="B12" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="213"/>
+      <c r="C12" s="211"/>
     </row>
     <row r="13" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="211"/>
+      <c r="C13" s="217"/>
     </row>
     <row r="14" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="212" t="s">
+      <c r="B15" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="213"/>
+      <c r="C15" s="211"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="210" t="s">
+      <c r="B16" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="211"/>
+      <c r="C16" s="217"/>
     </row>
     <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="2:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="212" t="s">
+      <c r="B18" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="213"/>
+      <c r="C18" s="211"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="211"/>
+      <c r="C19" s="217"/>
     </row>
     <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" s="25"/>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="212" t="s">
+      <c r="B21" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="213"/>
+      <c r="C21" s="211"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="210" t="s">
+      <c r="B22" s="216" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="211"/>
+      <c r="C22" s="217"/>
     </row>
     <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="25"/>
       <c r="C23" s="19"/>
     </row>
     <row r="24" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="212" t="s">
+      <c r="B24" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="213"/>
+      <c r="C24" s="211"/>
     </row>
     <row r="25" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="210" t="s">
+      <c r="B25" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="211"/>
+      <c r="C25" s="217"/>
     </row>
     <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="25"/>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="212" t="s">
+      <c r="B27" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="213"/>
+      <c r="C27" s="211"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="210" t="s">
+      <c r="B28" s="216" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="211"/>
+      <c r="C28" s="217"/>
     </row>
     <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="25"/>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="212" t="s">
+      <c r="B30" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="213"/>
+      <c r="C30" s="211"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="210" t="s">
+      <c r="B31" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="211"/>
+      <c r="C31" s="217"/>
     </row>
     <row r="34" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16542,6 +16542,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B2:C2"/>
@@ -16552,16 +16562,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
@@ -17617,12 +17617,12 @@
   <sheetData>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="215"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -17637,32 +17637,32 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
     </row>
     <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="236" t="s">
+      <c r="B5" s="222" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="238"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="224"/>
     </row>
     <row r="6" spans="1:12" ht="364" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="218"/>
-      <c r="C6" s="219"/>
-      <c r="D6" s="219"/>
-      <c r="E6" s="220"/>
+      <c r="B6" s="225"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="227"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="221" t="s">
+      <c r="B7" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="221"/>
+      <c r="C7" s="218"/>
       <c r="E7" s="59" t="s">
         <v>79</v>
       </c>
@@ -17672,37 +17672,37 @@
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="230" t="s">
+      <c r="B9" s="236" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="232"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="238"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="227" t="s">
+      <c r="B10" s="233" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="228"/>
-      <c r="D10" s="229"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="235"/>
       <c r="E10" s="93" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="233" t="s">
+      <c r="B11" s="239" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="235"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="241"/>
     </row>
     <row r="12" spans="1:12" ht="349" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="225" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="219"/>
-      <c r="D12" s="222"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="231"/>
       <c r="E12" s="146" t="s">
         <v>85</v>
       </c>
@@ -18134,34 +18134,34 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="223" t="s">
+      <c r="B53" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="224"/>
-      <c r="D53" s="224"/>
-      <c r="E53" s="225"/>
+      <c r="C53" s="220"/>
+      <c r="D53" s="220"/>
+      <c r="E53" s="221"/>
     </row>
     <row r="54" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="236" t="s">
+      <c r="B54" s="222" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="237"/>
-      <c r="D54" s="237"/>
-      <c r="E54" s="238"/>
+      <c r="C54" s="223"/>
+      <c r="D54" s="223"/>
+      <c r="E54" s="224"/>
     </row>
     <row r="55" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="218" t="s">
+      <c r="B55" s="225" t="s">
         <v>1078</v>
       </c>
-      <c r="C55" s="219"/>
-      <c r="D55" s="219"/>
-      <c r="E55" s="220"/>
+      <c r="C55" s="226"/>
+      <c r="D55" s="226"/>
+      <c r="E55" s="227"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="221" t="s">
+      <c r="B56" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="221"/>
+      <c r="C56" s="218"/>
       <c r="E56" s="59" t="s">
         <v>96</v>
       </c>
@@ -18173,34 +18173,34 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="223" t="s">
+      <c r="B59" s="219" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="224"/>
-      <c r="D59" s="224"/>
-      <c r="E59" s="225"/>
+      <c r="C59" s="220"/>
+      <c r="D59" s="220"/>
+      <c r="E59" s="221"/>
     </row>
     <row r="60" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="239" t="s">
+      <c r="B60" s="228" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="240"/>
-      <c r="D60" s="240"/>
-      <c r="E60" s="241"/>
+      <c r="C60" s="229"/>
+      <c r="D60" s="229"/>
+      <c r="E60" s="230"/>
     </row>
     <row r="61" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="218" t="s">
+      <c r="B61" s="225" t="s">
         <v>1079</v>
       </c>
-      <c r="C61" s="219"/>
-      <c r="D61" s="219"/>
-      <c r="E61" s="220"/>
+      <c r="C61" s="226"/>
+      <c r="D61" s="226"/>
+      <c r="E61" s="227"/>
     </row>
     <row r="62" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="221" t="s">
+      <c r="B62" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="221"/>
+      <c r="C62" s="218"/>
       <c r="E62" s="59" t="s">
         <v>100</v>
       </c>
@@ -18225,14 +18225,6 @@
     <row r="78" spans="2:4" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B12:D12"/>
@@ -18242,6 +18234,14 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:E50">
     <cfRule type="expression" dxfId="47" priority="1">
@@ -18627,14 +18627,14 @@
     </row>
     <row r="2" spans="1:60" s="12" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="215"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -18753,14 +18753,14 @@
     </row>
     <row r="4" spans="1:60" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="277" t="s">
+      <c r="B4" s="246" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="278"/>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="279"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="248"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -18817,14 +18817,14 @@
     </row>
     <row r="5" spans="1:60" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="280" t="s">
+      <c r="B5" s="249" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="281"/>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="283"/>
+      <c r="C5" s="250"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="252"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -18881,14 +18881,14 @@
     </row>
     <row r="6" spans="1:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="283" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="261"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="286"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -18948,13 +18948,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="259" t="s">
+      <c r="C7" s="284" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="259"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="261"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="286"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -19014,13 +19014,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="262" t="s">
+      <c r="C8" s="268" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="262"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="264"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="269"/>
+      <c r="F8" s="269"/>
+      <c r="G8" s="270"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -19080,13 +19080,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="262" t="s">
+      <c r="C9" s="268" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="262"/>
-      <c r="E9" s="263"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="264"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="269"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="270"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -19146,13 +19146,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="262" t="s">
+      <c r="C10" s="268" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="262"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="264"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="269"/>
+      <c r="G10" s="270"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -19212,13 +19212,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="262" t="s">
+      <c r="C11" s="268" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="262"/>
-      <c r="E11" s="263"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="264"/>
+      <c r="D11" s="268"/>
+      <c r="E11" s="269"/>
+      <c r="F11" s="269"/>
+      <c r="G11" s="270"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -19278,13 +19278,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="267" t="s">
+      <c r="C12" s="271" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="267"/>
-      <c r="E12" s="268"/>
-      <c r="F12" s="268"/>
-      <c r="G12" s="269"/>
+      <c r="D12" s="271"/>
+      <c r="E12" s="272"/>
+      <c r="F12" s="272"/>
+      <c r="G12" s="273"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -19488,60 +19488,60 @@
     </row>
     <row r="16" spans="1:60" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="251" t="s">
+      <c r="B16" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="253" t="s">
+      <c r="C16" s="274" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="284" t="s">
+      <c r="D16" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="273" t="s">
+      <c r="E16" s="279" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="274"/>
-      <c r="G16" s="271" t="s">
+      <c r="F16" s="280"/>
+      <c r="G16" s="277" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="271"/>
-      <c r="I16" s="271"/>
-      <c r="J16" s="271"/>
-      <c r="K16" s="272"/>
-      <c r="L16" s="255" t="s">
+      <c r="H16" s="277"/>
+      <c r="I16" s="277"/>
+      <c r="J16" s="277"/>
+      <c r="K16" s="278"/>
+      <c r="L16" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="257"/>
+      <c r="M16" s="266"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="266"/>
+      <c r="P16" s="267"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="244" t="s">
+      <c r="R16" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
       <c r="T16" s="52"/>
       <c r="U16" s="52"/>
       <c r="V16" s="52"/>
-      <c r="W16" s="265"/>
-      <c r="X16" s="265"/>
-      <c r="Y16" s="265"/>
-      <c r="Z16" s="265"/>
-      <c r="AA16" s="265"/>
-      <c r="AB16" s="265"/>
-      <c r="AC16" s="265"/>
-      <c r="AD16" s="265"/>
-      <c r="AE16" s="265"/>
-      <c r="AF16" s="265"/>
-      <c r="AG16" s="265"/>
-      <c r="AH16" s="265"/>
-      <c r="AI16" s="265"/>
-      <c r="AJ16" s="265"/>
-      <c r="AK16" s="265"/>
+      <c r="W16" s="244"/>
+      <c r="X16" s="244"/>
+      <c r="Y16" s="244"/>
+      <c r="Z16" s="244"/>
+      <c r="AA16" s="244"/>
+      <c r="AB16" s="244"/>
+      <c r="AC16" s="244"/>
+      <c r="AD16" s="244"/>
+      <c r="AE16" s="244"/>
+      <c r="AF16" s="244"/>
+      <c r="AG16" s="244"/>
+      <c r="AH16" s="244"/>
+      <c r="AI16" s="244"/>
+      <c r="AJ16" s="244"/>
+      <c r="AK16" s="244"/>
       <c r="AL16" s="52"/>
-      <c r="AM16" s="265"/>
+      <c r="AM16" s="244"/>
       <c r="AN16" s="112"/>
       <c r="AO16" s="112"/>
       <c r="AP16" s="112"/>
@@ -19566,13 +19566,13 @@
     </row>
     <row r="17" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="285"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="275"/>
+      <c r="D17" s="256"/>
       <c r="E17" s="185" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="275" t="s">
+      <c r="F17" s="281" t="s">
         <v>132</v>
       </c>
       <c r="G17" s="85" t="s">
@@ -19587,7 +19587,7 @@
       <c r="J17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K17" s="246" t="s">
+      <c r="K17" s="260" t="s">
         <v>132</v>
       </c>
       <c r="L17" s="84" t="s">
@@ -19602,13 +19602,13 @@
       <c r="O17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P17" s="248" t="s">
+      <c r="P17" s="262" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="249" t="s">
+      <c r="Q17" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="245"/>
+      <c r="R17" s="259"/>
       <c r="S17" s="112"/>
       <c r="T17" s="54"/>
       <c r="U17" s="54"/>
@@ -19617,19 +19617,19 @@
       <c r="X17" s="52"/>
       <c r="Y17" s="52"/>
       <c r="Z17" s="52"/>
-      <c r="AA17" s="266"/>
+      <c r="AA17" s="245"/>
       <c r="AB17" s="52"/>
       <c r="AC17" s="52"/>
       <c r="AD17" s="52"/>
       <c r="AE17" s="52"/>
-      <c r="AF17" s="266"/>
+      <c r="AF17" s="245"/>
       <c r="AG17" s="52"/>
       <c r="AH17" s="52"/>
       <c r="AI17" s="52"/>
       <c r="AJ17" s="52"/>
-      <c r="AK17" s="266"/>
-      <c r="AL17" s="266"/>
-      <c r="AM17" s="265"/>
+      <c r="AK17" s="245"/>
+      <c r="AL17" s="245"/>
+      <c r="AM17" s="244"/>
       <c r="AN17" s="112"/>
       <c r="AO17" s="112"/>
       <c r="AP17" s="112"/>
@@ -19654,13 +19654,13 @@
     </row>
     <row r="18" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="252"/>
-      <c r="C18" s="270"/>
-      <c r="D18" s="286"/>
+      <c r="B18" s="254"/>
+      <c r="C18" s="276"/>
+      <c r="D18" s="257"/>
       <c r="E18" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="276"/>
+      <c r="F18" s="282"/>
       <c r="G18" s="179" t="s">
         <v>137</v>
       </c>
@@ -19673,7 +19673,7 @@
       <c r="J18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K18" s="247"/>
+      <c r="K18" s="261"/>
       <c r="L18" s="68" t="s">
         <v>137</v>
       </c>
@@ -19686,9 +19686,9 @@
       <c r="O18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P18" s="247"/>
-      <c r="Q18" s="250"/>
-      <c r="R18" s="245"/>
+      <c r="P18" s="261"/>
+      <c r="Q18" s="264"/>
+      <c r="R18" s="259"/>
       <c r="S18" s="112"/>
       <c r="T18" s="53"/>
       <c r="U18" s="53"/>
@@ -19697,19 +19697,19 @@
       <c r="X18" s="55"/>
       <c r="Y18" s="55"/>
       <c r="Z18" s="55"/>
-      <c r="AA18" s="266"/>
+      <c r="AA18" s="245"/>
       <c r="AB18" s="55"/>
       <c r="AC18" s="55"/>
       <c r="AD18" s="55"/>
       <c r="AE18" s="55"/>
-      <c r="AF18" s="266"/>
+      <c r="AF18" s="245"/>
       <c r="AG18" s="55"/>
       <c r="AH18" s="55"/>
       <c r="AI18" s="55"/>
       <c r="AJ18" s="55"/>
-      <c r="AK18" s="266"/>
-      <c r="AL18" s="266"/>
-      <c r="AM18" s="265"/>
+      <c r="AK18" s="245"/>
+      <c r="AL18" s="245"/>
+      <c r="AM18" s="244"/>
       <c r="AN18" s="112"/>
       <c r="AO18" s="112"/>
       <c r="AP18" s="112"/>
@@ -21500,37 +21500,37 @@
     </row>
     <row r="42" spans="1:60" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="251" t="s">
+      <c r="B42" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="251" t="s">
+      <c r="C42" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="253" t="s">
+      <c r="D42" s="274" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="255" t="s">
+      <c r="E42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="255" t="s">
+      <c r="F42" s="266"/>
+      <c r="G42" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="256"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="257"/>
-      <c r="L42" s="255" t="s">
+      <c r="H42" s="266"/>
+      <c r="I42" s="266"/>
+      <c r="J42" s="266"/>
+      <c r="K42" s="267"/>
+      <c r="L42" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="256"/>
-      <c r="N42" s="256"/>
-      <c r="O42" s="256"/>
-      <c r="P42" s="257"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="266"/>
+      <c r="O42" s="266"/>
+      <c r="P42" s="267"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="244" t="s">
+      <c r="R42" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -21542,18 +21542,18 @@
       <c r="Y42" s="112"/>
       <c r="Z42" s="112"/>
       <c r="AA42" s="112"/>
-      <c r="AB42" s="265"/>
-      <c r="AC42" s="265"/>
-      <c r="AD42" s="265"/>
-      <c r="AE42" s="265"/>
-      <c r="AF42" s="265"/>
-      <c r="AG42" s="265"/>
-      <c r="AH42" s="265"/>
-      <c r="AI42" s="265"/>
-      <c r="AJ42" s="265"/>
-      <c r="AK42" s="265"/>
+      <c r="AB42" s="244"/>
+      <c r="AC42" s="244"/>
+      <c r="AD42" s="244"/>
+      <c r="AE42" s="244"/>
+      <c r="AF42" s="244"/>
+      <c r="AG42" s="244"/>
+      <c r="AH42" s="244"/>
+      <c r="AI42" s="244"/>
+      <c r="AJ42" s="244"/>
+      <c r="AK42" s="244"/>
       <c r="AL42" s="52"/>
-      <c r="AM42" s="265"/>
+      <c r="AM42" s="244"/>
       <c r="AN42" s="112"/>
       <c r="AO42" s="112"/>
       <c r="AP42" s="112"/>
@@ -21578,13 +21578,13 @@
     </row>
     <row r="43" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="252"/>
-      <c r="C43" s="252"/>
-      <c r="D43" s="254"/>
+      <c r="B43" s="254"/>
+      <c r="C43" s="254"/>
+      <c r="D43" s="275"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="246" t="s">
+      <c r="F43" s="260" t="s">
         <v>132</v>
       </c>
       <c r="G43" s="84" t="s">
@@ -21599,7 +21599,7 @@
       <c r="J43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K43" s="246" t="s">
+      <c r="K43" s="260" t="s">
         <v>132</v>
       </c>
       <c r="L43" s="84" t="s">
@@ -21614,13 +21614,13 @@
       <c r="O43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P43" s="248" t="s">
+      <c r="P43" s="262" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="249" t="s">
+      <c r="Q43" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="245"/>
+      <c r="R43" s="259"/>
       <c r="S43" s="112"/>
       <c r="T43" s="54"/>
       <c r="U43" s="54"/>
@@ -21629,19 +21629,19 @@
       <c r="X43" s="52"/>
       <c r="Y43" s="52"/>
       <c r="Z43" s="52"/>
-      <c r="AA43" s="266"/>
+      <c r="AA43" s="245"/>
       <c r="AB43" s="52"/>
       <c r="AC43" s="52"/>
       <c r="AD43" s="52"/>
       <c r="AE43" s="52"/>
-      <c r="AF43" s="266"/>
+      <c r="AF43" s="245"/>
       <c r="AG43" s="52"/>
       <c r="AH43" s="52"/>
       <c r="AI43" s="52"/>
       <c r="AJ43" s="52"/>
-      <c r="AK43" s="266"/>
-      <c r="AL43" s="266"/>
-      <c r="AM43" s="265"/>
+      <c r="AK43" s="245"/>
+      <c r="AL43" s="245"/>
+      <c r="AM43" s="244"/>
       <c r="AN43" s="112"/>
       <c r="AO43" s="112"/>
       <c r="AP43" s="112"/>
@@ -21666,13 +21666,13 @@
     </row>
     <row r="44" spans="1:60" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="252"/>
-      <c r="C44" s="252"/>
-      <c r="D44" s="252"/>
+      <c r="B44" s="254"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="254"/>
       <c r="E44" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="247"/>
+      <c r="F44" s="261"/>
       <c r="G44" s="67" t="s">
         <v>137</v>
       </c>
@@ -21685,7 +21685,7 @@
       <c r="J44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="247"/>
+      <c r="K44" s="261"/>
       <c r="L44" s="68" t="s">
         <v>137</v>
       </c>
@@ -21698,9 +21698,9 @@
       <c r="O44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="247"/>
-      <c r="Q44" s="250"/>
-      <c r="R44" s="245"/>
+      <c r="P44" s="261"/>
+      <c r="Q44" s="264"/>
+      <c r="R44" s="259"/>
       <c r="S44" s="112"/>
       <c r="T44" s="53"/>
       <c r="U44" s="53"/>
@@ -21709,19 +21709,19 @@
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55"/>
-      <c r="AA44" s="266"/>
+      <c r="AA44" s="245"/>
       <c r="AB44" s="55"/>
       <c r="AC44" s="55"/>
       <c r="AD44" s="55"/>
       <c r="AE44" s="55"/>
-      <c r="AF44" s="266"/>
+      <c r="AF44" s="245"/>
       <c r="AG44" s="55"/>
       <c r="AH44" s="55"/>
       <c r="AI44" s="55"/>
       <c r="AJ44" s="55"/>
-      <c r="AK44" s="266"/>
-      <c r="AL44" s="266"/>
-      <c r="AM44" s="265"/>
+      <c r="AK44" s="245"/>
+      <c r="AL44" s="245"/>
+      <c r="AM44" s="244"/>
       <c r="AN44" s="112"/>
       <c r="AO44" s="112"/>
       <c r="AP44" s="112"/>
@@ -29356,6 +29356,37 @@
     <protectedRange sqref="L45:O45" name="Section_B_1_5"/>
   </protectedRanges>
   <mergeCells count="47">
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AK17:AK18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="AB42:AF42"/>
     <mergeCell ref="AG42:AK42"/>
@@ -29372,37 +29403,6 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AK17:AK18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E18 G18:J18">
@@ -29618,14 +29618,14 @@
     </row>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="215"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -29706,14 +29706,14 @@
     </row>
     <row r="4" spans="1:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="290" t="s">
+      <c r="B4" s="297" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="291"/>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="292"/>
+      <c r="C4" s="298"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="298"/>
+      <c r="G4" s="299"/>
       <c r="H4" s="112"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -29751,14 +29751,14 @@
     </row>
     <row r="5" spans="1:41" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="293" t="s">
+      <c r="B5" s="300" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="295"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="302"/>
       <c r="H5" s="112"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -29796,14 +29796,14 @@
     </row>
     <row r="6" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="296" t="s">
+      <c r="B6" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="297"/>
-      <c r="D6" s="297"/>
-      <c r="E6" s="297"/>
-      <c r="F6" s="297"/>
-      <c r="G6" s="298"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="304"/>
+      <c r="F6" s="304"/>
+      <c r="G6" s="305"/>
       <c r="H6" s="112"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -29844,13 +29844,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="260" t="s">
+      <c r="C7" s="285" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="298"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="304"/>
+      <c r="F7" s="304"/>
+      <c r="G7" s="305"/>
       <c r="H7" s="112"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -29891,13 +29891,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="263" t="s">
+      <c r="C8" s="269" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="300"/>
+      <c r="D8" s="292"/>
+      <c r="E8" s="292"/>
+      <c r="F8" s="292"/>
+      <c r="G8" s="293"/>
       <c r="H8" s="112"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -29938,13 +29938,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="263" t="s">
+      <c r="C9" s="269" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="300"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="293"/>
       <c r="H9" s="112"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -29985,13 +29985,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="263" t="s">
+      <c r="C10" s="269" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
-      <c r="G10" s="300"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="293"/>
       <c r="H10" s="112"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -30032,13 +30032,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="263" t="s">
+      <c r="C11" s="269" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="299"/>
-      <c r="E11" s="299"/>
-      <c r="F11" s="299"/>
-      <c r="G11" s="300"/>
+      <c r="D11" s="292"/>
+      <c r="E11" s="292"/>
+      <c r="F11" s="292"/>
+      <c r="G11" s="293"/>
       <c r="H11" s="112"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -30079,13 +30079,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="268" t="s">
+      <c r="C12" s="272" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="301"/>
-      <c r="E12" s="301"/>
-      <c r="F12" s="301"/>
-      <c r="G12" s="302"/>
+      <c r="D12" s="294"/>
+      <c r="E12" s="294"/>
+      <c r="F12" s="294"/>
+      <c r="G12" s="295"/>
       <c r="H12" s="112"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -30232,37 +30232,37 @@
     </row>
     <row r="16" spans="1:41" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="251" t="s">
+      <c r="B16" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="251" t="s">
+      <c r="C16" s="253" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="253" t="s">
+      <c r="D16" s="274" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="255" t="s">
+      <c r="E16" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="256"/>
-      <c r="G16" s="255" t="s">
+      <c r="F16" s="266"/>
+      <c r="G16" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="257"/>
-      <c r="L16" s="255" t="s">
+      <c r="H16" s="266"/>
+      <c r="I16" s="266"/>
+      <c r="J16" s="266"/>
+      <c r="K16" s="267"/>
+      <c r="L16" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="257"/>
+      <c r="M16" s="266"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="266"/>
+      <c r="P16" s="267"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="244" t="s">
+      <c r="R16" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
@@ -30291,9 +30291,9 @@
     </row>
     <row r="17" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="252"/>
-      <c r="D17" s="254"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="275"/>
       <c r="E17" s="84" t="s">
         <v>131</v>
       </c>
@@ -30330,10 +30330,10 @@
       <c r="P17" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="249" t="s">
+      <c r="Q17" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="245"/>
+      <c r="R17" s="259"/>
       <c r="S17" s="112"/>
       <c r="T17" s="112"/>
       <c r="U17" s="112"/>
@@ -30360,9 +30360,9 @@
     </row>
     <row r="18" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="289"/>
-      <c r="C18" s="289"/>
-      <c r="D18" s="252"/>
+      <c r="B18" s="296"/>
+      <c r="C18" s="296"/>
+      <c r="D18" s="254"/>
       <c r="E18" s="22" t="s">
         <v>136</v>
       </c>
@@ -30393,8 +30393,8 @@
         <v>137</v>
       </c>
       <c r="P18" s="288"/>
-      <c r="Q18" s="303"/>
-      <c r="R18" s="305"/>
+      <c r="Q18" s="289"/>
+      <c r="R18" s="291"/>
       <c r="S18" s="112"/>
       <c r="T18" s="112"/>
       <c r="U18" s="112"/>
@@ -31474,9 +31474,9 @@
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36" s="112"/>
-      <c r="Z36" s="304"/>
-      <c r="AA36" s="304"/>
-      <c r="AB36" s="304"/>
+      <c r="Z36" s="290"/>
+      <c r="AA36" s="290"/>
+      <c r="AB36" s="290"/>
       <c r="AC36" s="112"/>
       <c r="AD36" s="112"/>
       <c r="AE36" s="112"/>
@@ -31729,37 +31729,37 @@
     </row>
     <row r="42" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="251" t="s">
+      <c r="B42" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="251" t="s">
+      <c r="C42" s="253" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="253" t="s">
+      <c r="D42" s="274" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="255" t="s">
+      <c r="E42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="255" t="s">
+      <c r="F42" s="266"/>
+      <c r="G42" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="256"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="257"/>
-      <c r="L42" s="255" t="s">
+      <c r="H42" s="266"/>
+      <c r="I42" s="266"/>
+      <c r="J42" s="266"/>
+      <c r="K42" s="267"/>
+      <c r="L42" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="256"/>
-      <c r="N42" s="256"/>
-      <c r="O42" s="256"/>
-      <c r="P42" s="257"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="266"/>
+      <c r="O42" s="266"/>
+      <c r="P42" s="267"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="244" t="s">
+      <c r="R42" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -31788,9 +31788,9 @@
     </row>
     <row r="43" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="252"/>
-      <c r="C43" s="252"/>
-      <c r="D43" s="254"/>
+      <c r="B43" s="254"/>
+      <c r="C43" s="254"/>
+      <c r="D43" s="275"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
@@ -31827,10 +31827,10 @@
       <c r="P43" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="249" t="s">
+      <c r="Q43" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="245"/>
+      <c r="R43" s="259"/>
       <c r="S43" s="112"/>
       <c r="T43" s="112"/>
       <c r="U43" s="112"/>
@@ -31857,9 +31857,9 @@
     </row>
     <row r="44" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="252"/>
-      <c r="C44" s="252"/>
-      <c r="D44" s="252"/>
+      <c r="B44" s="254"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="254"/>
       <c r="E44" s="22" t="s">
         <v>136</v>
       </c>
@@ -31876,7 +31876,7 @@
       <c r="J44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="247"/>
+      <c r="K44" s="261"/>
       <c r="L44" s="141" t="s">
         <v>137</v>
       </c>
@@ -31889,9 +31889,9 @@
       <c r="O44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="247"/>
-      <c r="Q44" s="250"/>
-      <c r="R44" s="245"/>
+      <c r="P44" s="261"/>
+      <c r="Q44" s="264"/>
+      <c r="R44" s="259"/>
       <c r="S44" s="112"/>
       <c r="T44" s="112"/>
       <c r="U44" s="112"/>
@@ -37459,25 +37459,11 @@
     <protectedRange sqref="Q19" name="Section_B_1_3"/>
   </protectedRanges>
   <mergeCells count="33">
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:D18"/>
@@ -37487,11 +37473,25 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
   </mergeCells>
   <conditionalFormatting sqref="G18:J18">
     <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
@@ -37584,7 +37584,7 @@
   <dimension ref="A2:AF90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G65" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T89" sqref="T89"/>
+      <selection activeCell="P76" sqref="P76:Q76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -37609,15 +37609,15 @@
   <sheetData>
     <row r="2" spans="1:32" s="97" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="112"/>
-      <c r="B2" s="359" t="s">
+      <c r="B2" s="306" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="361"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="307"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="308"/>
       <c r="I2" s="18"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -37645,15 +37645,15 @@
     </row>
     <row r="4" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="221"/>
       <c r="I4" s="112"/>
       <c r="J4" s="112"/>
       <c r="K4" s="112"/>
@@ -37681,15 +37681,15 @@
     </row>
     <row r="5" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="375" t="s">
+      <c r="B5" s="329" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="376"/>
-      <c r="D5" s="376"/>
-      <c r="E5" s="376"/>
-      <c r="F5" s="376"/>
-      <c r="G5" s="376"/>
-      <c r="H5" s="377"/>
+      <c r="C5" s="330"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="331"/>
       <c r="I5" s="112"/>
       <c r="J5" s="112"/>
       <c r="K5" s="112"/>
@@ -37752,18 +37752,18 @@
       <c r="AF6" s="112"/>
     </row>
     <row r="7" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="368" t="s">
+      <c r="A7" s="322" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="378" t="s">
+      <c r="B7" s="332" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="379"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="379"/>
-      <c r="H7" s="380"/>
+      <c r="C7" s="333"/>
+      <c r="D7" s="333"/>
+      <c r="E7" s="333"/>
+      <c r="F7" s="333"/>
+      <c r="G7" s="333"/>
+      <c r="H7" s="334"/>
       <c r="I7" s="112"/>
       <c r="J7" s="112"/>
       <c r="K7" s="112"/>
@@ -37790,16 +37790,16 @@
       <c r="AF7" s="112"/>
     </row>
     <row r="8" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="368"/>
-      <c r="B8" s="369" t="s">
+      <c r="A8" s="322"/>
+      <c r="B8" s="323" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="370"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
-      <c r="G8" s="370"/>
-      <c r="H8" s="371"/>
+      <c r="C8" s="324"/>
+      <c r="D8" s="324"/>
+      <c r="E8" s="324"/>
+      <c r="F8" s="324"/>
+      <c r="G8" s="324"/>
+      <c r="H8" s="325"/>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
@@ -37826,16 +37826,16 @@
       <c r="AF8" s="112"/>
     </row>
     <row r="9" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="368"/>
-      <c r="B9" s="381" t="s">
+      <c r="A9" s="322"/>
+      <c r="B9" s="335" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="382"/>
-      <c r="D9" s="382"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="382"/>
-      <c r="G9" s="382"/>
-      <c r="H9" s="383"/>
+      <c r="C9" s="336"/>
+      <c r="D9" s="336"/>
+      <c r="E9" s="336"/>
+      <c r="F9" s="336"/>
+      <c r="G9" s="336"/>
+      <c r="H9" s="337"/>
       <c r="I9" s="112"/>
       <c r="J9" s="112"/>
       <c r="K9" s="112"/>
@@ -37862,7 +37862,7 @@
       <c r="AF9" s="112"/>
     </row>
     <row r="10" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="368"/>
+      <c r="A10" s="322"/>
       <c r="B10" s="112"/>
       <c r="C10" s="112"/>
       <c r="D10" s="112"/>
@@ -37896,7 +37896,7 @@
       <c r="AF10" s="112"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="368"/>
+      <c r="A11" s="322"/>
       <c r="B11" s="169" t="s">
         <v>260</v>
       </c>
@@ -38004,18 +38004,18 @@
       <c r="AF13" s="112"/>
     </row>
     <row r="14" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="384" t="s">
+      <c r="A14" s="338" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="365" t="s">
+      <c r="B14" s="319" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="366"/>
-      <c r="D14" s="366"/>
-      <c r="E14" s="366"/>
-      <c r="F14" s="366"/>
-      <c r="G14" s="366"/>
-      <c r="H14" s="367"/>
+      <c r="C14" s="320"/>
+      <c r="D14" s="320"/>
+      <c r="E14" s="320"/>
+      <c r="F14" s="320"/>
+      <c r="G14" s="320"/>
+      <c r="H14" s="321"/>
       <c r="I14" s="112"/>
       <c r="J14" s="112"/>
       <c r="K14" s="112"/>
@@ -38042,16 +38042,16 @@
       <c r="AF14" s="112"/>
     </row>
     <row r="15" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="384"/>
-      <c r="B15" s="372" t="s">
+      <c r="A15" s="338"/>
+      <c r="B15" s="326" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="373"/>
-      <c r="D15" s="373"/>
-      <c r="E15" s="373"/>
-      <c r="F15" s="373"/>
-      <c r="G15" s="373"/>
-      <c r="H15" s="374"/>
+      <c r="C15" s="327"/>
+      <c r="D15" s="327"/>
+      <c r="E15" s="327"/>
+      <c r="F15" s="327"/>
+      <c r="G15" s="327"/>
+      <c r="H15" s="328"/>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
       <c r="K15" s="112"/>
@@ -38078,7 +38078,7 @@
       <c r="AF15" s="112"/>
     </row>
     <row r="16" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="384"/>
+      <c r="A16" s="338"/>
       <c r="B16" s="340" t="s">
         <v>162</v>
       </c>
@@ -38114,7 +38114,7 @@
       <c r="AF16" s="112"/>
     </row>
     <row r="17" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="384"/>
+      <c r="A17" s="338"/>
       <c r="B17" s="171" t="s">
         <v>163</v>
       </c>
@@ -38150,7 +38150,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="384"/>
+      <c r="A18" s="338"/>
       <c r="B18" s="128">
         <v>120</v>
       </c>
@@ -38258,18 +38258,18 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32" s="97" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="384" t="s">
+      <c r="A21" s="338" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="365" t="s">
+      <c r="B21" s="319" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="366"/>
-      <c r="D21" s="366"/>
-      <c r="E21" s="366"/>
-      <c r="F21" s="366"/>
-      <c r="G21" s="366"/>
-      <c r="H21" s="367"/>
+      <c r="C21" s="320"/>
+      <c r="D21" s="320"/>
+      <c r="E21" s="320"/>
+      <c r="F21" s="320"/>
+      <c r="G21" s="320"/>
+      <c r="H21" s="321"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -38296,16 +38296,16 @@
       <c r="AF21" s="3"/>
     </row>
     <row r="22" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="384"/>
-      <c r="B22" s="372" t="s">
+      <c r="A22" s="338"/>
+      <c r="B22" s="326" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="373"/>
-      <c r="D22" s="373"/>
-      <c r="E22" s="373"/>
-      <c r="F22" s="373"/>
-      <c r="G22" s="373"/>
-      <c r="H22" s="374"/>
+      <c r="C22" s="327"/>
+      <c r="D22" s="327"/>
+      <c r="E22" s="327"/>
+      <c r="F22" s="327"/>
+      <c r="G22" s="327"/>
+      <c r="H22" s="328"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -38332,16 +38332,16 @@
       <c r="AF22" s="3"/>
     </row>
     <row r="23" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="384"/>
-      <c r="B23" s="343" t="s">
+      <c r="A23" s="338"/>
+      <c r="B23" s="309" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="344"/>
-      <c r="D23" s="344"/>
-      <c r="E23" s="344"/>
-      <c r="F23" s="344"/>
-      <c r="G23" s="344"/>
-      <c r="H23" s="345"/>
+      <c r="C23" s="310"/>
+      <c r="D23" s="310"/>
+      <c r="E23" s="310"/>
+      <c r="F23" s="310"/>
+      <c r="G23" s="310"/>
+      <c r="H23" s="311"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -38368,7 +38368,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="384"/>
+      <c r="A24" s="338"/>
       <c r="B24" s="171" t="s">
         <v>163</v>
       </c>
@@ -38404,7 +38404,7 @@
       <c r="AF24" s="3"/>
     </row>
     <row r="25" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="384"/>
+      <c r="A25" s="338"/>
       <c r="B25" s="128">
         <v>119</v>
       </c>
@@ -38512,18 +38512,18 @@
       <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" s="97" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="385" t="s">
+      <c r="A28" s="339" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="365" t="s">
+      <c r="B28" s="319" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="366"/>
-      <c r="D28" s="366"/>
-      <c r="E28" s="366"/>
-      <c r="F28" s="366"/>
-      <c r="G28" s="366"/>
-      <c r="H28" s="367"/>
+      <c r="C28" s="320"/>
+      <c r="D28" s="320"/>
+      <c r="E28" s="320"/>
+      <c r="F28" s="320"/>
+      <c r="G28" s="320"/>
+      <c r="H28" s="321"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -38550,16 +38550,16 @@
       <c r="AF28" s="3"/>
     </row>
     <row r="29" spans="1:32" s="97" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="385"/>
-      <c r="B29" s="372" t="s">
+      <c r="A29" s="339"/>
+      <c r="B29" s="326" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="373"/>
-      <c r="D29" s="373"/>
-      <c r="E29" s="373"/>
-      <c r="F29" s="373"/>
-      <c r="G29" s="373"/>
-      <c r="H29" s="374"/>
+      <c r="C29" s="327"/>
+      <c r="D29" s="327"/>
+      <c r="E29" s="327"/>
+      <c r="F29" s="327"/>
+      <c r="G29" s="327"/>
+      <c r="H29" s="328"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -38586,16 +38586,16 @@
       <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="385"/>
-      <c r="B30" s="343" t="s">
+      <c r="A30" s="339"/>
+      <c r="B30" s="309" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="344"/>
-      <c r="D30" s="344"/>
-      <c r="E30" s="344"/>
-      <c r="F30" s="344"/>
-      <c r="G30" s="344"/>
-      <c r="H30" s="345"/>
+      <c r="C30" s="310"/>
+      <c r="D30" s="310"/>
+      <c r="E30" s="310"/>
+      <c r="F30" s="310"/>
+      <c r="G30" s="310"/>
+      <c r="H30" s="311"/>
       <c r="I30" s="112"/>
       <c r="J30" s="112"/>
       <c r="K30" s="112"/>
@@ -38622,16 +38622,16 @@
       <c r="AF30" s="112"/>
     </row>
     <row r="31" spans="1:32" ht="239.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="385"/>
-      <c r="B31" s="326" t="s">
+      <c r="A31" s="339"/>
+      <c r="B31" s="312" t="s">
         <v>1089</v>
       </c>
-      <c r="C31" s="222"/>
-      <c r="D31" s="222"/>
-      <c r="E31" s="327"/>
-      <c r="F31" s="327"/>
-      <c r="G31" s="327"/>
-      <c r="H31" s="328"/>
+      <c r="C31" s="231"/>
+      <c r="D31" s="231"/>
+      <c r="E31" s="313"/>
+      <c r="F31" s="313"/>
+      <c r="G31" s="313"/>
+      <c r="H31" s="314"/>
       <c r="I31" s="112"/>
       <c r="J31" s="112"/>
       <c r="K31" s="112"/>
@@ -38658,13 +38658,13 @@
       <c r="AF31" s="112"/>
     </row>
     <row r="32" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="385"/>
-      <c r="B32" s="221" t="s">
+      <c r="A32" s="339"/>
+      <c r="B32" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="221"/>
-      <c r="D32" s="221"/>
-      <c r="E32" s="221"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="218"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="59" t="s">
@@ -38732,18 +38732,18 @@
       <c r="AF33" s="112"/>
     </row>
     <row r="34" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="368" t="s">
+      <c r="A34" s="322" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="365" t="s">
+      <c r="B34" s="319" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="366"/>
-      <c r="D34" s="366"/>
-      <c r="E34" s="366"/>
-      <c r="F34" s="366"/>
-      <c r="G34" s="366"/>
-      <c r="H34" s="367"/>
+      <c r="C34" s="320"/>
+      <c r="D34" s="320"/>
+      <c r="E34" s="320"/>
+      <c r="F34" s="320"/>
+      <c r="G34" s="320"/>
+      <c r="H34" s="321"/>
       <c r="I34" s="112"/>
       <c r="J34" s="112"/>
       <c r="K34" s="112"/>
@@ -38770,16 +38770,16 @@
       <c r="AF34" s="112"/>
     </row>
     <row r="35" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="368"/>
-      <c r="B35" s="372" t="s">
+      <c r="A35" s="322"/>
+      <c r="B35" s="326" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="373"/>
-      <c r="D35" s="373"/>
-      <c r="E35" s="373"/>
-      <c r="F35" s="373"/>
-      <c r="G35" s="373"/>
-      <c r="H35" s="374"/>
+      <c r="C35" s="327"/>
+      <c r="D35" s="327"/>
+      <c r="E35" s="327"/>
+      <c r="F35" s="327"/>
+      <c r="G35" s="327"/>
+      <c r="H35" s="328"/>
       <c r="I35" s="112"/>
       <c r="J35" s="112"/>
       <c r="K35" s="112"/>
@@ -38806,16 +38806,16 @@
       <c r="AF35" s="112"/>
     </row>
     <row r="36" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="368"/>
+      <c r="A36" s="322"/>
       <c r="B36" s="356" t="s">
         <v>179</v>
       </c>
       <c r="C36" s="357"/>
       <c r="D36" s="357"/>
-      <c r="E36" s="344"/>
-      <c r="F36" s="344"/>
-      <c r="G36" s="344"/>
-      <c r="H36" s="345"/>
+      <c r="E36" s="310"/>
+      <c r="F36" s="310"/>
+      <c r="G36" s="310"/>
+      <c r="H36" s="311"/>
       <c r="I36" s="112"/>
       <c r="J36" s="112"/>
       <c r="K36" s="112"/>
@@ -38842,7 +38842,7 @@
       <c r="AF36" s="112"/>
     </row>
     <row r="37" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="368"/>
+      <c r="A37" s="322"/>
       <c r="B37" s="171" t="s">
         <v>163</v>
       </c>
@@ -38878,7 +38878,7 @@
       <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="368"/>
+      <c r="A38" s="322"/>
       <c r="B38" s="128">
         <v>120</v>
       </c>
@@ -38951,22 +38951,22 @@
     </row>
     <row r="40" spans="1:32" s="107" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A40" s="105"/>
-      <c r="B40" s="346" t="s">
+      <c r="B40" s="343" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="347"/>
-      <c r="D40" s="347"/>
-      <c r="E40" s="347"/>
-      <c r="F40" s="347"/>
-      <c r="G40" s="347"/>
-      <c r="H40" s="347"/>
-      <c r="I40" s="347"/>
-      <c r="J40" s="347"/>
-      <c r="K40" s="347"/>
-      <c r="L40" s="347"/>
-      <c r="M40" s="347"/>
-      <c r="N40" s="347"/>
-      <c r="O40" s="348"/>
+      <c r="C40" s="344"/>
+      <c r="D40" s="344"/>
+      <c r="E40" s="344"/>
+      <c r="F40" s="344"/>
+      <c r="G40" s="344"/>
+      <c r="H40" s="344"/>
+      <c r="I40" s="344"/>
+      <c r="J40" s="344"/>
+      <c r="K40" s="344"/>
+      <c r="L40" s="344"/>
+      <c r="M40" s="344"/>
+      <c r="N40" s="344"/>
+      <c r="O40" s="345"/>
       <c r="P40" s="112"/>
       <c r="Q40" s="105"/>
       <c r="R40" s="105"/>
@@ -39023,28 +39023,28 @@
     </row>
     <row r="42" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="329" t="s">
+      <c r="B42" s="364" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="255" t="s">
+      <c r="C42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="256"/>
-      <c r="E42" s="255" t="s">
+      <c r="D42" s="266"/>
+      <c r="E42" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="256"/>
-      <c r="H42" s="256"/>
+      <c r="F42" s="266"/>
+      <c r="G42" s="266"/>
+      <c r="H42" s="266"/>
       <c r="I42" s="358"/>
-      <c r="J42" s="256" t="s">
+      <c r="J42" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="K42" s="256"/>
-      <c r="L42" s="256"/>
-      <c r="M42" s="256"/>
-      <c r="N42" s="257"/>
-      <c r="O42" s="353" t="s">
+      <c r="K42" s="266"/>
+      <c r="L42" s="266"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="267"/>
+      <c r="O42" s="352" t="s">
         <v>130</v>
       </c>
       <c r="P42" s="112"/>
@@ -39067,11 +39067,11 @@
     </row>
     <row r="43" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="330"/>
+      <c r="B43" s="365"/>
       <c r="C43" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="355" t="s">
+      <c r="D43" s="318" t="s">
         <v>132</v>
       </c>
       <c r="E43" s="173" t="s">
@@ -39086,7 +39086,7 @@
       <c r="H43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="I43" s="355" t="s">
+      <c r="I43" s="318" t="s">
         <v>132</v>
       </c>
       <c r="J43" s="173" t="s">
@@ -39101,10 +39101,10 @@
       <c r="M43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="N43" s="355" t="s">
+      <c r="N43" s="318" t="s">
         <v>132</v>
       </c>
-      <c r="O43" s="354"/>
+      <c r="O43" s="353"/>
       <c r="P43" s="112"/>
       <c r="Q43" s="112"/>
       <c r="R43" s="112"/>
@@ -39125,11 +39125,11 @@
     </row>
     <row r="44" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="112"/>
-      <c r="B44" s="330"/>
+      <c r="B44" s="365"/>
       <c r="C44" s="175" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="275"/>
+      <c r="D44" s="281"/>
       <c r="E44" s="176" t="s">
         <v>137</v>
       </c>
@@ -39142,7 +39142,7 @@
       <c r="H44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="I44" s="275"/>
+      <c r="I44" s="281"/>
       <c r="J44" s="175" t="s">
         <v>137</v>
       </c>
@@ -39155,8 +39155,8 @@
       <c r="M44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="N44" s="275"/>
-      <c r="O44" s="354"/>
+      <c r="N44" s="281"/>
+      <c r="O44" s="353"/>
       <c r="P44" s="112"/>
       <c r="Q44" s="112"/>
       <c r="R44" s="112"/>
@@ -39752,15 +39752,15 @@
     </row>
     <row r="54" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A54" s="112"/>
-      <c r="B54" s="337" t="s">
+      <c r="B54" s="372" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="338"/>
-      <c r="D54" s="338"/>
-      <c r="E54" s="338"/>
-      <c r="F54" s="338"/>
-      <c r="G54" s="338"/>
-      <c r="H54" s="339"/>
+      <c r="C54" s="373"/>
+      <c r="D54" s="373"/>
+      <c r="E54" s="373"/>
+      <c r="F54" s="373"/>
+      <c r="G54" s="373"/>
+      <c r="H54" s="374"/>
       <c r="I54" s="112"/>
       <c r="J54" s="112"/>
       <c r="K54" s="112"/>
@@ -39788,15 +39788,15 @@
     </row>
     <row r="55" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="112"/>
-      <c r="B55" s="331" t="s">
+      <c r="B55" s="366" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="332"/>
-      <c r="D55" s="332"/>
-      <c r="E55" s="332"/>
-      <c r="F55" s="332"/>
-      <c r="G55" s="332"/>
-      <c r="H55" s="333"/>
+      <c r="C55" s="367"/>
+      <c r="D55" s="367"/>
+      <c r="E55" s="367"/>
+      <c r="F55" s="367"/>
+      <c r="G55" s="367"/>
+      <c r="H55" s="368"/>
       <c r="I55" s="112"/>
       <c r="J55" s="112"/>
       <c r="K55" s="112"/>
@@ -39824,15 +39824,15 @@
     </row>
     <row r="56" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="112"/>
-      <c r="B56" s="350" t="s">
+      <c r="B56" s="348" t="s">
         <v>195</v>
       </c>
-      <c r="C56" s="351"/>
-      <c r="D56" s="351"/>
-      <c r="E56" s="351"/>
-      <c r="F56" s="351"/>
-      <c r="G56" s="351"/>
-      <c r="H56" s="352"/>
+      <c r="C56" s="349"/>
+      <c r="D56" s="349"/>
+      <c r="E56" s="349"/>
+      <c r="F56" s="349"/>
+      <c r="G56" s="349"/>
+      <c r="H56" s="350"/>
       <c r="I56" s="112"/>
       <c r="J56" s="112"/>
       <c r="K56" s="112"/>
@@ -39860,15 +39860,15 @@
     </row>
     <row r="57" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="112"/>
-      <c r="B57" s="326" t="s">
+      <c r="B57" s="312" t="s">
         <v>1090</v>
       </c>
-      <c r="C57" s="222"/>
-      <c r="D57" s="222"/>
-      <c r="E57" s="327"/>
-      <c r="F57" s="327"/>
-      <c r="G57" s="327"/>
-      <c r="H57" s="328"/>
+      <c r="C57" s="231"/>
+      <c r="D57" s="231"/>
+      <c r="E57" s="313"/>
+      <c r="F57" s="313"/>
+      <c r="G57" s="313"/>
+      <c r="H57" s="314"/>
       <c r="I57" s="112"/>
       <c r="J57" s="112"/>
       <c r="K57" s="112"/>
@@ -39896,12 +39896,12 @@
     </row>
     <row r="58" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="112"/>
-      <c r="B58" s="221" t="s">
+      <c r="B58" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="221"/>
-      <c r="D58" s="221"/>
-      <c r="E58" s="221"/>
+      <c r="C58" s="218"/>
+      <c r="D58" s="218"/>
+      <c r="E58" s="218"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="59" t="s">
@@ -39970,15 +39970,15 @@
     </row>
     <row r="60" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="112"/>
-      <c r="B60" s="362" t="s">
+      <c r="B60" s="315" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="363"/>
-      <c r="D60" s="363"/>
-      <c r="E60" s="363"/>
-      <c r="F60" s="363"/>
-      <c r="G60" s="363"/>
-      <c r="H60" s="364"/>
+      <c r="C60" s="316"/>
+      <c r="D60" s="316"/>
+      <c r="E60" s="316"/>
+      <c r="F60" s="316"/>
+      <c r="G60" s="316"/>
+      <c r="H60" s="317"/>
       <c r="I60" s="112"/>
       <c r="J60" s="112"/>
       <c r="K60" s="112"/>
@@ -40006,15 +40006,15 @@
     </row>
     <row r="61" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="112"/>
-      <c r="B61" s="334" t="s">
+      <c r="B61" s="369" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="335"/>
-      <c r="D61" s="335"/>
-      <c r="E61" s="335"/>
-      <c r="F61" s="335"/>
-      <c r="G61" s="335"/>
-      <c r="H61" s="336"/>
+      <c r="C61" s="370"/>
+      <c r="D61" s="370"/>
+      <c r="E61" s="370"/>
+      <c r="F61" s="370"/>
+      <c r="G61" s="370"/>
+      <c r="H61" s="371"/>
       <c r="I61" s="112"/>
       <c r="J61" s="112"/>
       <c r="K61" s="112"/>
@@ -40042,15 +40042,15 @@
     </row>
     <row r="62" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="112"/>
-      <c r="B62" s="323" t="s">
+      <c r="B62" s="361" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="324"/>
-      <c r="D62" s="324"/>
-      <c r="E62" s="324"/>
-      <c r="F62" s="324"/>
-      <c r="G62" s="324"/>
-      <c r="H62" s="325"/>
+      <c r="C62" s="362"/>
+      <c r="D62" s="362"/>
+      <c r="E62" s="362"/>
+      <c r="F62" s="362"/>
+      <c r="G62" s="362"/>
+      <c r="H62" s="363"/>
       <c r="I62" s="112"/>
       <c r="J62" s="112"/>
       <c r="K62" s="112"/>
@@ -40078,15 +40078,15 @@
     </row>
     <row r="63" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="112"/>
-      <c r="B63" s="326" t="s">
+      <c r="B63" s="312" t="s">
         <v>1091</v>
       </c>
-      <c r="C63" s="222"/>
-      <c r="D63" s="222"/>
-      <c r="E63" s="327"/>
-      <c r="F63" s="327"/>
-      <c r="G63" s="327"/>
-      <c r="H63" s="328"/>
+      <c r="C63" s="231"/>
+      <c r="D63" s="231"/>
+      <c r="E63" s="313"/>
+      <c r="F63" s="313"/>
+      <c r="G63" s="313"/>
+      <c r="H63" s="314"/>
       <c r="I63" s="112"/>
       <c r="J63" s="112"/>
       <c r="K63" s="112"/>
@@ -40297,41 +40297,41 @@
       <c r="B69" s="178" t="s">
         <v>206</v>
       </c>
-      <c r="C69" s="314" t="s">
+      <c r="C69" s="354" t="s">
         <v>207</v>
       </c>
-      <c r="D69" s="315"/>
-      <c r="E69" s="314" t="s">
+      <c r="D69" s="355"/>
+      <c r="E69" s="354" t="s">
         <v>208</v>
       </c>
-      <c r="F69" s="315"/>
-      <c r="G69" s="316" t="s">
+      <c r="F69" s="355"/>
+      <c r="G69" s="346" t="s">
         <v>209</v>
       </c>
-      <c r="H69" s="317"/>
-      <c r="I69" s="314" t="s">
+      <c r="H69" s="351"/>
+      <c r="I69" s="354" t="s">
         <v>210</v>
       </c>
-      <c r="J69" s="315"/>
+      <c r="J69" s="355"/>
       <c r="K69" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="L69" s="312" t="s">
+      <c r="L69" s="383" t="s">
         <v>212</v>
       </c>
-      <c r="M69" s="313"/>
-      <c r="N69" s="316" t="s">
+      <c r="M69" s="384"/>
+      <c r="N69" s="346" t="s">
         <v>213</v>
       </c>
-      <c r="O69" s="317"/>
-      <c r="P69" s="314" t="s">
+      <c r="O69" s="351"/>
+      <c r="P69" s="354" t="s">
         <v>214</v>
       </c>
-      <c r="Q69" s="315"/>
-      <c r="R69" s="316" t="s">
+      <c r="Q69" s="355"/>
+      <c r="R69" s="346" t="s">
         <v>215</v>
       </c>
-      <c r="S69" s="349"/>
+      <c r="S69" s="347"/>
       <c r="T69" s="112"/>
       <c r="U69" s="112"/>
       <c r="V69" s="112"/>
@@ -40351,41 +40351,41 @@
       <c r="B70" s="123">
         <v>1</v>
       </c>
-      <c r="C70" s="310" t="s">
+      <c r="C70" s="379" t="s">
         <v>424</v>
       </c>
-      <c r="D70" s="310"/>
-      <c r="E70" s="311" t="s">
+      <c r="D70" s="379"/>
+      <c r="E70" s="359" t="s">
         <v>302</v>
       </c>
-      <c r="F70" s="311"/>
-      <c r="G70" s="310" t="s">
+      <c r="F70" s="359"/>
+      <c r="G70" s="379" t="s">
         <v>421</v>
       </c>
-      <c r="H70" s="310"/>
-      <c r="I70" s="311" t="s">
+      <c r="H70" s="379"/>
+      <c r="I70" s="359" t="s">
         <v>305</v>
       </c>
-      <c r="J70" s="311"/>
+      <c r="J70" s="359"/>
       <c r="K70" s="114">
         <v>20</v>
       </c>
-      <c r="L70" s="318" t="s">
+      <c r="L70" s="385" t="s">
         <v>1092</v>
       </c>
-      <c r="M70" s="318"/>
-      <c r="N70" s="321" t="s">
+      <c r="M70" s="385"/>
+      <c r="N70" s="376" t="s">
         <v>1093</v>
       </c>
-      <c r="O70" s="321"/>
-      <c r="P70" s="310" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q70" s="310"/>
-      <c r="R70" s="311" t="s">
+      <c r="O70" s="376"/>
+      <c r="P70" s="379" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q70" s="379"/>
+      <c r="R70" s="359" t="s">
         <v>7</v>
       </c>
-      <c r="S70" s="322"/>
+      <c r="S70" s="378"/>
       <c r="T70" s="112"/>
       <c r="U70" s="112"/>
       <c r="V70" s="112"/>
@@ -40403,45 +40403,45 @@
     <row r="71" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="112"/>
       <c r="B71" s="194"/>
-      <c r="C71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J71" s="308" t="s">
+      <c r="C71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J71" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K71" s="193"/>
-      <c r="L71" s="307"/>
-      <c r="M71" s="307"/>
-      <c r="N71" s="308"/>
-      <c r="O71" s="308"/>
-      <c r="P71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S71" s="309" t="s">
+      <c r="L71" s="375"/>
+      <c r="M71" s="375"/>
+      <c r="N71" s="360"/>
+      <c r="O71" s="360"/>
+      <c r="P71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S71" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T71" s="112"/>
@@ -40461,45 +40461,45 @@
     <row r="72" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="112"/>
       <c r="B72" s="194"/>
-      <c r="C72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J72" s="308" t="s">
+      <c r="C72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K72" s="193"/>
-      <c r="L72" s="307"/>
-      <c r="M72" s="307"/>
-      <c r="N72" s="308"/>
-      <c r="O72" s="308"/>
-      <c r="P72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S72" s="309" t="s">
+      <c r="L72" s="375"/>
+      <c r="M72" s="375"/>
+      <c r="N72" s="360"/>
+      <c r="O72" s="360"/>
+      <c r="P72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S72" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T72" s="112"/>
@@ -40519,45 +40519,45 @@
     <row r="73" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="112"/>
       <c r="B73" s="194"/>
-      <c r="C73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J73" s="308" t="s">
+      <c r="C73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J73" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K73" s="193"/>
-      <c r="L73" s="307"/>
-      <c r="M73" s="307"/>
-      <c r="N73" s="308"/>
-      <c r="O73" s="308"/>
-      <c r="P73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S73" s="309" t="s">
+      <c r="L73" s="375"/>
+      <c r="M73" s="375"/>
+      <c r="N73" s="360"/>
+      <c r="O73" s="360"/>
+      <c r="P73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S73" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T73" s="112"/>
@@ -40577,45 +40577,45 @@
     <row r="74" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="112"/>
       <c r="B74" s="194"/>
-      <c r="C74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J74" s="308" t="s">
+      <c r="C74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J74" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K74" s="193"/>
-      <c r="L74" s="307"/>
-      <c r="M74" s="307"/>
-      <c r="N74" s="308"/>
-      <c r="O74" s="308"/>
-      <c r="P74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S74" s="309" t="s">
+      <c r="L74" s="375"/>
+      <c r="M74" s="375"/>
+      <c r="N74" s="360"/>
+      <c r="O74" s="360"/>
+      <c r="P74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S74" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T74" s="112"/>
@@ -40635,45 +40635,45 @@
     <row r="75" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="112"/>
       <c r="B75" s="194"/>
-      <c r="C75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J75" s="308" t="s">
+      <c r="C75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J75" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K75" s="193"/>
-      <c r="L75" s="307"/>
-      <c r="M75" s="307"/>
-      <c r="N75" s="308"/>
-      <c r="O75" s="308"/>
-      <c r="P75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S75" s="309" t="s">
+      <c r="L75" s="375"/>
+      <c r="M75" s="375"/>
+      <c r="N75" s="360"/>
+      <c r="O75" s="360"/>
+      <c r="P75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S75" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T75" s="112"/>
@@ -40693,45 +40693,45 @@
     <row r="76" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="112"/>
       <c r="B76" s="194"/>
-      <c r="C76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J76" s="308" t="s">
+      <c r="C76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J76" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K76" s="193"/>
-      <c r="L76" s="307"/>
-      <c r="M76" s="307"/>
-      <c r="N76" s="308"/>
-      <c r="O76" s="308"/>
-      <c r="P76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S76" s="309" t="s">
+      <c r="L76" s="375"/>
+      <c r="M76" s="375"/>
+      <c r="N76" s="360"/>
+      <c r="O76" s="360"/>
+      <c r="P76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S76" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T76" s="112"/>
@@ -40751,45 +40751,45 @@
     <row r="77" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="112"/>
       <c r="B77" s="194"/>
-      <c r="C77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J77" s="308" t="s">
+      <c r="C77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J77" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K77" s="193"/>
-      <c r="L77" s="307"/>
-      <c r="M77" s="307"/>
-      <c r="N77" s="308"/>
-      <c r="O77" s="308"/>
-      <c r="P77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S77" s="309" t="s">
+      <c r="L77" s="375"/>
+      <c r="M77" s="375"/>
+      <c r="N77" s="360"/>
+      <c r="O77" s="360"/>
+      <c r="P77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S77" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T77" s="112"/>
@@ -40809,45 +40809,45 @@
     <row r="78" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="112"/>
       <c r="B78" s="194"/>
-      <c r="C78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J78" s="308" t="s">
+      <c r="C78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K78" s="193"/>
-      <c r="L78" s="307"/>
-      <c r="M78" s="307"/>
-      <c r="N78" s="308"/>
-      <c r="O78" s="308"/>
-      <c r="P78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S78" s="309" t="s">
+      <c r="L78" s="375"/>
+      <c r="M78" s="375"/>
+      <c r="N78" s="360"/>
+      <c r="O78" s="360"/>
+      <c r="P78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S78" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T78" s="112"/>
@@ -40867,45 +40867,45 @@
     <row r="79" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="112"/>
       <c r="B79" s="194"/>
-      <c r="C79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J79" s="308" t="s">
+      <c r="C79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J79" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K79" s="193"/>
-      <c r="L79" s="307"/>
-      <c r="M79" s="307"/>
-      <c r="N79" s="308"/>
-      <c r="O79" s="308"/>
-      <c r="P79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S79" s="309" t="s">
+      <c r="L79" s="375"/>
+      <c r="M79" s="375"/>
+      <c r="N79" s="360"/>
+      <c r="O79" s="360"/>
+      <c r="P79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S79" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T79" s="112"/>
@@ -40925,45 +40925,45 @@
     <row r="80" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="112"/>
       <c r="B80" s="194"/>
-      <c r="C80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J80" s="308" t="s">
+      <c r="C80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J80" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K80" s="193"/>
-      <c r="L80" s="307"/>
-      <c r="M80" s="307"/>
-      <c r="N80" s="308"/>
-      <c r="O80" s="308"/>
-      <c r="P80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S80" s="309" t="s">
+      <c r="L80" s="375"/>
+      <c r="M80" s="375"/>
+      <c r="N80" s="360"/>
+      <c r="O80" s="360"/>
+      <c r="P80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S80" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T80" s="112"/>
@@ -40983,45 +40983,45 @@
     <row r="81" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="112"/>
       <c r="B81" s="194"/>
-      <c r="C81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J81" s="308" t="s">
+      <c r="C81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J81" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K81" s="193"/>
-      <c r="L81" s="307"/>
-      <c r="M81" s="307"/>
-      <c r="N81" s="308"/>
-      <c r="O81" s="308"/>
-      <c r="P81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S81" s="309" t="s">
+      <c r="L81" s="375"/>
+      <c r="M81" s="375"/>
+      <c r="N81" s="360"/>
+      <c r="O81" s="360"/>
+      <c r="P81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S81" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T81" s="112"/>
@@ -41041,45 +41041,45 @@
     <row r="82" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="112"/>
       <c r="B82" s="194"/>
-      <c r="C82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J82" s="308" t="s">
+      <c r="C82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J82" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K82" s="193"/>
-      <c r="L82" s="307"/>
-      <c r="M82" s="307"/>
-      <c r="N82" s="308"/>
-      <c r="O82" s="308"/>
-      <c r="P82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S82" s="309" t="s">
+      <c r="L82" s="375"/>
+      <c r="M82" s="375"/>
+      <c r="N82" s="360"/>
+      <c r="O82" s="360"/>
+      <c r="P82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S82" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T82" s="112"/>
@@ -41099,45 +41099,45 @@
     <row r="83" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="112"/>
       <c r="B83" s="194"/>
-      <c r="C83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J83" s="308" t="s">
+      <c r="C83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J83" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K83" s="193"/>
-      <c r="L83" s="307"/>
-      <c r="M83" s="307"/>
-      <c r="N83" s="308"/>
-      <c r="O83" s="308"/>
-      <c r="P83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S83" s="309" t="s">
+      <c r="L83" s="375"/>
+      <c r="M83" s="375"/>
+      <c r="N83" s="360"/>
+      <c r="O83" s="360"/>
+      <c r="P83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S83" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T83" s="112"/>
@@ -41157,45 +41157,45 @@
     <row r="84" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="112"/>
       <c r="B84" s="194"/>
-      <c r="C84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J84" s="308" t="s">
+      <c r="C84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J84" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K84" s="193"/>
-      <c r="L84" s="307"/>
-      <c r="M84" s="307"/>
-      <c r="N84" s="308"/>
-      <c r="O84" s="308"/>
-      <c r="P84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S84" s="309" t="s">
+      <c r="L84" s="375"/>
+      <c r="M84" s="375"/>
+      <c r="N84" s="360"/>
+      <c r="O84" s="360"/>
+      <c r="P84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S84" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T84" s="112"/>
@@ -41215,45 +41215,45 @@
     <row r="85" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="112"/>
       <c r="B85" s="194"/>
-      <c r="C85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J85" s="308" t="s">
+      <c r="C85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J85" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K85" s="193"/>
-      <c r="L85" s="307"/>
-      <c r="M85" s="307"/>
-      <c r="N85" s="308"/>
-      <c r="O85" s="308"/>
-      <c r="P85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S85" s="309" t="s">
+      <c r="L85" s="375"/>
+      <c r="M85" s="375"/>
+      <c r="N85" s="360"/>
+      <c r="O85" s="360"/>
+      <c r="P85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S85" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T85" s="112"/>
@@ -41273,45 +41273,45 @@
     <row r="86" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="112"/>
       <c r="B86" s="194"/>
-      <c r="C86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J86" s="308" t="s">
+      <c r="C86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J86" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K86" s="193"/>
-      <c r="L86" s="307"/>
-      <c r="M86" s="307"/>
-      <c r="N86" s="308"/>
-      <c r="O86" s="308"/>
-      <c r="P86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S86" s="309" t="s">
+      <c r="L86" s="375"/>
+      <c r="M86" s="375"/>
+      <c r="N86" s="360"/>
+      <c r="O86" s="360"/>
+      <c r="P86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S86" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T86" s="112"/>
@@ -41331,45 +41331,45 @@
     <row r="87" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="112"/>
       <c r="B87" s="195"/>
-      <c r="C87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="F87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="G87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="H87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="I87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="J87" s="319" t="s">
+      <c r="C87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="H87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="I87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="J87" s="380" t="s">
         <v>91</v>
       </c>
       <c r="K87" s="196"/>
-      <c r="L87" s="306"/>
-      <c r="M87" s="306"/>
-      <c r="N87" s="319"/>
-      <c r="O87" s="319"/>
-      <c r="P87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="R87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="S87" s="320" t="s">
+      <c r="L87" s="382"/>
+      <c r="M87" s="382"/>
+      <c r="N87" s="380"/>
+      <c r="O87" s="380"/>
+      <c r="P87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="R87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="S87" s="381" t="s">
         <v>91</v>
       </c>
       <c r="T87" s="112"/>
@@ -41492,6 +41492,177 @@
     </row>
   </sheetData>
   <mergeCells count="195">
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="D43:D44"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B30:H30"/>
     <mergeCell ref="B31:H31"/>
@@ -41516,177 +41687,6 @@
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="I86:J86"/>
   </mergeCells>
   <conditionalFormatting sqref="C44 E44:H44">
     <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
@@ -41778,12 +41778,12 @@
     <row r="1" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="215"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -41824,12 +41824,12 @@
     <row r="3" spans="1:41" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:41" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
       <c r="F4" s="112"/>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
@@ -41869,12 +41869,12 @@
     </row>
     <row r="5" spans="1:41" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="343" t="s">
+      <c r="B5" s="309" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="345"/>
+      <c r="C5" s="310"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="311"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
@@ -42268,23 +42268,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42559,23 +42548,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
-    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
-    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -42602,9 +42597,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
+    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
+    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Validation_Failures.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Validation_Failures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mhclg-my.sharepoint.com/personal/william_may_communities_gov_uk/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{FE4F3936-EDC4-4FA9-86EB-500CD72E1383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ACCC2C4-40CF-4193-9CB1-0D8A00099F29}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{FE4F3936-EDC4-4FA9-86EB-500CD72E1383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A2696A2-8B6B-4D17-893A-EC7DFEDDF8B7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="661" firstSheet="5" activeTab="7" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="661" firstSheet="2" activeTab="5" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="13" r:id="rId1"/>
@@ -23,11 +23,11 @@
     <sheet name="Finances" sheetId="6" r:id="rId8"/>
     <sheet name="Risks" sheetId="7" r:id="rId9"/>
     <sheet name="Sign off" sheetId="8" r:id="rId10"/>
-    <sheet name="Dropdown Values" sheetId="19" state="hidden" r:id="rId11"/>
-    <sheet name="Project Details" sheetId="10" state="hidden" r:id="rId12"/>
-    <sheet name="ITValues" sheetId="20" state="hidden" r:id="rId13"/>
-    <sheet name="Bespoke Outputs" sheetId="14" state="hidden" r:id="rId14"/>
-    <sheet name="Bespoke Outcomes" sheetId="15" state="hidden" r:id="rId15"/>
+    <sheet name="Dropdown Values" sheetId="19" r:id="rId11"/>
+    <sheet name="Project Details" sheetId="10" r:id="rId12"/>
+    <sheet name="ITValues" sheetId="20" r:id="rId13"/>
+    <sheet name="Bespoke Outputs" sheetId="14" r:id="rId14"/>
+    <sheet name="Bespoke Outcomes" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Project Details'!$A$2:$E$997</definedName>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="1113">
   <si>
     <t>Reporting Round</t>
   </si>
@@ -1334,9 +1334,6 @@
   </si>
   <si>
     <t xml:space="preserve">Amount of land made wheelchair accessible/step free </t>
-  </si>
-  <si>
-    <t>Enhancing sub-regional and regional connectivity</t>
   </si>
   <si>
     <t>Amount of new educational space created</t>
@@ -7694,7 +7691,7 @@
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7714,7 +7711,7 @@
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="29" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7904,8 +7901,8 @@
   </sheetPr>
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8196,12 +8193,12 @@
         <v>299</v>
       </c>
       <c r="C48" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B49" t="s">
         <v>299</v>
@@ -8212,7 +8209,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B50" t="s">
         <v>299</v>
@@ -8223,7 +8220,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B51" t="s">
         <v>299</v>
@@ -8234,7 +8231,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B52" t="s">
         <v>299</v>
@@ -8245,7 +8242,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B53" t="s">
         <v>299</v>
@@ -8256,7 +8253,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s">
         <v>299</v>
@@ -8267,7 +8264,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B55" t="s">
         <v>139</v>
@@ -8278,7 +8275,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s">
         <v>139</v>
@@ -8289,7 +8286,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B57" t="s">
         <v>139</v>
@@ -8301,7 +8298,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s">
         <v>139</v>
@@ -8312,18 +8309,18 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B59" t="s">
         <v>139</v>
       </c>
       <c r="C59" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B60" t="s">
         <v>139</v>
@@ -8334,7 +8331,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B61" t="s">
         <v>139</v>
@@ -8345,7 +8342,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B62" t="s">
         <v>139</v>
@@ -8356,7 +8353,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B63" t="s">
         <v>139</v>
@@ -8367,7 +8364,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B64" t="s">
         <v>139</v>
@@ -8378,7 +8375,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B65" t="s">
         <v>139</v>
@@ -8389,7 +8386,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B66" t="s">
         <v>139</v>
@@ -8400,7 +8397,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B67" t="s">
         <v>139</v>
@@ -8412,7 +8409,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B68" t="s">
         <v>139</v>
@@ -8423,7 +8420,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B69" t="s">
         <v>139</v>
@@ -8434,7 +8431,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B70" t="s">
         <v>139</v>
@@ -8445,7 +8442,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B71" t="s">
         <v>139</v>
@@ -8456,83 +8453,83 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>330</v>
+      </c>
+      <c r="B72" t="s">
         <v>331</v>
       </c>
-      <c r="B72" t="s">
-        <v>332</v>
-      </c>
       <c r="C72" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B73" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C73" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B74" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C74" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C75" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C76" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B77" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C77" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C78" s="60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>297</v>
@@ -8557,7 +8554,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B82" t="s">
         <v>139</v>
@@ -8568,10 +8565,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>341</v>
+      </c>
+      <c r="B83" t="s">
         <v>342</v>
-      </c>
-      <c r="B83" t="s">
-        <v>343</v>
       </c>
       <c r="C83" s="125" t="s">
         <v>302</v>
@@ -8579,40 +8576,40 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C84" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B85" t="s">
         <v>139</v>
       </c>
       <c r="C85" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B86" t="s">
         <v>139</v>
       </c>
       <c r="C86" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B87" t="s">
         <v>139</v>
@@ -8623,7 +8620,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B88" t="s">
         <v>139</v>
@@ -8634,7 +8631,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B89" t="s">
         <v>139</v>
@@ -8645,7 +8642,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B90" t="s">
         <v>139</v>
@@ -8656,7 +8653,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B91" t="s">
         <v>139</v>
@@ -8667,7 +8664,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B92" t="s">
         <v>139</v>
@@ -8678,7 +8675,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B93" t="s">
         <v>139</v>
@@ -8689,7 +8686,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B94" t="s">
         <v>139</v>
@@ -8700,7 +8697,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B95" t="s">
         <v>139</v>
@@ -8711,7 +8708,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B96" t="s">
         <v>139</v>
@@ -8722,21 +8719,21 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B97" t="s">
         <v>139</v>
       </c>
       <c r="C97" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B98" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C98" s="125" t="s">
         <v>305</v>
@@ -8744,10 +8741,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B99" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C99" s="125" t="s">
         <v>300</v>
@@ -8755,10 +8752,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B100" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C100" s="125" t="s">
         <v>302</v>
@@ -8766,21 +8763,21 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C101" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>358</v>
+      </c>
+      <c r="B102" t="s">
         <v>359</v>
-      </c>
-      <c r="B102" t="s">
-        <v>360</v>
       </c>
       <c r="C102" s="125" t="s">
         <v>300</v>
@@ -8788,10 +8785,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B103" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C103" s="125" t="s">
         <v>300</v>
@@ -8799,23 +8796,23 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B104" t="s">
         <v>139</v>
       </c>
       <c r="C104" s="125" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C105" s="60" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="60" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -8831,7 +8828,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -8846,22 +8843,22 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="60" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
@@ -8882,7 +8879,7 @@
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
@@ -8902,17 +8899,17 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="60" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
@@ -8923,22 +8920,22 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="60" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="60" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
@@ -8959,12 +8956,12 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="60" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
@@ -8990,22 +8987,22 @@
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
@@ -9016,132 +9013,132 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="60" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="60" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
@@ -9152,32 +9149,32 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="60" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -9213,24 +9210,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B2" t="s">
         <v>414</v>
-      </c>
-      <c r="B2" t="s">
-        <v>415</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
       </c>
       <c r="D2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E2" t="s">
         <v>416</v>
-      </c>
-      <c r="E2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -9238,16 +9235,16 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" t="s">
         <v>418</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>419</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>420</v>
-      </c>
-      <c r="E3" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -9255,16 +9252,16 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" t="s">
         <v>422</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E4" t="s">
         <v>423</v>
-      </c>
-      <c r="D4" t="s">
-        <v>420</v>
-      </c>
-      <c r="E4" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -9272,16 +9269,16 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C5" t="s">
         <v>425</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E5" t="s">
         <v>426</v>
-      </c>
-      <c r="D5" t="s">
-        <v>420</v>
-      </c>
-      <c r="E5" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -9289,16 +9286,16 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" t="s">
         <v>428</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E6" t="s">
         <v>429</v>
-      </c>
-      <c r="D6" t="s">
-        <v>420</v>
-      </c>
-      <c r="E6" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -9306,16 +9303,16 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C7" t="s">
         <v>431</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E7" t="s">
         <v>432</v>
-      </c>
-      <c r="D7" t="s">
-        <v>420</v>
-      </c>
-      <c r="E7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -9323,16 +9320,16 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C8" t="s">
         <v>434</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>419</v>
+      </c>
+      <c r="E8" t="s">
         <v>435</v>
-      </c>
-      <c r="D8" t="s">
-        <v>420</v>
-      </c>
-      <c r="E8" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -9340,16 +9337,16 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C9" t="s">
         <v>437</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" t="s">
         <v>438</v>
-      </c>
-      <c r="D9" t="s">
-        <v>420</v>
-      </c>
-      <c r="E9" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -9357,16 +9354,16 @@
         <v>45</v>
       </c>
       <c r="B10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" t="s">
         <v>440</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>419</v>
+      </c>
+      <c r="E10" t="s">
         <v>441</v>
-      </c>
-      <c r="D10" t="s">
-        <v>420</v>
-      </c>
-      <c r="E10" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -9374,16 +9371,16 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
         <v>443</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>419</v>
+      </c>
+      <c r="E11" t="s">
         <v>444</v>
-      </c>
-      <c r="D11" t="s">
-        <v>420</v>
-      </c>
-      <c r="E11" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -9391,16 +9388,16 @@
         <v>277</v>
       </c>
       <c r="B12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C12" t="s">
         <v>446</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>419</v>
+      </c>
+      <c r="E12" t="s">
         <v>447</v>
-      </c>
-      <c r="D12" t="s">
-        <v>420</v>
-      </c>
-      <c r="E12" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -9408,16 +9405,16 @@
         <v>277</v>
       </c>
       <c r="B13" t="s">
+        <v>448</v>
+      </c>
+      <c r="C13" t="s">
         <v>449</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>419</v>
+      </c>
+      <c r="E13" t="s">
         <v>450</v>
-      </c>
-      <c r="D13" t="s">
-        <v>420</v>
-      </c>
-      <c r="E13" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -9425,16 +9422,16 @@
         <v>277</v>
       </c>
       <c r="B14" t="s">
+        <v>451</v>
+      </c>
+      <c r="C14" t="s">
         <v>452</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E14" t="s">
         <v>453</v>
-      </c>
-      <c r="D14" t="s">
-        <v>420</v>
-      </c>
-      <c r="E14" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -9442,16 +9439,16 @@
         <v>277</v>
       </c>
       <c r="B15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C15" t="s">
         <v>455</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>419</v>
+      </c>
+      <c r="E15" t="s">
         <v>456</v>
-      </c>
-      <c r="D15" t="s">
-        <v>420</v>
-      </c>
-      <c r="E15" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -9459,16 +9456,16 @@
         <v>277</v>
       </c>
       <c r="B16" t="s">
+        <v>457</v>
+      </c>
+      <c r="C16" t="s">
         <v>458</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>419</v>
+      </c>
+      <c r="E16" t="s">
         <v>459</v>
-      </c>
-      <c r="D16" t="s">
-        <v>420</v>
-      </c>
-      <c r="E16" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -9476,16 +9473,16 @@
         <v>277</v>
       </c>
       <c r="B17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C17" t="s">
         <v>461</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>419</v>
+      </c>
+      <c r="E17" t="s">
         <v>462</v>
-      </c>
-      <c r="D17" t="s">
-        <v>420</v>
-      </c>
-      <c r="E17" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -9493,16 +9490,16 @@
         <v>277</v>
       </c>
       <c r="B18" t="s">
+        <v>463</v>
+      </c>
+      <c r="C18" t="s">
         <v>464</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>419</v>
+      </c>
+      <c r="E18" t="s">
         <v>465</v>
-      </c>
-      <c r="D18" t="s">
-        <v>420</v>
-      </c>
-      <c r="E18" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -9510,16 +9507,16 @@
         <v>277</v>
       </c>
       <c r="B19" t="s">
+        <v>466</v>
+      </c>
+      <c r="C19" t="s">
         <v>467</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>419</v>
+      </c>
+      <c r="E19" t="s">
         <v>468</v>
-      </c>
-      <c r="D19" t="s">
-        <v>420</v>
-      </c>
-      <c r="E19" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -9527,16 +9524,16 @@
         <v>277</v>
       </c>
       <c r="B20" t="s">
+        <v>469</v>
+      </c>
+      <c r="C20" t="s">
         <v>470</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>419</v>
+      </c>
+      <c r="E20" t="s">
         <v>471</v>
-      </c>
-      <c r="D20" t="s">
-        <v>420</v>
-      </c>
-      <c r="E20" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -9544,16 +9541,16 @@
         <v>277</v>
       </c>
       <c r="B21" t="s">
+        <v>472</v>
+      </c>
+      <c r="C21" t="s">
         <v>473</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>419</v>
+      </c>
+      <c r="E21" t="s">
         <v>474</v>
-      </c>
-      <c r="D21" t="s">
-        <v>420</v>
-      </c>
-      <c r="E21" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -9561,16 +9558,16 @@
         <v>277</v>
       </c>
       <c r="B22" t="s">
+        <v>475</v>
+      </c>
+      <c r="C22" t="s">
         <v>476</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>419</v>
+      </c>
+      <c r="E22" t="s">
         <v>477</v>
-      </c>
-      <c r="D22" t="s">
-        <v>420</v>
-      </c>
-      <c r="E22" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -9578,16 +9575,16 @@
         <v>277</v>
       </c>
       <c r="B23" t="s">
+        <v>478</v>
+      </c>
+      <c r="C23" t="s">
         <v>479</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>419</v>
+      </c>
+      <c r="E23" t="s">
         <v>480</v>
-      </c>
-      <c r="D23" t="s">
-        <v>420</v>
-      </c>
-      <c r="E23" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -9595,16 +9592,16 @@
         <v>277</v>
       </c>
       <c r="B24" t="s">
+        <v>481</v>
+      </c>
+      <c r="C24" t="s">
         <v>482</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>419</v>
+      </c>
+      <c r="E24" t="s">
         <v>483</v>
-      </c>
-      <c r="D24" t="s">
-        <v>420</v>
-      </c>
-      <c r="E24" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -9612,16 +9609,16 @@
         <v>277</v>
       </c>
       <c r="B25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C25" t="s">
         <v>485</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>419</v>
+      </c>
+      <c r="E25" t="s">
         <v>486</v>
-      </c>
-      <c r="D25" t="s">
-        <v>420</v>
-      </c>
-      <c r="E25" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -9629,16 +9626,16 @@
         <v>277</v>
       </c>
       <c r="B26" t="s">
+        <v>487</v>
+      </c>
+      <c r="C26" t="s">
         <v>488</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>419</v>
+      </c>
+      <c r="E26" t="s">
         <v>489</v>
-      </c>
-      <c r="D26" t="s">
-        <v>420</v>
-      </c>
-      <c r="E26" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -9646,16 +9643,16 @@
         <v>277</v>
       </c>
       <c r="B27" t="s">
+        <v>490</v>
+      </c>
+      <c r="C27" t="s">
         <v>491</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>419</v>
+      </c>
+      <c r="E27" t="s">
         <v>492</v>
-      </c>
-      <c r="D27" t="s">
-        <v>420</v>
-      </c>
-      <c r="E27" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -9663,16 +9660,16 @@
         <v>277</v>
       </c>
       <c r="B28" t="s">
+        <v>493</v>
+      </c>
+      <c r="C28" t="s">
         <v>494</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>419</v>
+      </c>
+      <c r="E28" t="s">
         <v>495</v>
-      </c>
-      <c r="D28" t="s">
-        <v>420</v>
-      </c>
-      <c r="E28" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -9680,16 +9677,16 @@
         <v>277</v>
       </c>
       <c r="B29" t="s">
+        <v>496</v>
+      </c>
+      <c r="C29" t="s">
         <v>497</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>419</v>
+      </c>
+      <c r="E29" t="s">
         <v>498</v>
-      </c>
-      <c r="D29" t="s">
-        <v>420</v>
-      </c>
-      <c r="E29" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -9697,16 +9694,16 @@
         <v>277</v>
       </c>
       <c r="B30" t="s">
+        <v>499</v>
+      </c>
+      <c r="C30" t="s">
         <v>500</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>419</v>
+      </c>
+      <c r="E30" t="s">
         <v>501</v>
-      </c>
-      <c r="D30" t="s">
-        <v>420</v>
-      </c>
-      <c r="E30" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -9714,16 +9711,16 @@
         <v>277</v>
       </c>
       <c r="B31" t="s">
+        <v>502</v>
+      </c>
+      <c r="C31" t="s">
         <v>503</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>419</v>
+      </c>
+      <c r="E31" t="s">
         <v>504</v>
-      </c>
-      <c r="D31" t="s">
-        <v>420</v>
-      </c>
-      <c r="E31" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -9731,16 +9728,16 @@
         <v>277</v>
       </c>
       <c r="B32" t="s">
+        <v>505</v>
+      </c>
+      <c r="C32" t="s">
         <v>506</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>419</v>
+      </c>
+      <c r="E32" t="s">
         <v>507</v>
-      </c>
-      <c r="D32" t="s">
-        <v>420</v>
-      </c>
-      <c r="E32" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -9748,16 +9745,16 @@
         <v>277</v>
       </c>
       <c r="B33" t="s">
+        <v>508</v>
+      </c>
+      <c r="C33" t="s">
         <v>509</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>419</v>
+      </c>
+      <c r="E33" t="s">
         <v>510</v>
-      </c>
-      <c r="D33" t="s">
-        <v>420</v>
-      </c>
-      <c r="E33" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -9765,16 +9762,16 @@
         <v>277</v>
       </c>
       <c r="B34" t="s">
+        <v>511</v>
+      </c>
+      <c r="C34" t="s">
         <v>512</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>419</v>
+      </c>
+      <c r="E34" t="s">
         <v>513</v>
-      </c>
-      <c r="D34" t="s">
-        <v>420</v>
-      </c>
-      <c r="E34" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -9782,16 +9779,16 @@
         <v>277</v>
       </c>
       <c r="B35" t="s">
+        <v>514</v>
+      </c>
+      <c r="C35" t="s">
         <v>515</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>419</v>
+      </c>
+      <c r="E35" t="s">
         <v>516</v>
-      </c>
-      <c r="D35" t="s">
-        <v>420</v>
-      </c>
-      <c r="E35" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -9799,16 +9796,16 @@
         <v>277</v>
       </c>
       <c r="B36" t="s">
+        <v>517</v>
+      </c>
+      <c r="C36" t="s">
         <v>518</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>419</v>
+      </c>
+      <c r="E36" t="s">
         <v>519</v>
-      </c>
-      <c r="D36" t="s">
-        <v>420</v>
-      </c>
-      <c r="E36" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -9816,16 +9813,16 @@
         <v>277</v>
       </c>
       <c r="B37" t="s">
+        <v>520</v>
+      </c>
+      <c r="C37" t="s">
         <v>521</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>419</v>
+      </c>
+      <c r="E37" t="s">
         <v>522</v>
-      </c>
-      <c r="D37" t="s">
-        <v>420</v>
-      </c>
-      <c r="E37" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -9833,16 +9830,16 @@
         <v>277</v>
       </c>
       <c r="B38" t="s">
+        <v>523</v>
+      </c>
+      <c r="C38" t="s">
         <v>524</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>419</v>
+      </c>
+      <c r="E38" t="s">
         <v>525</v>
-      </c>
-      <c r="D38" t="s">
-        <v>420</v>
-      </c>
-      <c r="E38" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -9850,16 +9847,16 @@
         <v>277</v>
       </c>
       <c r="B39" t="s">
+        <v>526</v>
+      </c>
+      <c r="C39" t="s">
         <v>527</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>419</v>
+      </c>
+      <c r="E39" t="s">
         <v>528</v>
-      </c>
-      <c r="D39" t="s">
-        <v>420</v>
-      </c>
-      <c r="E39" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -9867,16 +9864,16 @@
         <v>277</v>
       </c>
       <c r="B40" t="s">
+        <v>529</v>
+      </c>
+      <c r="C40" t="s">
         <v>530</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>419</v>
+      </c>
+      <c r="E40" t="s">
         <v>531</v>
-      </c>
-      <c r="D40" t="s">
-        <v>420</v>
-      </c>
-      <c r="E40" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -9884,16 +9881,16 @@
         <v>278</v>
       </c>
       <c r="B41" t="s">
+        <v>532</v>
+      </c>
+      <c r="C41" t="s">
         <v>533</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>419</v>
+      </c>
+      <c r="E41" t="s">
         <v>534</v>
-      </c>
-      <c r="D41" t="s">
-        <v>420</v>
-      </c>
-      <c r="E41" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -9901,16 +9898,16 @@
         <v>278</v>
       </c>
       <c r="B42" t="s">
+        <v>535</v>
+      </c>
+      <c r="C42" t="s">
         <v>536</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>419</v>
+      </c>
+      <c r="E42" t="s">
         <v>537</v>
-      </c>
-      <c r="D42" t="s">
-        <v>420</v>
-      </c>
-      <c r="E42" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -9918,16 +9915,16 @@
         <v>278</v>
       </c>
       <c r="B43" t="s">
+        <v>538</v>
+      </c>
+      <c r="C43" t="s">
         <v>539</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>419</v>
+      </c>
+      <c r="E43" t="s">
         <v>540</v>
-      </c>
-      <c r="D43" t="s">
-        <v>420</v>
-      </c>
-      <c r="E43" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -9935,16 +9932,16 @@
         <v>278</v>
       </c>
       <c r="B44" t="s">
+        <v>541</v>
+      </c>
+      <c r="C44" t="s">
         <v>542</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>419</v>
+      </c>
+      <c r="E44" t="s">
         <v>543</v>
-      </c>
-      <c r="D44" t="s">
-        <v>420</v>
-      </c>
-      <c r="E44" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -9952,16 +9949,16 @@
         <v>278</v>
       </c>
       <c r="B45" t="s">
+        <v>544</v>
+      </c>
+      <c r="C45" t="s">
         <v>545</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>419</v>
+      </c>
+      <c r="E45" t="s">
         <v>546</v>
-      </c>
-      <c r="D45" t="s">
-        <v>420</v>
-      </c>
-      <c r="E45" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -9969,16 +9966,16 @@
         <v>278</v>
       </c>
       <c r="B46" t="s">
+        <v>547</v>
+      </c>
+      <c r="C46" t="s">
         <v>548</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>419</v>
+      </c>
+      <c r="E46" t="s">
         <v>549</v>
-      </c>
-      <c r="D46" t="s">
-        <v>420</v>
-      </c>
-      <c r="E46" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -9986,16 +9983,16 @@
         <v>278</v>
       </c>
       <c r="B47" t="s">
+        <v>550</v>
+      </c>
+      <c r="C47" t="s">
         <v>551</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>419</v>
+      </c>
+      <c r="E47" t="s">
         <v>552</v>
-      </c>
-      <c r="D47" t="s">
-        <v>420</v>
-      </c>
-      <c r="E47" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -10003,16 +10000,16 @@
         <v>278</v>
       </c>
       <c r="B48" t="s">
+        <v>553</v>
+      </c>
+      <c r="C48" t="s">
         <v>554</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>419</v>
+      </c>
+      <c r="E48" t="s">
         <v>555</v>
-      </c>
-      <c r="D48" t="s">
-        <v>420</v>
-      </c>
-      <c r="E48" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -10020,16 +10017,16 @@
         <v>278</v>
       </c>
       <c r="B49" t="s">
+        <v>556</v>
+      </c>
+      <c r="C49" t="s">
         <v>557</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>419</v>
+      </c>
+      <c r="E49" t="s">
         <v>558</v>
-      </c>
-      <c r="D49" t="s">
-        <v>420</v>
-      </c>
-      <c r="E49" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -10037,16 +10034,16 @@
         <v>278</v>
       </c>
       <c r="B50" t="s">
+        <v>559</v>
+      </c>
+      <c r="C50" t="s">
         <v>560</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>419</v>
+      </c>
+      <c r="E50" t="s">
         <v>561</v>
-      </c>
-      <c r="D50" t="s">
-        <v>420</v>
-      </c>
-      <c r="E50" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -10054,16 +10051,16 @@
         <v>278</v>
       </c>
       <c r="B51" t="s">
+        <v>562</v>
+      </c>
+      <c r="C51" t="s">
         <v>563</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>419</v>
+      </c>
+      <c r="E51" t="s">
         <v>564</v>
-      </c>
-      <c r="D51" t="s">
-        <v>420</v>
-      </c>
-      <c r="E51" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -10071,16 +10068,16 @@
         <v>278</v>
       </c>
       <c r="B52" t="s">
+        <v>565</v>
+      </c>
+      <c r="C52" t="s">
         <v>566</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>419</v>
+      </c>
+      <c r="E52" t="s">
         <v>567</v>
-      </c>
-      <c r="D52" t="s">
-        <v>420</v>
-      </c>
-      <c r="E52" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -10088,16 +10085,16 @@
         <v>279</v>
       </c>
       <c r="B53" t="s">
+        <v>568</v>
+      </c>
+      <c r="C53" t="s">
         <v>569</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>419</v>
+      </c>
+      <c r="E53" t="s">
         <v>570</v>
-      </c>
-      <c r="D53" t="s">
-        <v>420</v>
-      </c>
-      <c r="E53" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -10105,16 +10102,16 @@
         <v>279</v>
       </c>
       <c r="B54" t="s">
+        <v>571</v>
+      </c>
+      <c r="C54" t="s">
         <v>572</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>419</v>
+      </c>
+      <c r="E54" t="s">
         <v>573</v>
-      </c>
-      <c r="D54" t="s">
-        <v>420</v>
-      </c>
-      <c r="E54" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -10122,16 +10119,16 @@
         <v>279</v>
       </c>
       <c r="B55" t="s">
+        <v>574</v>
+      </c>
+      <c r="C55" t="s">
         <v>575</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>419</v>
+      </c>
+      <c r="E55" t="s">
         <v>576</v>
-      </c>
-      <c r="D55" t="s">
-        <v>420</v>
-      </c>
-      <c r="E55" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -10139,16 +10136,16 @@
         <v>279</v>
       </c>
       <c r="B56" t="s">
+        <v>577</v>
+      </c>
+      <c r="C56" t="s">
         <v>578</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>419</v>
+      </c>
+      <c r="E56" t="s">
         <v>579</v>
-      </c>
-      <c r="D56" t="s">
-        <v>420</v>
-      </c>
-      <c r="E56" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -10156,16 +10153,16 @@
         <v>279</v>
       </c>
       <c r="B57" t="s">
+        <v>580</v>
+      </c>
+      <c r="C57" t="s">
         <v>581</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>419</v>
+      </c>
+      <c r="E57" t="s">
         <v>582</v>
-      </c>
-      <c r="D57" t="s">
-        <v>420</v>
-      </c>
-      <c r="E57" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -10173,16 +10170,16 @@
         <v>279</v>
       </c>
       <c r="B58" t="s">
+        <v>583</v>
+      </c>
+      <c r="C58" t="s">
         <v>584</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>419</v>
+      </c>
+      <c r="E58" t="s">
         <v>585</v>
-      </c>
-      <c r="D58" t="s">
-        <v>420</v>
-      </c>
-      <c r="E58" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -10190,16 +10187,16 @@
         <v>279</v>
       </c>
       <c r="B59" t="s">
+        <v>586</v>
+      </c>
+      <c r="C59" t="s">
         <v>587</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>419</v>
+      </c>
+      <c r="E59" t="s">
         <v>588</v>
-      </c>
-      <c r="D59" t="s">
-        <v>420</v>
-      </c>
-      <c r="E59" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -10207,16 +10204,16 @@
         <v>279</v>
       </c>
       <c r="B60" t="s">
+        <v>589</v>
+      </c>
+      <c r="C60" t="s">
         <v>590</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>419</v>
+      </c>
+      <c r="E60" t="s">
         <v>591</v>
-      </c>
-      <c r="D60" t="s">
-        <v>420</v>
-      </c>
-      <c r="E60" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -10224,16 +10221,16 @@
         <v>279</v>
       </c>
       <c r="B61" t="s">
+        <v>592</v>
+      </c>
+      <c r="C61" t="s">
         <v>593</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>419</v>
+      </c>
+      <c r="E61" t="s">
         <v>594</v>
-      </c>
-      <c r="D61" t="s">
-        <v>420</v>
-      </c>
-      <c r="E61" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -10241,16 +10238,16 @@
         <v>279</v>
       </c>
       <c r="B62" t="s">
+        <v>595</v>
+      </c>
+      <c r="C62" t="s">
         <v>596</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>419</v>
+      </c>
+      <c r="E62" t="s">
         <v>597</v>
-      </c>
-      <c r="D62" t="s">
-        <v>420</v>
-      </c>
-      <c r="E62" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -10258,16 +10255,16 @@
         <v>279</v>
       </c>
       <c r="B63" t="s">
+        <v>598</v>
+      </c>
+      <c r="C63" t="s">
         <v>599</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>419</v>
+      </c>
+      <c r="E63" t="s">
         <v>600</v>
-      </c>
-      <c r="D63" t="s">
-        <v>420</v>
-      </c>
-      <c r="E63" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -10275,16 +10272,16 @@
         <v>279</v>
       </c>
       <c r="B64" t="s">
+        <v>601</v>
+      </c>
+      <c r="C64" t="s">
         <v>602</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>419</v>
+      </c>
+      <c r="E64" t="s">
         <v>603</v>
-      </c>
-      <c r="D64" t="s">
-        <v>420</v>
-      </c>
-      <c r="E64" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -10292,16 +10289,16 @@
         <v>279</v>
       </c>
       <c r="B65" t="s">
+        <v>604</v>
+      </c>
+      <c r="C65" t="s">
         <v>605</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>419</v>
+      </c>
+      <c r="E65" t="s">
         <v>606</v>
-      </c>
-      <c r="D65" t="s">
-        <v>420</v>
-      </c>
-      <c r="E65" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -10309,16 +10306,16 @@
         <v>280</v>
       </c>
       <c r="B66" t="s">
+        <v>607</v>
+      </c>
+      <c r="C66" t="s">
         <v>608</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>419</v>
+      </c>
+      <c r="E66" t="s">
         <v>609</v>
-      </c>
-      <c r="D66" t="s">
-        <v>420</v>
-      </c>
-      <c r="E66" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -10326,16 +10323,16 @@
         <v>280</v>
       </c>
       <c r="B67" t="s">
+        <v>610</v>
+      </c>
+      <c r="C67" t="s">
         <v>611</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>419</v>
+      </c>
+      <c r="E67" t="s">
         <v>612</v>
-      </c>
-      <c r="D67" t="s">
-        <v>420</v>
-      </c>
-      <c r="E67" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -10343,16 +10340,16 @@
         <v>280</v>
       </c>
       <c r="B68" t="s">
+        <v>613</v>
+      </c>
+      <c r="C68" t="s">
         <v>614</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>419</v>
+      </c>
+      <c r="E68" t="s">
         <v>615</v>
-      </c>
-      <c r="D68" t="s">
-        <v>420</v>
-      </c>
-      <c r="E68" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -10360,16 +10357,16 @@
         <v>280</v>
       </c>
       <c r="B69" t="s">
+        <v>616</v>
+      </c>
+      <c r="C69" t="s">
         <v>617</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>419</v>
+      </c>
+      <c r="E69" t="s">
         <v>618</v>
-      </c>
-      <c r="D69" t="s">
-        <v>420</v>
-      </c>
-      <c r="E69" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -10377,16 +10374,16 @@
         <v>280</v>
       </c>
       <c r="B70" t="s">
+        <v>619</v>
+      </c>
+      <c r="C70" t="s">
         <v>620</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>419</v>
+      </c>
+      <c r="E70" t="s">
         <v>621</v>
-      </c>
-      <c r="D70" t="s">
-        <v>420</v>
-      </c>
-      <c r="E70" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -10394,16 +10391,16 @@
         <v>280</v>
       </c>
       <c r="B71" t="s">
+        <v>622</v>
+      </c>
+      <c r="C71" t="s">
         <v>623</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>419</v>
+      </c>
+      <c r="E71" t="s">
         <v>624</v>
-      </c>
-      <c r="D71" t="s">
-        <v>420</v>
-      </c>
-      <c r="E71" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -10411,16 +10408,16 @@
         <v>280</v>
       </c>
       <c r="B72" t="s">
+        <v>625</v>
+      </c>
+      <c r="C72" t="s">
         <v>626</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>419</v>
+      </c>
+      <c r="E72" t="s">
         <v>627</v>
-      </c>
-      <c r="D72" t="s">
-        <v>420</v>
-      </c>
-      <c r="E72" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -10428,16 +10425,16 @@
         <v>280</v>
       </c>
       <c r="B73" t="s">
+        <v>628</v>
+      </c>
+      <c r="C73" t="s">
         <v>629</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>419</v>
+      </c>
+      <c r="E73" t="s">
         <v>630</v>
-      </c>
-      <c r="D73" t="s">
-        <v>420</v>
-      </c>
-      <c r="E73" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -10445,16 +10442,16 @@
         <v>280</v>
       </c>
       <c r="B74" t="s">
+        <v>631</v>
+      </c>
+      <c r="C74" t="s">
         <v>632</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>419</v>
+      </c>
+      <c r="E74" t="s">
         <v>633</v>
-      </c>
-      <c r="D74" t="s">
-        <v>420</v>
-      </c>
-      <c r="E74" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -10462,16 +10459,16 @@
         <v>280</v>
       </c>
       <c r="B75" t="s">
+        <v>634</v>
+      </c>
+      <c r="C75" t="s">
         <v>635</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>419</v>
+      </c>
+      <c r="E75" t="s">
         <v>636</v>
-      </c>
-      <c r="D75" t="s">
-        <v>420</v>
-      </c>
-      <c r="E75" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -10479,16 +10476,16 @@
         <v>280</v>
       </c>
       <c r="B76" t="s">
+        <v>637</v>
+      </c>
+      <c r="C76" t="s">
         <v>638</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>419</v>
+      </c>
+      <c r="E76" t="s">
         <v>639</v>
-      </c>
-      <c r="D76" t="s">
-        <v>420</v>
-      </c>
-      <c r="E76" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -10496,16 +10493,16 @@
         <v>280</v>
       </c>
       <c r="B77" t="s">
+        <v>640</v>
+      </c>
+      <c r="C77" t="s">
         <v>641</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>419</v>
+      </c>
+      <c r="E77" t="s">
         <v>642</v>
-      </c>
-      <c r="D77" t="s">
-        <v>420</v>
-      </c>
-      <c r="E77" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -10513,16 +10510,16 @@
         <v>281</v>
       </c>
       <c r="B78" t="s">
+        <v>643</v>
+      </c>
+      <c r="C78" t="s">
         <v>644</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>419</v>
+      </c>
+      <c r="E78" t="s">
         <v>645</v>
-      </c>
-      <c r="D78" t="s">
-        <v>420</v>
-      </c>
-      <c r="E78" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -10530,16 +10527,16 @@
         <v>281</v>
       </c>
       <c r="B79" t="s">
+        <v>646</v>
+      </c>
+      <c r="C79" t="s">
         <v>647</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>419</v>
+      </c>
+      <c r="E79" t="s">
         <v>648</v>
-      </c>
-      <c r="D79" t="s">
-        <v>420</v>
-      </c>
-      <c r="E79" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -10547,16 +10544,16 @@
         <v>281</v>
       </c>
       <c r="B80" t="s">
+        <v>649</v>
+      </c>
+      <c r="C80" t="s">
         <v>650</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>419</v>
+      </c>
+      <c r="E80" t="s">
         <v>651</v>
-      </c>
-      <c r="D80" t="s">
-        <v>420</v>
-      </c>
-      <c r="E80" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -10564,16 +10561,16 @@
         <v>281</v>
       </c>
       <c r="B81" t="s">
+        <v>652</v>
+      </c>
+      <c r="C81" t="s">
         <v>653</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>419</v>
+      </c>
+      <c r="E81" t="s">
         <v>654</v>
-      </c>
-      <c r="D81" t="s">
-        <v>420</v>
-      </c>
-      <c r="E81" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -10581,16 +10578,16 @@
         <v>281</v>
       </c>
       <c r="B82" t="s">
+        <v>655</v>
+      </c>
+      <c r="C82" t="s">
         <v>656</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>419</v>
+      </c>
+      <c r="E82" t="s">
         <v>657</v>
-      </c>
-      <c r="D82" t="s">
-        <v>420</v>
-      </c>
-      <c r="E82" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -10598,16 +10595,16 @@
         <v>281</v>
       </c>
       <c r="B83" t="s">
+        <v>658</v>
+      </c>
+      <c r="C83" t="s">
         <v>659</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>419</v>
+      </c>
+      <c r="E83" t="s">
         <v>660</v>
-      </c>
-      <c r="D83" t="s">
-        <v>420</v>
-      </c>
-      <c r="E83" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -10615,16 +10612,16 @@
         <v>281</v>
       </c>
       <c r="B84" t="s">
+        <v>661</v>
+      </c>
+      <c r="C84" t="s">
         <v>662</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>419</v>
+      </c>
+      <c r="E84" t="s">
         <v>663</v>
-      </c>
-      <c r="D84" t="s">
-        <v>420</v>
-      </c>
-      <c r="E84" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -10632,16 +10629,16 @@
         <v>281</v>
       </c>
       <c r="B85" t="s">
+        <v>664</v>
+      </c>
+      <c r="C85" t="s">
         <v>665</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>419</v>
+      </c>
+      <c r="E85" t="s">
         <v>666</v>
-      </c>
-      <c r="D85" t="s">
-        <v>420</v>
-      </c>
-      <c r="E85" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -10649,16 +10646,16 @@
         <v>281</v>
       </c>
       <c r="B86" t="s">
+        <v>667</v>
+      </c>
+      <c r="C86" t="s">
         <v>668</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>419</v>
+      </c>
+      <c r="E86" t="s">
         <v>669</v>
-      </c>
-      <c r="D86" t="s">
-        <v>420</v>
-      </c>
-      <c r="E86" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -10666,16 +10663,16 @@
         <v>281</v>
       </c>
       <c r="B87" t="s">
+        <v>670</v>
+      </c>
+      <c r="C87" t="s">
         <v>671</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>419</v>
+      </c>
+      <c r="E87" t="s">
         <v>672</v>
-      </c>
-      <c r="D87" t="s">
-        <v>420</v>
-      </c>
-      <c r="E87" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -10683,16 +10680,16 @@
         <v>281</v>
       </c>
       <c r="B88" t="s">
+        <v>673</v>
+      </c>
+      <c r="C88" t="s">
         <v>674</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
+        <v>419</v>
+      </c>
+      <c r="E88" t="s">
         <v>675</v>
-      </c>
-      <c r="D88" t="s">
-        <v>420</v>
-      </c>
-      <c r="E88" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -10700,16 +10697,16 @@
         <v>281</v>
       </c>
       <c r="B89" t="s">
+        <v>676</v>
+      </c>
+      <c r="C89" t="s">
         <v>677</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>419</v>
+      </c>
+      <c r="E89" t="s">
         <v>678</v>
-      </c>
-      <c r="D89" t="s">
-        <v>420</v>
-      </c>
-      <c r="E89" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -10717,16 +10714,16 @@
         <v>281</v>
       </c>
       <c r="B90" t="s">
+        <v>679</v>
+      </c>
+      <c r="C90" t="s">
         <v>680</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
+        <v>419</v>
+      </c>
+      <c r="E90" t="s">
         <v>681</v>
-      </c>
-      <c r="D90" t="s">
-        <v>420</v>
-      </c>
-      <c r="E90" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -10734,16 +10731,16 @@
         <v>282</v>
       </c>
       <c r="B91" t="s">
+        <v>682</v>
+      </c>
+      <c r="C91" t="s">
         <v>683</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>419</v>
+      </c>
+      <c r="E91" t="s">
         <v>684</v>
-      </c>
-      <c r="D91" t="s">
-        <v>420</v>
-      </c>
-      <c r="E91" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -10751,16 +10748,16 @@
         <v>282</v>
       </c>
       <c r="B92" t="s">
+        <v>685</v>
+      </c>
+      <c r="C92" t="s">
         <v>686</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>419</v>
+      </c>
+      <c r="E92" t="s">
         <v>687</v>
-      </c>
-      <c r="D92" t="s">
-        <v>420</v>
-      </c>
-      <c r="E92" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -10768,16 +10765,16 @@
         <v>282</v>
       </c>
       <c r="B93" t="s">
+        <v>688</v>
+      </c>
+      <c r="C93" t="s">
         <v>689</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>419</v>
+      </c>
+      <c r="E93" t="s">
         <v>690</v>
-      </c>
-      <c r="D93" t="s">
-        <v>420</v>
-      </c>
-      <c r="E93" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -10785,16 +10782,16 @@
         <v>282</v>
       </c>
       <c r="B94" t="s">
+        <v>691</v>
+      </c>
+      <c r="C94" t="s">
         <v>692</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>419</v>
+      </c>
+      <c r="E94" t="s">
         <v>693</v>
-      </c>
-      <c r="D94" t="s">
-        <v>420</v>
-      </c>
-      <c r="E94" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -10802,16 +10799,16 @@
         <v>282</v>
       </c>
       <c r="B95" t="s">
+        <v>694</v>
+      </c>
+      <c r="C95" t="s">
         <v>695</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>419</v>
+      </c>
+      <c r="E95" t="s">
         <v>696</v>
-      </c>
-      <c r="D95" t="s">
-        <v>420</v>
-      </c>
-      <c r="E95" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -10819,16 +10816,16 @@
         <v>282</v>
       </c>
       <c r="B96" t="s">
+        <v>697</v>
+      </c>
+      <c r="C96" t="s">
         <v>698</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>419</v>
+      </c>
+      <c r="E96" t="s">
         <v>699</v>
-      </c>
-      <c r="D96" t="s">
-        <v>420</v>
-      </c>
-      <c r="E96" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
@@ -10836,16 +10833,16 @@
         <v>282</v>
       </c>
       <c r="B97" t="s">
+        <v>700</v>
+      </c>
+      <c r="C97" t="s">
         <v>701</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>419</v>
+      </c>
+      <c r="E97" t="s">
         <v>702</v>
-      </c>
-      <c r="D97" t="s">
-        <v>420</v>
-      </c>
-      <c r="E97" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -10853,16 +10850,16 @@
         <v>282</v>
       </c>
       <c r="B98" t="s">
+        <v>703</v>
+      </c>
+      <c r="C98" t="s">
         <v>704</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>419</v>
+      </c>
+      <c r="E98" t="s">
         <v>705</v>
-      </c>
-      <c r="D98" t="s">
-        <v>420</v>
-      </c>
-      <c r="E98" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -10870,16 +10867,16 @@
         <v>282</v>
       </c>
       <c r="B99" t="s">
+        <v>706</v>
+      </c>
+      <c r="C99" t="s">
         <v>707</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>419</v>
+      </c>
+      <c r="E99" t="s">
         <v>708</v>
-      </c>
-      <c r="D99" t="s">
-        <v>420</v>
-      </c>
-      <c r="E99" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -10887,16 +10884,16 @@
         <v>282</v>
       </c>
       <c r="B100" t="s">
+        <v>709</v>
+      </c>
+      <c r="C100" t="s">
         <v>710</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
+        <v>419</v>
+      </c>
+      <c r="E100" t="s">
         <v>711</v>
-      </c>
-      <c r="D100" t="s">
-        <v>420</v>
-      </c>
-      <c r="E100" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
@@ -10904,16 +10901,16 @@
         <v>282</v>
       </c>
       <c r="B101" t="s">
+        <v>712</v>
+      </c>
+      <c r="C101" t="s">
         <v>713</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
+        <v>419</v>
+      </c>
+      <c r="E101" t="s">
         <v>714</v>
-      </c>
-      <c r="D101" t="s">
-        <v>420</v>
-      </c>
-      <c r="E101" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -10921,16 +10918,16 @@
         <v>282</v>
       </c>
       <c r="B102" t="s">
+        <v>715</v>
+      </c>
+      <c r="C102" t="s">
         <v>716</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>419</v>
+      </c>
+      <c r="E102" t="s">
         <v>717</v>
-      </c>
-      <c r="D102" t="s">
-        <v>420</v>
-      </c>
-      <c r="E102" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
@@ -10938,16 +10935,16 @@
         <v>282</v>
       </c>
       <c r="B103" t="s">
+        <v>718</v>
+      </c>
+      <c r="C103" t="s">
         <v>719</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>419</v>
+      </c>
+      <c r="E103" t="s">
         <v>720</v>
-      </c>
-      <c r="D103" t="s">
-        <v>420</v>
-      </c>
-      <c r="E103" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -10955,16 +10952,16 @@
         <v>282</v>
       </c>
       <c r="B104" t="s">
+        <v>721</v>
+      </c>
+      <c r="C104" t="s">
         <v>722</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
+        <v>419</v>
+      </c>
+      <c r="E104" t="s">
         <v>723</v>
-      </c>
-      <c r="D104" t="s">
-        <v>420</v>
-      </c>
-      <c r="E104" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -10972,16 +10969,16 @@
         <v>282</v>
       </c>
       <c r="B105" t="s">
+        <v>724</v>
+      </c>
+      <c r="C105" t="s">
         <v>725</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>419</v>
+      </c>
+      <c r="E105" t="s">
         <v>726</v>
-      </c>
-      <c r="D105" t="s">
-        <v>420</v>
-      </c>
-      <c r="E105" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
@@ -10989,16 +10986,16 @@
         <v>282</v>
       </c>
       <c r="B106" t="s">
+        <v>727</v>
+      </c>
+      <c r="C106" t="s">
         <v>728</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>419</v>
+      </c>
+      <c r="E106" t="s">
         <v>729</v>
-      </c>
-      <c r="D106" t="s">
-        <v>420</v>
-      </c>
-      <c r="E106" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
@@ -11006,16 +11003,16 @@
         <v>282</v>
       </c>
       <c r="B107" t="s">
+        <v>730</v>
+      </c>
+      <c r="C107" t="s">
         <v>731</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
+        <v>419</v>
+      </c>
+      <c r="E107" t="s">
         <v>732</v>
-      </c>
-      <c r="D107" t="s">
-        <v>420</v>
-      </c>
-      <c r="E107" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -11023,16 +11020,16 @@
         <v>282</v>
       </c>
       <c r="B108" t="s">
+        <v>733</v>
+      </c>
+      <c r="C108" t="s">
         <v>734</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>419</v>
+      </c>
+      <c r="E108" t="s">
         <v>735</v>
-      </c>
-      <c r="D108" t="s">
-        <v>420</v>
-      </c>
-      <c r="E108" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -11040,16 +11037,16 @@
         <v>282</v>
       </c>
       <c r="B109" t="s">
+        <v>736</v>
+      </c>
+      <c r="C109" t="s">
         <v>737</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
+        <v>419</v>
+      </c>
+      <c r="E109" t="s">
         <v>738</v>
-      </c>
-      <c r="D109" t="s">
-        <v>420</v>
-      </c>
-      <c r="E109" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
@@ -11057,16 +11054,16 @@
         <v>283</v>
       </c>
       <c r="B110" t="s">
+        <v>739</v>
+      </c>
+      <c r="C110" t="s">
         <v>740</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
+        <v>419</v>
+      </c>
+      <c r="E110" t="s">
         <v>741</v>
-      </c>
-      <c r="D110" t="s">
-        <v>420</v>
-      </c>
-      <c r="E110" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
@@ -11074,16 +11071,16 @@
         <v>283</v>
       </c>
       <c r="B111" t="s">
+        <v>742</v>
+      </c>
+      <c r="C111" t="s">
         <v>743</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
+        <v>419</v>
+      </c>
+      <c r="E111" t="s">
         <v>744</v>
-      </c>
-      <c r="D111" t="s">
-        <v>420</v>
-      </c>
-      <c r="E111" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
@@ -11091,16 +11088,16 @@
         <v>283</v>
       </c>
       <c r="B112" t="s">
+        <v>745</v>
+      </c>
+      <c r="C112" t="s">
         <v>746</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
+        <v>419</v>
+      </c>
+      <c r="E112" t="s">
         <v>747</v>
-      </c>
-      <c r="D112" t="s">
-        <v>420</v>
-      </c>
-      <c r="E112" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
@@ -11108,16 +11105,16 @@
         <v>283</v>
       </c>
       <c r="B113" t="s">
+        <v>748</v>
+      </c>
+      <c r="C113" t="s">
         <v>749</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
+        <v>419</v>
+      </c>
+      <c r="E113" t="s">
         <v>750</v>
-      </c>
-      <c r="D113" t="s">
-        <v>420</v>
-      </c>
-      <c r="E113" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
@@ -11125,16 +11122,16 @@
         <v>283</v>
       </c>
       <c r="B114" t="s">
+        <v>751</v>
+      </c>
+      <c r="C114" t="s">
         <v>752</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>419</v>
+      </c>
+      <c r="E114" t="s">
         <v>753</v>
-      </c>
-      <c r="D114" t="s">
-        <v>420</v>
-      </c>
-      <c r="E114" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
@@ -11142,16 +11139,16 @@
         <v>283</v>
       </c>
       <c r="B115" t="s">
+        <v>754</v>
+      </c>
+      <c r="C115" t="s">
         <v>755</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
+        <v>419</v>
+      </c>
+      <c r="E115" t="s">
         <v>756</v>
-      </c>
-      <c r="D115" t="s">
-        <v>420</v>
-      </c>
-      <c r="E115" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
@@ -11159,16 +11156,16 @@
         <v>283</v>
       </c>
       <c r="B116" t="s">
+        <v>757</v>
+      </c>
+      <c r="C116" t="s">
         <v>758</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
+        <v>419</v>
+      </c>
+      <c r="E116" t="s">
         <v>759</v>
-      </c>
-      <c r="D116" t="s">
-        <v>420</v>
-      </c>
-      <c r="E116" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
@@ -11176,16 +11173,16 @@
         <v>283</v>
       </c>
       <c r="B117" t="s">
+        <v>760</v>
+      </c>
+      <c r="C117" t="s">
         <v>761</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
+        <v>419</v>
+      </c>
+      <c r="E117" t="s">
         <v>762</v>
-      </c>
-      <c r="D117" t="s">
-        <v>420</v>
-      </c>
-      <c r="E117" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
@@ -11193,16 +11190,16 @@
         <v>283</v>
       </c>
       <c r="B118" t="s">
+        <v>763</v>
+      </c>
+      <c r="C118" t="s">
         <v>764</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
+        <v>419</v>
+      </c>
+      <c r="E118" t="s">
         <v>765</v>
-      </c>
-      <c r="D118" t="s">
-        <v>420</v>
-      </c>
-      <c r="E118" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
@@ -11210,16 +11207,16 @@
         <v>284</v>
       </c>
       <c r="B119" t="s">
+        <v>766</v>
+      </c>
+      <c r="C119" t="s">
         <v>767</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
+        <v>419</v>
+      </c>
+      <c r="E119" t="s">
         <v>768</v>
-      </c>
-      <c r="D119" t="s">
-        <v>420</v>
-      </c>
-      <c r="E119" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
@@ -11227,16 +11224,16 @@
         <v>284</v>
       </c>
       <c r="B120" t="s">
+        <v>769</v>
+      </c>
+      <c r="C120" t="s">
         <v>770</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
+        <v>419</v>
+      </c>
+      <c r="E120" t="s">
         <v>771</v>
-      </c>
-      <c r="D120" t="s">
-        <v>420</v>
-      </c>
-      <c r="E120" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -11244,16 +11241,16 @@
         <v>284</v>
       </c>
       <c r="B121" t="s">
+        <v>772</v>
+      </c>
+      <c r="C121" t="s">
         <v>773</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
+        <v>419</v>
+      </c>
+      <c r="E121" t="s">
         <v>774</v>
-      </c>
-      <c r="D121" t="s">
-        <v>420</v>
-      </c>
-      <c r="E121" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
@@ -11261,16 +11258,16 @@
         <v>284</v>
       </c>
       <c r="B122" t="s">
+        <v>775</v>
+      </c>
+      <c r="C122" t="s">
         <v>776</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
+        <v>419</v>
+      </c>
+      <c r="E122" t="s">
         <v>777</v>
-      </c>
-      <c r="D122" t="s">
-        <v>420</v>
-      </c>
-      <c r="E122" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
@@ -11278,16 +11275,16 @@
         <v>284</v>
       </c>
       <c r="B123" t="s">
+        <v>778</v>
+      </c>
+      <c r="C123" t="s">
         <v>779</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
+        <v>419</v>
+      </c>
+      <c r="E123" t="s">
         <v>780</v>
-      </c>
-      <c r="D123" t="s">
-        <v>420</v>
-      </c>
-      <c r="E123" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
@@ -11295,16 +11292,16 @@
         <v>284</v>
       </c>
       <c r="B124" t="s">
+        <v>781</v>
+      </c>
+      <c r="C124" t="s">
         <v>782</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
+        <v>419</v>
+      </c>
+      <c r="E124" t="s">
         <v>783</v>
-      </c>
-      <c r="D124" t="s">
-        <v>420</v>
-      </c>
-      <c r="E124" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -11312,16 +11309,16 @@
         <v>284</v>
       </c>
       <c r="B125" t="s">
+        <v>784</v>
+      </c>
+      <c r="C125" t="s">
         <v>785</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
+        <v>419</v>
+      </c>
+      <c r="E125" t="s">
         <v>786</v>
-      </c>
-      <c r="D125" t="s">
-        <v>420</v>
-      </c>
-      <c r="E125" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
@@ -11329,16 +11326,16 @@
         <v>284</v>
       </c>
       <c r="B126" t="s">
+        <v>787</v>
+      </c>
+      <c r="C126" t="s">
         <v>788</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
+        <v>419</v>
+      </c>
+      <c r="E126" t="s">
         <v>789</v>
-      </c>
-      <c r="D126" t="s">
-        <v>420</v>
-      </c>
-      <c r="E126" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
@@ -11346,16 +11343,16 @@
         <v>284</v>
       </c>
       <c r="B127" t="s">
+        <v>790</v>
+      </c>
+      <c r="C127" t="s">
         <v>791</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
+        <v>419</v>
+      </c>
+      <c r="E127" t="s">
         <v>792</v>
-      </c>
-      <c r="D127" t="s">
-        <v>420</v>
-      </c>
-      <c r="E127" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
@@ -11363,16 +11360,16 @@
         <v>284</v>
       </c>
       <c r="B128" t="s">
+        <v>793</v>
+      </c>
+      <c r="C128" t="s">
         <v>794</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
+        <v>419</v>
+      </c>
+      <c r="E128" t="s">
         <v>795</v>
-      </c>
-      <c r="D128" t="s">
-        <v>420</v>
-      </c>
-      <c r="E128" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
@@ -11380,16 +11377,16 @@
         <v>284</v>
       </c>
       <c r="B129" t="s">
+        <v>796</v>
+      </c>
+      <c r="C129" t="s">
         <v>797</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>419</v>
+      </c>
+      <c r="E129" t="s">
         <v>798</v>
-      </c>
-      <c r="D129" t="s">
-        <v>420</v>
-      </c>
-      <c r="E129" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
@@ -11397,16 +11394,16 @@
         <v>284</v>
       </c>
       <c r="B130" t="s">
+        <v>799</v>
+      </c>
+      <c r="C130" t="s">
         <v>800</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
+        <v>419</v>
+      </c>
+      <c r="E130" t="s">
         <v>801</v>
-      </c>
-      <c r="D130" t="s">
-        <v>420</v>
-      </c>
-      <c r="E130" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
@@ -11414,16 +11411,16 @@
         <v>284</v>
       </c>
       <c r="B131" t="s">
+        <v>802</v>
+      </c>
+      <c r="C131" t="s">
         <v>803</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
+        <v>419</v>
+      </c>
+      <c r="E131" t="s">
         <v>804</v>
-      </c>
-      <c r="D131" t="s">
-        <v>420</v>
-      </c>
-      <c r="E131" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
@@ -11431,16 +11428,16 @@
         <v>285</v>
       </c>
       <c r="B132" t="s">
+        <v>805</v>
+      </c>
+      <c r="C132" t="s">
         <v>806</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
+        <v>419</v>
+      </c>
+      <c r="E132" t="s">
         <v>807</v>
-      </c>
-      <c r="D132" t="s">
-        <v>420</v>
-      </c>
-      <c r="E132" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
@@ -11448,16 +11445,16 @@
         <v>285</v>
       </c>
       <c r="B133" t="s">
+        <v>808</v>
+      </c>
+      <c r="C133" t="s">
         <v>809</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
+        <v>419</v>
+      </c>
+      <c r="E133" t="s">
         <v>810</v>
-      </c>
-      <c r="D133" t="s">
-        <v>420</v>
-      </c>
-      <c r="E133" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
@@ -11465,16 +11462,16 @@
         <v>285</v>
       </c>
       <c r="B134" t="s">
+        <v>811</v>
+      </c>
+      <c r="C134" t="s">
         <v>812</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>419</v>
+      </c>
+      <c r="E134" t="s">
         <v>813</v>
-      </c>
-      <c r="D134" t="s">
-        <v>420</v>
-      </c>
-      <c r="E134" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
@@ -11482,16 +11479,16 @@
         <v>285</v>
       </c>
       <c r="B135" t="s">
+        <v>814</v>
+      </c>
+      <c r="C135" t="s">
         <v>815</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
+        <v>419</v>
+      </c>
+      <c r="E135" t="s">
         <v>816</v>
-      </c>
-      <c r="D135" t="s">
-        <v>420</v>
-      </c>
-      <c r="E135" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
@@ -11499,16 +11496,16 @@
         <v>285</v>
       </c>
       <c r="B136" t="s">
+        <v>817</v>
+      </c>
+      <c r="C136" t="s">
         <v>818</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
+        <v>419</v>
+      </c>
+      <c r="E136" t="s">
         <v>819</v>
-      </c>
-      <c r="D136" t="s">
-        <v>420</v>
-      </c>
-      <c r="E136" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
@@ -11516,16 +11513,16 @@
         <v>285</v>
       </c>
       <c r="B137" t="s">
+        <v>820</v>
+      </c>
+      <c r="C137" t="s">
         <v>821</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
+        <v>419</v>
+      </c>
+      <c r="E137" t="s">
         <v>822</v>
-      </c>
-      <c r="D137" t="s">
-        <v>420</v>
-      </c>
-      <c r="E137" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
@@ -11533,16 +11530,16 @@
         <v>285</v>
       </c>
       <c r="B138" t="s">
+        <v>823</v>
+      </c>
+      <c r="C138" t="s">
         <v>824</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
+        <v>419</v>
+      </c>
+      <c r="E138" t="s">
         <v>825</v>
-      </c>
-      <c r="D138" t="s">
-        <v>420</v>
-      </c>
-      <c r="E138" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
@@ -11550,16 +11547,16 @@
         <v>285</v>
       </c>
       <c r="B139" t="s">
+        <v>826</v>
+      </c>
+      <c r="C139" t="s">
         <v>827</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
+        <v>419</v>
+      </c>
+      <c r="E139" t="s">
         <v>828</v>
-      </c>
-      <c r="D139" t="s">
-        <v>420</v>
-      </c>
-      <c r="E139" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
@@ -11567,16 +11564,16 @@
         <v>285</v>
       </c>
       <c r="B140" t="s">
+        <v>829</v>
+      </c>
+      <c r="C140" t="s">
         <v>830</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
+        <v>419</v>
+      </c>
+      <c r="E140" t="s">
         <v>831</v>
-      </c>
-      <c r="D140" t="s">
-        <v>420</v>
-      </c>
-      <c r="E140" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
@@ -11584,16 +11581,16 @@
         <v>285</v>
       </c>
       <c r="B141" t="s">
+        <v>832</v>
+      </c>
+      <c r="C141" t="s">
         <v>833</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
+        <v>419</v>
+      </c>
+      <c r="E141" t="s">
         <v>834</v>
-      </c>
-      <c r="D141" t="s">
-        <v>420</v>
-      </c>
-      <c r="E141" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
@@ -11601,16 +11598,16 @@
         <v>285</v>
       </c>
       <c r="B142" t="s">
+        <v>835</v>
+      </c>
+      <c r="C142" t="s">
         <v>836</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
+        <v>419</v>
+      </c>
+      <c r="E142" t="s">
         <v>837</v>
-      </c>
-      <c r="D142" t="s">
-        <v>420</v>
-      </c>
-      <c r="E142" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
@@ -11618,16 +11615,16 @@
         <v>285</v>
       </c>
       <c r="B143" t="s">
+        <v>838</v>
+      </c>
+      <c r="C143" t="s">
         <v>839</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
+        <v>419</v>
+      </c>
+      <c r="E143" t="s">
         <v>840</v>
-      </c>
-      <c r="D143" t="s">
-        <v>420</v>
-      </c>
-      <c r="E143" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
@@ -11635,16 +11632,16 @@
         <v>285</v>
       </c>
       <c r="B144" t="s">
+        <v>841</v>
+      </c>
+      <c r="C144" t="s">
         <v>842</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
+        <v>419</v>
+      </c>
+      <c r="E144" t="s">
         <v>843</v>
-      </c>
-      <c r="D144" t="s">
-        <v>420</v>
-      </c>
-      <c r="E144" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
@@ -11652,16 +11649,16 @@
         <v>285</v>
       </c>
       <c r="B145" t="s">
+        <v>844</v>
+      </c>
+      <c r="C145" t="s">
         <v>845</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
+        <v>419</v>
+      </c>
+      <c r="E145" t="s">
         <v>846</v>
-      </c>
-      <c r="D145" t="s">
-        <v>420</v>
-      </c>
-      <c r="E145" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
@@ -11669,16 +11666,16 @@
         <v>285</v>
       </c>
       <c r="B146" t="s">
+        <v>847</v>
+      </c>
+      <c r="C146" t="s">
         <v>848</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
+        <v>419</v>
+      </c>
+      <c r="E146" t="s">
         <v>849</v>
-      </c>
-      <c r="D146" t="s">
-        <v>420</v>
-      </c>
-      <c r="E146" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
@@ -11686,16 +11683,16 @@
         <v>285</v>
       </c>
       <c r="B147" t="s">
+        <v>850</v>
+      </c>
+      <c r="C147" t="s">
         <v>851</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
+        <v>419</v>
+      </c>
+      <c r="E147" t="s">
         <v>852</v>
-      </c>
-      <c r="D147" t="s">
-        <v>420</v>
-      </c>
-      <c r="E147" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
@@ -11703,16 +11700,16 @@
         <v>285</v>
       </c>
       <c r="B148" t="s">
+        <v>853</v>
+      </c>
+      <c r="C148" t="s">
         <v>854</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
+        <v>419</v>
+      </c>
+      <c r="E148" t="s">
         <v>855</v>
-      </c>
-      <c r="D148" t="s">
-        <v>420</v>
-      </c>
-      <c r="E148" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
@@ -11720,16 +11717,16 @@
         <v>285</v>
       </c>
       <c r="B149" t="s">
+        <v>856</v>
+      </c>
+      <c r="C149" t="s">
         <v>857</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
+        <v>419</v>
+      </c>
+      <c r="E149" t="s">
         <v>858</v>
-      </c>
-      <c r="D149" t="s">
-        <v>420</v>
-      </c>
-      <c r="E149" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
@@ -11737,16 +11734,16 @@
         <v>285</v>
       </c>
       <c r="B150" t="s">
+        <v>859</v>
+      </c>
+      <c r="C150" t="s">
         <v>860</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
+        <v>419</v>
+      </c>
+      <c r="E150" t="s">
         <v>861</v>
-      </c>
-      <c r="D150" t="s">
-        <v>420</v>
-      </c>
-      <c r="E150" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
@@ -11754,16 +11751,16 @@
         <v>285</v>
       </c>
       <c r="B151" t="s">
+        <v>862</v>
+      </c>
+      <c r="C151" t="s">
         <v>863</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
+        <v>419</v>
+      </c>
+      <c r="E151" t="s">
         <v>864</v>
-      </c>
-      <c r="D151" t="s">
-        <v>420</v>
-      </c>
-      <c r="E151" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
@@ -11771,16 +11768,16 @@
         <v>285</v>
       </c>
       <c r="B152" t="s">
+        <v>865</v>
+      </c>
+      <c r="C152" t="s">
         <v>866</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
+        <v>419</v>
+      </c>
+      <c r="E152" t="s">
         <v>867</v>
-      </c>
-      <c r="D152" t="s">
-        <v>420</v>
-      </c>
-      <c r="E152" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
@@ -11788,16 +11785,16 @@
         <v>285</v>
       </c>
       <c r="B153" t="s">
+        <v>868</v>
+      </c>
+      <c r="C153" t="s">
         <v>869</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
+        <v>419</v>
+      </c>
+      <c r="E153" t="s">
         <v>870</v>
-      </c>
-      <c r="D153" t="s">
-        <v>420</v>
-      </c>
-      <c r="E153" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
@@ -11805,21 +11802,21 @@
         <v>285</v>
       </c>
       <c r="B154" t="s">
+        <v>871</v>
+      </c>
+      <c r="C154" t="s">
         <v>872</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
+        <v>419</v>
+      </c>
+      <c r="E154" t="s">
         <v>873</v>
-      </c>
-      <c r="D154" t="s">
-        <v>420</v>
-      </c>
-      <c r="E154" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E155" s="60" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35"/>
@@ -12705,16 +12702,16 @@
   <sheetData>
     <row r="2" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="126" t="s">
+        <v>875</v>
+      </c>
+      <c r="L2" s="126" t="s">
         <v>876</v>
-      </c>
-      <c r="L2" s="126" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4" s="400" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C4" s="400"/>
       <c r="D4" s="400"/>
@@ -12737,7 +12734,7 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="400" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C5" s="400"/>
       <c r="D5" s="400"/>
@@ -12772,7 +12769,7 @@
         <v>305</v>
       </c>
       <c r="J7" s="127" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L7" s="127" t="s">
         <v>300</v>
@@ -12787,7 +12784,7 @@
         <v>305</v>
       </c>
       <c r="T7" s="127" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.35">
@@ -12795,7 +12792,7 @@
         <v>298</v>
       </c>
       <c r="D8" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F8" s="125" t="s">
         <v>301</v>
@@ -12807,19 +12804,19 @@
         <v>306</v>
       </c>
       <c r="L8" s="125" t="s">
+        <v>340</v>
+      </c>
+      <c r="N8" s="125" t="s">
+        <v>879</v>
+      </c>
+      <c r="P8" s="125" t="s">
         <v>341</v>
       </c>
-      <c r="N8" s="125" t="s">
-        <v>880</v>
-      </c>
-      <c r="P8" s="125" t="s">
-        <v>342</v>
-      </c>
       <c r="R8" s="125" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="T8" s="125" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.35">
@@ -12827,132 +12824,132 @@
         <v>303</v>
       </c>
       <c r="D9" s="125" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F9" s="125" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H9" s="125" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J9" s="125" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L9" s="125" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N9" s="125"/>
       <c r="P9" s="125" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R9" s="125" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="T9" s="125" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10" s="125" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D10" s="125" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F10" s="125" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H10" s="125" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J10" s="125" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L10" s="125" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N10" s="125"/>
       <c r="P10" s="125" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R10" s="125" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T10" s="125" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="125" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D11" s="125" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J11" s="125" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L11" s="125" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N11" s="125"/>
       <c r="P11" s="125" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R11" s="125"/>
       <c r="T11" s="125" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="125" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D12" s="125" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J12" s="125" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L12" s="125" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N12" s="125"/>
       <c r="P12" s="125"/>
       <c r="R12" s="125"/>
       <c r="T12" s="125" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="125" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J13" s="125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L13" s="125" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N13" s="125"/>
       <c r="P13" s="125"/>
       <c r="R13" s="125"/>
       <c r="T13" s="125" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14" s="125" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J14" s="125" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L14" s="125" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N14" s="125"/>
       <c r="P14" s="125"/>
@@ -12961,13 +12958,13 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B15" s="125" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J15" s="125" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L15" s="125" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N15" s="125"/>
       <c r="P15" s="125"/>
@@ -12976,10 +12973,10 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B16" s="125" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L16" s="125" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N16" s="125"/>
       <c r="P16" s="125"/>
@@ -12988,10 +12985,10 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="125" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L17" s="125" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N17" s="125"/>
       <c r="P17" s="125"/>
@@ -12999,22 +12996,22 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="125" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="125" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="125" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -13049,7 +13046,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B1" s="129"/>
     </row>
@@ -13061,18 +13058,18 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D3" s="60" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B4" s="129" t="s">
         <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E4" t="s">
         <v>124</v>
@@ -13104,7 +13101,7 @@
         <v>#N/A</v>
       </c>
       <c r="G5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -13118,13 +13115,13 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F6" t="s">
         <v>299</v>
       </c>
       <c r="G6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -13138,13 +13135,13 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F7" t="s">
         <v>139</v>
       </c>
       <c r="G7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -13158,13 +13155,13 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F8" t="s">
         <v>299</v>
       </c>
       <c r="G8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -13178,13 +13175,13 @@
         <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -13198,13 +13195,13 @@
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -13218,13 +13215,13 @@
         <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -13238,13 +13235,13 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F12" t="s">
         <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -13258,13 +13255,13 @@
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F13" t="s">
         <v>299</v>
       </c>
       <c r="G13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -13278,13 +13275,13 @@
         <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F14" t="s">
         <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -13298,13 +13295,13 @@
         <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F15" t="s">
         <v>139</v>
       </c>
       <c r="G15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -13318,13 +13315,13 @@
         <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F16" t="s">
         <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -13338,13 +13335,13 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F17" t="s">
         <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -13358,13 +13355,13 @@
         <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F18" t="s">
         <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -13378,13 +13375,13 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F19" t="s">
         <v>139</v>
       </c>
       <c r="G19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -13398,13 +13395,13 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F20" t="s">
         <v>139</v>
       </c>
       <c r="G20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -13418,13 +13415,13 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F21" t="s">
         <v>299</v>
       </c>
       <c r="G21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -13438,13 +13435,13 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -13458,13 +13455,13 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -13478,13 +13475,13 @@
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F24" t="s">
         <v>139</v>
       </c>
       <c r="G24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -13498,13 +13495,13 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F25" t="s">
         <v>139</v>
       </c>
       <c r="G25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -13518,13 +13515,13 @@
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -13538,13 +13535,13 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -13558,13 +13555,13 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -13578,13 +13575,13 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -13598,13 +13595,13 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -13618,13 +13615,13 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -13638,13 +13635,13 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F32" t="s">
         <v>299</v>
       </c>
       <c r="G32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -13658,13 +13655,13 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F33" t="s">
         <v>139</v>
       </c>
       <c r="G33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -13678,13 +13675,13 @@
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -13698,13 +13695,13 @@
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F35" t="s">
         <v>299</v>
       </c>
       <c r="G35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -13718,13 +13715,13 @@
         <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F36" t="s">
         <v>139</v>
       </c>
       <c r="G36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -13738,13 +13735,13 @@
         <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F37" t="s">
         <v>139</v>
       </c>
       <c r="G37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -13758,13 +13755,13 @@
         <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F38" t="s">
         <v>139</v>
       </c>
       <c r="G38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -13778,13 +13775,13 @@
         <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F39" t="s">
         <v>139</v>
       </c>
       <c r="G39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -13798,13 +13795,13 @@
         <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F40" t="s">
         <v>299</v>
       </c>
       <c r="G40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -13818,13 +13815,13 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F41" t="s">
         <v>139</v>
       </c>
       <c r="G41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -13838,13 +13835,13 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F42" t="s">
         <v>139</v>
       </c>
       <c r="G42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -13858,13 +13855,13 @@
         <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -13872,14 +13869,14 @@
         <v>277</v>
       </c>
       <c r="E44" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F44" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G44" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
@@ -13895,7 +13892,7 @@
         <v>#N/A</v>
       </c>
       <c r="G45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J45" s="111"/>
     </row>
@@ -13904,13 +13901,13 @@
         <v>278</v>
       </c>
       <c r="E46" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F46" t="s">
         <v>139</v>
       </c>
       <c r="G46" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J46" s="111"/>
     </row>
@@ -13919,13 +13916,13 @@
         <v>278</v>
       </c>
       <c r="E47" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F47" t="s">
         <v>139</v>
       </c>
       <c r="G47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J47" s="111"/>
     </row>
@@ -13934,13 +13931,13 @@
         <v>278</v>
       </c>
       <c r="E48" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F48" t="s">
         <v>139</v>
       </c>
       <c r="G48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J48" s="111"/>
     </row>
@@ -13949,13 +13946,13 @@
         <v>278</v>
       </c>
       <c r="E49" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F49" t="s">
         <v>139</v>
       </c>
       <c r="G49" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.35">
@@ -13963,13 +13960,13 @@
         <v>278</v>
       </c>
       <c r="E50" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F50" t="s">
         <v>139</v>
       </c>
       <c r="G50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.35">
@@ -13977,13 +13974,13 @@
         <v>278</v>
       </c>
       <c r="E51" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G51" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.35">
@@ -13991,13 +13988,13 @@
         <v>278</v>
       </c>
       <c r="E52" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G52" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.35">
@@ -14005,13 +14002,13 @@
         <v>278</v>
       </c>
       <c r="E53" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F53" t="s">
         <v>139</v>
       </c>
       <c r="G53" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.35">
@@ -14019,13 +14016,13 @@
         <v>278</v>
       </c>
       <c r="E54" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F54" t="s">
         <v>139</v>
       </c>
       <c r="G54" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="4:7" x14ac:dyDescent="0.35">
@@ -14033,13 +14030,13 @@
         <v>278</v>
       </c>
       <c r="E55" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F55" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56" spans="4:7" x14ac:dyDescent="0.35">
@@ -14047,13 +14044,13 @@
         <v>278</v>
       </c>
       <c r="E56" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F56" t="s">
         <v>299</v>
       </c>
       <c r="G56" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.35">
@@ -14061,13 +14058,13 @@
         <v>278</v>
       </c>
       <c r="E57" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F57" t="s">
         <v>139</v>
       </c>
       <c r="G57" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="4:7" x14ac:dyDescent="0.35">
@@ -14075,13 +14072,13 @@
         <v>278</v>
       </c>
       <c r="E58" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F58" t="s">
         <v>139</v>
       </c>
       <c r="G58" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="59" spans="4:7" x14ac:dyDescent="0.35">
@@ -14089,13 +14086,13 @@
         <v>278</v>
       </c>
       <c r="E59" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F59" t="s">
         <v>139</v>
       </c>
       <c r="G59" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.35">
@@ -14103,13 +14100,13 @@
         <v>278</v>
       </c>
       <c r="E60" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F60" t="s">
         <v>299</v>
       </c>
       <c r="G60" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="4:7" x14ac:dyDescent="0.35">
@@ -14117,13 +14114,13 @@
         <v>278</v>
       </c>
       <c r="E61" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F61" t="s">
         <v>299</v>
       </c>
       <c r="G61" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="4:7" x14ac:dyDescent="0.35">
@@ -14131,13 +14128,13 @@
         <v>278</v>
       </c>
       <c r="E62" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F62" t="s">
         <v>139</v>
       </c>
       <c r="G62" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63" spans="4:7" x14ac:dyDescent="0.35">
@@ -14153,7 +14150,7 @@
         <v>#N/A</v>
       </c>
       <c r="G63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="4:7" x14ac:dyDescent="0.35">
@@ -14161,13 +14158,13 @@
         <v>279</v>
       </c>
       <c r="E64" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F64" t="s">
         <v>299</v>
       </c>
       <c r="G64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.35">
@@ -14175,13 +14172,13 @@
         <v>279</v>
       </c>
       <c r="E65" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F65" t="s">
         <v>299</v>
       </c>
       <c r="G65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.35">
@@ -14189,13 +14186,13 @@
         <v>279</v>
       </c>
       <c r="E66" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F66" t="s">
         <v>139</v>
       </c>
       <c r="G66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="4:7" x14ac:dyDescent="0.35">
@@ -14203,13 +14200,13 @@
         <v>279</v>
       </c>
       <c r="E67" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F67" t="s">
         <v>139</v>
       </c>
       <c r="G67" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="4:7" x14ac:dyDescent="0.35">
@@ -14217,13 +14214,13 @@
         <v>279</v>
       </c>
       <c r="E68" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F68" t="s">
         <v>139</v>
       </c>
       <c r="G68" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="4:7" x14ac:dyDescent="0.35">
@@ -14231,13 +14228,13 @@
         <v>279</v>
       </c>
       <c r="E69" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F69" t="s">
         <v>139</v>
       </c>
       <c r="G69" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="4:7" x14ac:dyDescent="0.35">
@@ -14245,13 +14242,13 @@
         <v>279</v>
       </c>
       <c r="E70" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F70" t="s">
         <v>299</v>
       </c>
       <c r="G70" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="4:7" x14ac:dyDescent="0.35">
@@ -14259,13 +14256,13 @@
         <v>279</v>
       </c>
       <c r="E71" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F71" t="s">
         <v>139</v>
       </c>
       <c r="G71" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="4:7" x14ac:dyDescent="0.35">
@@ -14273,13 +14270,13 @@
         <v>279</v>
       </c>
       <c r="E72" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F72" t="s">
         <v>139</v>
       </c>
       <c r="G72" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="4:7" x14ac:dyDescent="0.35">
@@ -14295,7 +14292,7 @@
         <v>#N/A</v>
       </c>
       <c r="G73" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="4:7" x14ac:dyDescent="0.35">
@@ -14303,13 +14300,13 @@
         <v>280</v>
       </c>
       <c r="E74" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F74" t="s">
         <v>299</v>
       </c>
       <c r="G74" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="4:7" x14ac:dyDescent="0.35">
@@ -14317,13 +14314,13 @@
         <v>280</v>
       </c>
       <c r="E75" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F75" t="s">
         <v>139</v>
       </c>
       <c r="G75" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="76" spans="4:7" x14ac:dyDescent="0.35">
@@ -14331,13 +14328,13 @@
         <v>280</v>
       </c>
       <c r="E76" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F76" t="s">
         <v>139</v>
       </c>
       <c r="G76" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="4:7" x14ac:dyDescent="0.35">
@@ -14345,13 +14342,13 @@
         <v>280</v>
       </c>
       <c r="E77" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F77" t="s">
         <v>139</v>
       </c>
       <c r="G77" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="4:7" x14ac:dyDescent="0.35">
@@ -14359,13 +14356,13 @@
         <v>280</v>
       </c>
       <c r="E78" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F78" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G78" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="79" spans="4:7" x14ac:dyDescent="0.35">
@@ -14373,13 +14370,13 @@
         <v>280</v>
       </c>
       <c r="E79" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F79" t="s">
         <v>139</v>
       </c>
       <c r="G79" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="80" spans="4:7" x14ac:dyDescent="0.35">
@@ -14387,13 +14384,13 @@
         <v>280</v>
       </c>
       <c r="E80" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F80" t="s">
         <v>139</v>
       </c>
       <c r="G80" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="81" spans="4:7" x14ac:dyDescent="0.35">
@@ -14401,13 +14398,13 @@
         <v>280</v>
       </c>
       <c r="E81" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F81" t="s">
         <v>139</v>
       </c>
       <c r="G81" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="82" spans="4:7" x14ac:dyDescent="0.35">
@@ -14415,13 +14412,13 @@
         <v>280</v>
       </c>
       <c r="E82" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F82" t="s">
         <v>139</v>
       </c>
       <c r="G82" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="83" spans="4:7" x14ac:dyDescent="0.35">
@@ -14429,13 +14426,13 @@
         <v>280</v>
       </c>
       <c r="E83" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F83" t="s">
         <v>139</v>
       </c>
       <c r="G83" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="84" spans="4:7" x14ac:dyDescent="0.35">
@@ -14443,13 +14440,13 @@
         <v>280</v>
       </c>
       <c r="E84" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F84" t="s">
         <v>139</v>
       </c>
       <c r="G84" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="4:7" x14ac:dyDescent="0.35">
@@ -14457,13 +14454,13 @@
         <v>280</v>
       </c>
       <c r="E85" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F85" t="s">
         <v>139</v>
       </c>
       <c r="G85" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="86" spans="4:7" x14ac:dyDescent="0.35">
@@ -14471,13 +14468,13 @@
         <v>280</v>
       </c>
       <c r="E86" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F86" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G86" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87" spans="4:7" x14ac:dyDescent="0.35">
@@ -14493,7 +14490,7 @@
         <v>#N/A</v>
       </c>
       <c r="G87" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="88" spans="4:7" x14ac:dyDescent="0.35">
@@ -14501,13 +14498,13 @@
         <v>281</v>
       </c>
       <c r="E88" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F88" t="s">
         <v>139</v>
       </c>
       <c r="G88" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89" spans="4:7" x14ac:dyDescent="0.35">
@@ -14515,13 +14512,13 @@
         <v>281</v>
       </c>
       <c r="E89" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F89" t="s">
         <v>299</v>
       </c>
       <c r="G89" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="90" spans="4:7" x14ac:dyDescent="0.35">
@@ -14529,13 +14526,13 @@
         <v>281</v>
       </c>
       <c r="E90" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F90" t="s">
         <v>299</v>
       </c>
       <c r="G90" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="91" spans="4:7" x14ac:dyDescent="0.35">
@@ -14543,13 +14540,13 @@
         <v>281</v>
       </c>
       <c r="E91" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F91" t="s">
         <v>139</v>
       </c>
       <c r="G91" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="92" spans="4:7" x14ac:dyDescent="0.35">
@@ -14557,13 +14554,13 @@
         <v>281</v>
       </c>
       <c r="E92" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F92" t="s">
         <v>299</v>
       </c>
       <c r="G92" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="4:7" x14ac:dyDescent="0.35">
@@ -14571,13 +14568,13 @@
         <v>281</v>
       </c>
       <c r="E93" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F93" t="s">
         <v>299</v>
       </c>
       <c r="G93" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="4:7" x14ac:dyDescent="0.35">
@@ -14585,13 +14582,13 @@
         <v>281</v>
       </c>
       <c r="E94" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F94" t="s">
         <v>299</v>
       </c>
       <c r="G94" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="4:7" x14ac:dyDescent="0.35">
@@ -14599,13 +14596,13 @@
         <v>281</v>
       </c>
       <c r="E95" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F95" t="s">
         <v>299</v>
       </c>
       <c r="G95" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="4:7" x14ac:dyDescent="0.35">
@@ -14613,13 +14610,13 @@
         <v>281</v>
       </c>
       <c r="E96" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F96" t="s">
         <v>139</v>
       </c>
       <c r="G96" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97" spans="4:7" x14ac:dyDescent="0.35">
@@ -14627,13 +14624,13 @@
         <v>281</v>
       </c>
       <c r="E97" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F97" t="s">
         <v>299</v>
       </c>
       <c r="G97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="98" spans="4:7" x14ac:dyDescent="0.35">
@@ -14641,13 +14638,13 @@
         <v>281</v>
       </c>
       <c r="E98" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F98" t="s">
         <v>299</v>
       </c>
       <c r="G98" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="99" spans="4:7" x14ac:dyDescent="0.35">
@@ -14655,13 +14652,13 @@
         <v>281</v>
       </c>
       <c r="E99" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F99" t="s">
         <v>299</v>
       </c>
       <c r="G99" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="100" spans="4:7" x14ac:dyDescent="0.35">
@@ -14669,13 +14666,13 @@
         <v>281</v>
       </c>
       <c r="E100" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F100" t="s">
         <v>139</v>
       </c>
       <c r="G100" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="101" spans="4:7" x14ac:dyDescent="0.35">
@@ -14683,13 +14680,13 @@
         <v>281</v>
       </c>
       <c r="E101" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F101" t="s">
         <v>299</v>
       </c>
       <c r="G101" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="102" spans="4:7" x14ac:dyDescent="0.35">
@@ -14697,13 +14694,13 @@
         <v>281</v>
       </c>
       <c r="E102" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F102" t="s">
         <v>299</v>
       </c>
       <c r="G102" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="103" spans="4:7" x14ac:dyDescent="0.35">
@@ -14711,13 +14708,13 @@
         <v>281</v>
       </c>
       <c r="E103" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F103" t="s">
         <v>299</v>
       </c>
       <c r="G103" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="104" spans="4:7" x14ac:dyDescent="0.35">
@@ -14725,13 +14722,13 @@
         <v>281</v>
       </c>
       <c r="E104" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F104" t="s">
         <v>299</v>
       </c>
       <c r="G104" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="105" spans="4:7" x14ac:dyDescent="0.35">
@@ -14739,13 +14736,13 @@
         <v>281</v>
       </c>
       <c r="E105" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F105" t="s">
         <v>299</v>
       </c>
       <c r="G105" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="4:7" x14ac:dyDescent="0.35">
@@ -14753,13 +14750,13 @@
         <v>281</v>
       </c>
       <c r="E106" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F106" t="s">
         <v>299</v>
       </c>
       <c r="G106" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="107" spans="4:7" x14ac:dyDescent="0.35">
@@ -14775,7 +14772,7 @@
         <v>#N/A</v>
       </c>
       <c r="G107" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="108" spans="4:7" x14ac:dyDescent="0.35">
@@ -14783,13 +14780,13 @@
         <v>282</v>
       </c>
       <c r="E108" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F108" t="s">
         <v>139</v>
       </c>
       <c r="G108" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="109" spans="4:7" x14ac:dyDescent="0.35">
@@ -14797,13 +14794,13 @@
         <v>282</v>
       </c>
       <c r="E109" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F109" t="s">
         <v>139</v>
       </c>
       <c r="G109" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="4:7" x14ac:dyDescent="0.35">
@@ -14811,13 +14808,13 @@
         <v>282</v>
       </c>
       <c r="E110" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F110" t="s">
         <v>139</v>
       </c>
       <c r="G110" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="111" spans="4:7" x14ac:dyDescent="0.35">
@@ -14825,13 +14822,13 @@
         <v>282</v>
       </c>
       <c r="E111" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F111" t="s">
         <v>139</v>
       </c>
       <c r="G111" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="112" spans="4:7" x14ac:dyDescent="0.35">
@@ -14839,13 +14836,13 @@
         <v>282</v>
       </c>
       <c r="E112" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F112" t="s">
         <v>139</v>
       </c>
       <c r="G112" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="113" spans="4:7" x14ac:dyDescent="0.35">
@@ -14853,13 +14850,13 @@
         <v>282</v>
       </c>
       <c r="E113" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F113" t="s">
         <v>139</v>
       </c>
       <c r="G113" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="114" spans="4:7" x14ac:dyDescent="0.35">
@@ -14867,13 +14864,13 @@
         <v>282</v>
       </c>
       <c r="E114" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G114" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="115" spans="4:7" x14ac:dyDescent="0.35">
@@ -14881,13 +14878,13 @@
         <v>282</v>
       </c>
       <c r="E115" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F115" t="s">
         <v>299</v>
       </c>
       <c r="G115" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="116" spans="4:7" x14ac:dyDescent="0.35">
@@ -14895,13 +14892,13 @@
         <v>282</v>
       </c>
       <c r="E116" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F116" t="s">
         <v>139</v>
       </c>
       <c r="G116" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="117" spans="4:7" x14ac:dyDescent="0.35">
@@ -14909,13 +14906,13 @@
         <v>282</v>
       </c>
       <c r="E117" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F117" t="s">
         <v>139</v>
       </c>
       <c r="G117" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="118" spans="4:7" x14ac:dyDescent="0.35">
@@ -14923,13 +14920,13 @@
         <v>282</v>
       </c>
       <c r="E118" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F118" t="s">
         <v>299</v>
       </c>
       <c r="G118" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="119" spans="4:7" x14ac:dyDescent="0.35">
@@ -14937,13 +14934,13 @@
         <v>282</v>
       </c>
       <c r="E119" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F119" t="s">
         <v>139</v>
       </c>
       <c r="G119" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="120" spans="4:7" x14ac:dyDescent="0.35">
@@ -14951,13 +14948,13 @@
         <v>282</v>
       </c>
       <c r="E120" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F120" t="s">
         <v>139</v>
       </c>
       <c r="G120" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="121" spans="4:7" x14ac:dyDescent="0.35">
@@ -14965,13 +14962,13 @@
         <v>282</v>
       </c>
       <c r="E121" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F121" t="s">
         <v>299</v>
       </c>
       <c r="G121" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="122" spans="4:7" x14ac:dyDescent="0.35">
@@ -14979,13 +14976,13 @@
         <v>282</v>
       </c>
       <c r="E122" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F122" t="s">
         <v>139</v>
       </c>
       <c r="G122" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="123" spans="4:7" x14ac:dyDescent="0.35">
@@ -14993,13 +14990,13 @@
         <v>282</v>
       </c>
       <c r="E123" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F123" t="s">
         <v>299</v>
       </c>
       <c r="G123" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="124" spans="4:7" x14ac:dyDescent="0.35">
@@ -15007,13 +15004,13 @@
         <v>282</v>
       </c>
       <c r="E124" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F124" t="s">
         <v>139</v>
       </c>
       <c r="G124" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="4:7" x14ac:dyDescent="0.35">
@@ -15021,13 +15018,13 @@
         <v>282</v>
       </c>
       <c r="E125" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F125" t="s">
         <v>139</v>
       </c>
       <c r="G125" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="4:7" x14ac:dyDescent="0.35">
@@ -15035,13 +15032,13 @@
         <v>282</v>
       </c>
       <c r="E126" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F126" t="s">
         <v>139</v>
       </c>
       <c r="G126" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="127" spans="4:7" x14ac:dyDescent="0.35">
@@ -15049,13 +15046,13 @@
         <v>282</v>
       </c>
       <c r="E127" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F127" t="s">
         <v>139</v>
       </c>
       <c r="G127" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="4:7" x14ac:dyDescent="0.35">
@@ -15063,13 +15060,13 @@
         <v>282</v>
       </c>
       <c r="E128" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F128" t="s">
         <v>139</v>
       </c>
       <c r="G128" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="129" spans="4:7" x14ac:dyDescent="0.35">
@@ -15077,13 +15074,13 @@
         <v>282</v>
       </c>
       <c r="E129" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F129" t="s">
         <v>299</v>
       </c>
       <c r="G129" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="130" spans="4:7" x14ac:dyDescent="0.35">
@@ -15091,13 +15088,13 @@
         <v>282</v>
       </c>
       <c r="E130" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F130" t="s">
         <v>139</v>
       </c>
       <c r="G130" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="131" spans="4:7" x14ac:dyDescent="0.35">
@@ -15105,13 +15102,13 @@
         <v>282</v>
       </c>
       <c r="E131" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F131" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G131" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="132" spans="4:7" x14ac:dyDescent="0.35">
@@ -15119,13 +15116,13 @@
         <v>282</v>
       </c>
       <c r="E132" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F132" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G132" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="4:7" x14ac:dyDescent="0.35">
@@ -15133,13 +15130,13 @@
         <v>282</v>
       </c>
       <c r="E133" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F133" t="s">
         <v>299</v>
       </c>
       <c r="G133" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="134" spans="4:7" x14ac:dyDescent="0.35">
@@ -15155,7 +15152,7 @@
         <v>#N/A</v>
       </c>
       <c r="G134" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="135" spans="4:7" x14ac:dyDescent="0.35">
@@ -15163,13 +15160,13 @@
         <v>283</v>
       </c>
       <c r="E135" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F135" t="s">
         <v>139</v>
       </c>
       <c r="G135" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="136" spans="4:7" x14ac:dyDescent="0.35">
@@ -15177,13 +15174,13 @@
         <v>283</v>
       </c>
       <c r="E136" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F136" t="s">
         <v>139</v>
       </c>
       <c r="G136" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="137" spans="4:7" x14ac:dyDescent="0.35">
@@ -15191,13 +15188,13 @@
         <v>283</v>
       </c>
       <c r="E137" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F137" t="s">
         <v>139</v>
       </c>
       <c r="G137" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="138" spans="4:7" x14ac:dyDescent="0.35">
@@ -15205,13 +15202,13 @@
         <v>283</v>
       </c>
       <c r="E138" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F138" t="s">
         <v>139</v>
       </c>
       <c r="G138" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="139" spans="4:7" x14ac:dyDescent="0.35">
@@ -15219,13 +15216,13 @@
         <v>283</v>
       </c>
       <c r="E139" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F139" t="s">
         <v>299</v>
       </c>
       <c r="G139" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="140" spans="4:7" x14ac:dyDescent="0.35">
@@ -15233,13 +15230,13 @@
         <v>283</v>
       </c>
       <c r="E140" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F140" t="s">
         <v>139</v>
       </c>
       <c r="G140" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="141" spans="4:7" x14ac:dyDescent="0.35">
@@ -15247,13 +15244,13 @@
         <v>283</v>
       </c>
       <c r="E141" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F141" t="s">
         <v>139</v>
       </c>
       <c r="G141" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="142" spans="4:7" x14ac:dyDescent="0.35">
@@ -15261,13 +15258,13 @@
         <v>283</v>
       </c>
       <c r="E142" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F142" t="s">
         <v>139</v>
       </c>
       <c r="G142" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="143" spans="4:7" x14ac:dyDescent="0.35">
@@ -15275,13 +15272,13 @@
         <v>283</v>
       </c>
       <c r="E143" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F143" t="s">
         <v>299</v>
       </c>
       <c r="G143" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="144" spans="4:7" x14ac:dyDescent="0.35">
@@ -15289,13 +15286,13 @@
         <v>283</v>
       </c>
       <c r="E144" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F144" t="s">
         <v>299</v>
       </c>
       <c r="G144" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="145" spans="4:7" x14ac:dyDescent="0.35">
@@ -15303,13 +15300,13 @@
         <v>283</v>
       </c>
       <c r="E145" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F145" t="s">
         <v>299</v>
       </c>
       <c r="G145" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="146" spans="4:7" x14ac:dyDescent="0.35">
@@ -15317,13 +15314,13 @@
         <v>283</v>
       </c>
       <c r="E146" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F146" t="s">
         <v>299</v>
       </c>
       <c r="G146" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="147" spans="4:7" x14ac:dyDescent="0.35">
@@ -15331,14 +15328,14 @@
         <v>284</v>
       </c>
       <c r="E147" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F147" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G147" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="148" spans="4:7" x14ac:dyDescent="0.35">
@@ -15354,7 +15351,7 @@
         <v>#N/A</v>
       </c>
       <c r="G148" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="149" spans="4:7" x14ac:dyDescent="0.35">
@@ -15362,13 +15359,13 @@
         <v>285</v>
       </c>
       <c r="E149" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F149" t="s">
         <v>299</v>
       </c>
       <c r="G149" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="150" spans="4:7" x14ac:dyDescent="0.35">
@@ -15376,13 +15373,13 @@
         <v>285</v>
       </c>
       <c r="E150" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F150" t="s">
         <v>139</v>
       </c>
       <c r="G150" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="151" spans="4:7" x14ac:dyDescent="0.35">
@@ -15390,13 +15387,13 @@
         <v>285</v>
       </c>
       <c r="E151" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F151" t="s">
         <v>139</v>
       </c>
       <c r="G151" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="152" spans="4:7" x14ac:dyDescent="0.35">
@@ -15404,13 +15401,13 @@
         <v>285</v>
       </c>
       <c r="E152" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F152" t="s">
         <v>139</v>
       </c>
       <c r="G152" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="153" spans="4:7" x14ac:dyDescent="0.35">
@@ -15418,13 +15415,13 @@
         <v>285</v>
       </c>
       <c r="E153" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F153" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G153" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="154" spans="4:7" x14ac:dyDescent="0.35">
@@ -15432,13 +15429,13 @@
         <v>285</v>
       </c>
       <c r="E154" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F154" t="s">
         <v>139</v>
       </c>
       <c r="G154" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="155" spans="4:7" x14ac:dyDescent="0.35">
@@ -15446,13 +15443,13 @@
         <v>285</v>
       </c>
       <c r="E155" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F155" t="s">
         <v>139</v>
       </c>
       <c r="G155" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="156" spans="4:7" x14ac:dyDescent="0.35">
@@ -15460,13 +15457,13 @@
         <v>285</v>
       </c>
       <c r="E156" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F156" t="s">
         <v>139</v>
       </c>
       <c r="G156" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="157" spans="4:7" x14ac:dyDescent="0.35">
@@ -15474,13 +15471,13 @@
         <v>285</v>
       </c>
       <c r="E157" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F157" t="s">
         <v>299</v>
       </c>
       <c r="G157" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="158" spans="4:7" x14ac:dyDescent="0.35">
@@ -15488,18 +15485,18 @@
         <v>285</v>
       </c>
       <c r="E158" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F158" t="s">
         <v>139</v>
       </c>
       <c r="G158" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="159" spans="4:7" x14ac:dyDescent="0.35">
       <c r="G159" s="60" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -15541,7 +15538,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B1" s="129"/>
     </row>
@@ -15553,18 +15550,18 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D3" s="60" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B4" s="129" t="s">
         <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E4" t="s">
         <v>145</v>
@@ -15596,7 +15593,7 @@
         <v>#N/A</v>
       </c>
       <c r="G5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -15610,13 +15607,13 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -15630,13 +15627,13 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F7" t="s">
         <v>139</v>
       </c>
       <c r="G7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -15650,13 +15647,13 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F8" t="s">
         <v>139</v>
       </c>
       <c r="G8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -15670,13 +15667,13 @@
         <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F9" t="s">
         <v>139</v>
       </c>
       <c r="G9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -15690,13 +15687,13 @@
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -15710,13 +15707,13 @@
         <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -15730,13 +15727,13 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F12" t="s">
         <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -15750,13 +15747,13 @@
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -15764,14 +15761,14 @@
         <v>277</v>
       </c>
       <c r="E14" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F14" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -15787,7 +15784,7 @@
         <v>#N/A</v>
       </c>
       <c r="G15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -15795,13 +15792,13 @@
         <v>278</v>
       </c>
       <c r="E16" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F16" t="s">
         <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.35">
@@ -15809,13 +15806,13 @@
         <v>278</v>
       </c>
       <c r="E17" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F17" t="s">
         <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.35">
@@ -15823,14 +15820,14 @@
         <v>279</v>
       </c>
       <c r="E18" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F18" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.35">
@@ -15846,7 +15843,7 @@
         <v>#N/A</v>
       </c>
       <c r="G19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.35">
@@ -15854,13 +15851,13 @@
         <v>280</v>
       </c>
       <c r="E20" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.35">
@@ -15868,13 +15865,13 @@
         <v>280</v>
       </c>
       <c r="E21" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F21" t="s">
         <v>139</v>
       </c>
       <c r="G21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.35">
@@ -15882,13 +15879,13 @@
         <v>280</v>
       </c>
       <c r="E22" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F22" t="s">
         <v>139</v>
       </c>
       <c r="G22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.35">
@@ -15896,13 +15893,13 @@
         <v>280</v>
       </c>
       <c r="E23" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F23" t="s">
         <v>139</v>
       </c>
       <c r="G23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.35">
@@ -15910,13 +15907,13 @@
         <v>280</v>
       </c>
       <c r="E24" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F24" t="s">
         <v>139</v>
       </c>
       <c r="G24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.35">
@@ -15924,13 +15921,13 @@
         <v>280</v>
       </c>
       <c r="E25" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F25" t="s">
         <v>139</v>
       </c>
       <c r="G25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.35">
@@ -15938,13 +15935,13 @@
         <v>280</v>
       </c>
       <c r="E26" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F26" t="s">
         <v>139</v>
       </c>
       <c r="G26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.35">
@@ -15952,13 +15949,13 @@
         <v>280</v>
       </c>
       <c r="E27" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F27" t="s">
         <v>139</v>
       </c>
       <c r="G27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.35">
@@ -15966,13 +15963,13 @@
         <v>280</v>
       </c>
       <c r="E28" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F28" t="s">
         <v>139</v>
       </c>
       <c r="G28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.35">
@@ -15980,13 +15977,13 @@
         <v>280</v>
       </c>
       <c r="E29" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F29" t="s">
         <v>139</v>
       </c>
       <c r="G29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.35">
@@ -15994,13 +15991,13 @@
         <v>280</v>
       </c>
       <c r="E30" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.35">
@@ -16008,13 +16005,13 @@
         <v>280</v>
       </c>
       <c r="E31" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.35">
@@ -16030,7 +16027,7 @@
         <v>#N/A</v>
       </c>
       <c r="G32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.35">
@@ -16038,13 +16035,13 @@
         <v>281</v>
       </c>
       <c r="E33" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F33" t="s">
         <v>139</v>
       </c>
       <c r="G33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.35">
@@ -16052,13 +16049,13 @@
         <v>281</v>
       </c>
       <c r="E34" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F34" t="s">
         <v>139</v>
       </c>
       <c r="G34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.35">
@@ -16066,13 +16063,13 @@
         <v>281</v>
       </c>
       <c r="E35" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.35">
@@ -16080,13 +16077,13 @@
         <v>281</v>
       </c>
       <c r="E36" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.35">
@@ -16102,7 +16099,7 @@
         <v>#N/A</v>
       </c>
       <c r="G37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.35">
@@ -16110,13 +16107,13 @@
         <v>282</v>
       </c>
       <c r="E38" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F38" t="s">
         <v>139</v>
       </c>
       <c r="G38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.35">
@@ -16124,13 +16121,13 @@
         <v>282</v>
       </c>
       <c r="E39" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.35">
@@ -16138,13 +16135,13 @@
         <v>282</v>
       </c>
       <c r="E40" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F40" t="s">
         <v>139</v>
       </c>
       <c r="G40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.35">
@@ -16152,13 +16149,13 @@
         <v>282</v>
       </c>
       <c r="E41" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F41" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.35">
@@ -16166,13 +16163,13 @@
         <v>282</v>
       </c>
       <c r="E42" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.35">
@@ -16180,13 +16177,13 @@
         <v>282</v>
       </c>
       <c r="E43" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F43" t="s">
         <v>139</v>
       </c>
       <c r="G43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.35">
@@ -16194,13 +16191,13 @@
         <v>282</v>
       </c>
       <c r="E44" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G44" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.35">
@@ -16208,13 +16205,13 @@
         <v>282</v>
       </c>
       <c r="E45" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.35">
@@ -16230,7 +16227,7 @@
         <v>#N/A</v>
       </c>
       <c r="G46" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.35">
@@ -16238,13 +16235,13 @@
         <v>283</v>
       </c>
       <c r="E47" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F47" t="s">
         <v>139</v>
       </c>
       <c r="G47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.35">
@@ -16252,13 +16249,13 @@
         <v>283</v>
       </c>
       <c r="E48" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F48" t="s">
         <v>139</v>
       </c>
       <c r="G48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.35">
@@ -16266,14 +16263,14 @@
         <v>284</v>
       </c>
       <c r="E49" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F49" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G49" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.35">
@@ -16281,19 +16278,19 @@
         <v>285</v>
       </c>
       <c r="E50" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F50" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.35">
       <c r="G51" s="60" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
   </sheetData>
@@ -16996,7 +16993,7 @@
     <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="29" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -17080,7 +17077,7 @@
     <row r="24" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="181" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -17748,7 +17745,7 @@
         <v>289</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17762,7 +17759,7 @@
         <v>289</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17776,7 +17773,7 @@
         <v>292</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17790,7 +17787,7 @@
         <v>289</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17804,7 +17801,7 @@
         <v>291</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17818,7 +17815,7 @@
         <v>292</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17832,7 +17829,7 @@
         <v>289</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17846,7 +17843,7 @@
         <v>289</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17860,7 +17857,7 @@
         <v>290</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -18151,7 +18148,7 @@
     </row>
     <row r="55" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="218" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C55" s="219"/>
       <c r="D55" s="219"/>
@@ -18190,7 +18187,7 @@
     </row>
     <row r="61" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B61" s="218" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C61" s="219"/>
       <c r="D61" s="219"/>
@@ -18329,7 +18326,7 @@
         <v>PF-BOL-001: Wellsprings Innovation Hub</v>
       </c>
       <c r="C6" s="206" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
@@ -18337,7 +18334,7 @@
         <v>PF-BOL-002: Bolton Market Upgrades</v>
       </c>
       <c r="C7" s="206" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
@@ -18345,7 +18342,7 @@
         <v>PF-BOL-003: Bolton Library &amp; Museum Upgrade</v>
       </c>
       <c r="C8" s="206" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
@@ -18353,7 +18350,7 @@
         <v>PF-BOL-004: Public Realm Improvements</v>
       </c>
       <c r="C9" s="206" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
@@ -18361,7 +18358,7 @@
         <v>PF-BOL-005: Accelerated Funding £1 million Public Realm Improvements</v>
       </c>
       <c r="C10" s="206" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
@@ -18369,7 +18366,7 @@
         <v>PF-BOL-006: Farnworth Market Precinct</v>
       </c>
       <c r="C11" s="206" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
@@ -18377,7 +18374,7 @@
         <v>PF-BOL-007: Farnworth Leisure Centre Expansion</v>
       </c>
       <c r="C12" s="206" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
@@ -18385,7 +18382,7 @@
         <v>PF-BOL-008: Streets for All - Farnworth</v>
       </c>
       <c r="C13" s="206" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
@@ -18393,7 +18390,7 @@
         <v>PF-BOL-009: Bolton College of Medical Science</v>
       </c>
       <c r="C14" s="207" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
@@ -18532,8 +18529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504D5B1B-461C-4DE2-9E08-BF956850FFFF}">
   <dimension ref="A1:BH154"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -19738,7 +19735,7 @@
         <v>119</v>
       </c>
       <c r="C19" s="142" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D19" s="180" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C19, 'Dropdown Values'!$A$43:$B$77, 2, FALSE), "")</f>
@@ -19839,7 +19836,7 @@
         <v>300</v>
       </c>
       <c r="C20" s="143" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D20" s="73" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C20, 'Dropdown Values'!$A$43:$B$77, 2, FALSE), "")</f>
@@ -19853,7 +19850,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="154" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H20" s="155">
         <v>4</v>
@@ -21747,10 +21744,10 @@
     <row r="45" spans="1:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="112"/>
       <c r="B45" s="142" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C45" s="142" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D45" s="72" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C45, Filtered_Bespoke_Outputs, 2, FALSE), "")</f>
@@ -30425,7 +30422,7 @@
         <v>302</v>
       </c>
       <c r="C19" s="142" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D19" s="72" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C19, 'Dropdown Values'!$A$82:$B$104, 2, FALSE), "")</f>
@@ -37583,8 +37580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD05DD0-7124-4A36-99BE-80113683F5E3}">
   <dimension ref="A2:AF90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G65" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T89" sqref="T89"/>
+    <sheetView topLeftCell="G65" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P76" sqref="P76:Q76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -38624,7 +38621,7 @@
     <row r="31" spans="1:32" ht="239.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="385"/>
       <c r="B31" s="326" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C31" s="222"/>
       <c r="D31" s="222"/>
@@ -39861,7 +39858,7 @@
     <row r="57" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="112"/>
       <c r="B57" s="326" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C57" s="222"/>
       <c r="D57" s="222"/>
@@ -40079,7 +40076,7 @@
     <row r="63" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="112"/>
       <c r="B63" s="326" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C63" s="222"/>
       <c r="D63" s="222"/>
@@ -40352,7 +40349,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="310" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D70" s="310"/>
       <c r="E70" s="311" t="s">
@@ -40360,7 +40357,7 @@
       </c>
       <c r="F70" s="311"/>
       <c r="G70" s="310" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H70" s="310"/>
       <c r="I70" s="311" t="s">
@@ -40371,15 +40368,15 @@
         <v>20</v>
       </c>
       <c r="L70" s="318" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="M70" s="318"/>
       <c r="N70" s="321" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="O70" s="321"/>
       <c r="P70" s="310" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q70" s="310"/>
       <c r="R70" s="311" t="s">
@@ -41609,6 +41606,8 @@
     <mergeCell ref="N81:O81"/>
     <mergeCell ref="N80:O80"/>
     <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="I80:J80"/>
     <mergeCell ref="R79:S79"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="E70:F70"/>
@@ -41633,8 +41632,6 @@
     <mergeCell ref="I78:J78"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="E72:F72"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="I79:J79"/>
     <mergeCell ref="P73:Q73"/>
     <mergeCell ref="P74:Q74"/>
     <mergeCell ref="P75:Q75"/>
@@ -41644,7 +41641,6 @@
     <mergeCell ref="E76:F76"/>
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I80:J80"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="C73:D73"/>
@@ -41663,6 +41659,7 @@
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I79:J79"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="C82:D82"/>
@@ -41981,32 +41978,32 @@
     </row>
     <row r="9" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="76" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G9" s="80">
         <f>IFERROR(VALUE(LEFT(E9,1))*VALUE(LEFT(F9,1)),"N/A")</f>
         <v>30</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K9" s="139">
         <f>IFERROR(VALUE(LEFT(I9,1))*VALUE(LEFT(J9,1)),"N/A")</f>
@@ -42015,32 +42012,32 @@
     </row>
     <row r="10" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B10" s="76" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G10" s="80">
         <f t="shared" ref="G10:G13" si="0">IFERROR(VALUE(LEFT(E10,1))*VALUE(LEFT(F10,1)),"N/A")</f>
         <v>8</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K10" s="139">
         <f t="shared" ref="K10:K13" si="1">IFERROR(VALUE(LEFT(I10,1))*VALUE(LEFT(J10,1)),"N/A")</f>
@@ -42049,32 +42046,32 @@
     </row>
     <row r="11" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="76" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>1100</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1101</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G11" s="80">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K11" s="139">
         <f t="shared" si="1"/>
@@ -42083,32 +42080,32 @@
     </row>
     <row r="12" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B12" s="76" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>1103</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1104</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G12" s="80">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K12" s="139">
         <f t="shared" si="1"/>
@@ -42117,32 +42114,32 @@
     </row>
     <row r="13" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B13" s="78" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" s="75" t="s">
         <v>1106</v>
       </c>
-      <c r="C13" s="75" t="s">
-        <v>381</v>
-      </c>
-      <c r="D13" s="75" t="s">
-        <v>1107</v>
-      </c>
       <c r="E13" s="75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F13" s="75" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G13" s="81">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H13" s="75" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I13" s="75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J13" s="75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K13" s="140">
         <f t="shared" si="1"/>

--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Validation_Failures.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Validation_Failures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mhclg-my.sharepoint.com/personal/william_may_communities_gov_uk/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PearceJ\stash\funding-service-design-post-award-data-store\tests\integration_tests\mock_pf_returns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{FE4F3936-EDC4-4FA9-86EB-500CD72E1383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A2696A2-8B6B-4D17-893A-EC7DFEDDF8B7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484FE3B3-D829-4ECD-8047-49AA142D50AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="661" firstSheet="2" activeTab="5" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="661" firstSheet="4" activeTab="10" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="13" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="1114">
   <si>
     <t>Reporting Round</t>
   </si>
@@ -3752,6 +3752,9 @@
   </si>
   <si>
     <t>6 - Extremely High</t>
+  </si>
+  <si>
+    <t>Enhancing sub-regional and regional connectivity</t>
   </si>
 </sst>
 </file>
@@ -6114,12 +6117,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6138,6 +6135,33 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6147,20 +6171,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6192,29 +6213,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6237,18 +6282,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6257,18 +6290,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6279,12 +6300,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6292,6 +6307,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6315,41 +6336,44 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6381,83 +6405,22 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6469,105 +6432,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6576,6 +6440,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6640,6 +6507,142 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6682,14 +6685,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="47">
     <dxf>
       <font>
         <color theme="1" tint="0.249977111117893"/>
@@ -7082,13 +7085,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7646,10 +7642,10 @@
     <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="217"/>
+      <c r="C2" s="215"/>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -7901,8 +7897,8 @@
   </sheetPr>
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C177" sqref="A1:C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8193,7 +8189,7 @@
         <v>299</v>
       </c>
       <c r="C48" s="125" t="s">
-        <v>366</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
@@ -8315,7 +8311,7 @@
         <v>139</v>
       </c>
       <c r="C59" s="125" t="s">
-        <v>366</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
@@ -8582,7 +8578,7 @@
         <v>342</v>
       </c>
       <c r="C84" s="125" t="s">
-        <v>366</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -8593,7 +8589,7 @@
         <v>139</v>
       </c>
       <c r="C85" s="125" t="s">
-        <v>366</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -8604,7 +8600,7 @@
         <v>139</v>
       </c>
       <c r="C86" s="125" t="s">
-        <v>366</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -8725,7 +8721,7 @@
         <v>139</v>
       </c>
       <c r="C97" s="125" t="s">
-        <v>366</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -8769,7 +8765,7 @@
         <v>342</v>
       </c>
       <c r="C101" s="125" t="s">
-        <v>366</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -8802,7 +8798,7 @@
         <v>139</v>
       </c>
       <c r="C104" s="125" t="s">
-        <v>366</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -16327,10 +16323,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="217"/>
+      <c r="C2" s="215"/>
     </row>
     <row r="3" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="205" t="s">
@@ -16340,16 +16336,16 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="213"/>
+      <c r="C4" s="211"/>
     </row>
     <row r="5" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="214" t="s">
+      <c r="B5" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="215" t="s">
+      <c r="C5" s="213" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="6"/>
@@ -16361,138 +16357,138 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="217"/>
+      <c r="C7" s="215"/>
       <c r="I7" s="112"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I8" s="112"/>
     </row>
     <row r="9" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="213"/>
+      <c r="C9" s="211"/>
     </row>
     <row r="10" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="214" t="s">
+      <c r="B10" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="215"/>
+      <c r="C10" s="213"/>
     </row>
     <row r="11" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="212" t="s">
+      <c r="B12" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="213"/>
+      <c r="C12" s="211"/>
     </row>
     <row r="13" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="211"/>
+      <c r="C13" s="217"/>
     </row>
     <row r="14" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="212" t="s">
+      <c r="B15" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="213"/>
+      <c r="C15" s="211"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="210" t="s">
+      <c r="B16" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="211"/>
+      <c r="C16" s="217"/>
     </row>
     <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="2:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="212" t="s">
+      <c r="B18" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="213"/>
+      <c r="C18" s="211"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="211"/>
+      <c r="C19" s="217"/>
     </row>
     <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" s="25"/>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="212" t="s">
+      <c r="B21" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="213"/>
+      <c r="C21" s="211"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="210" t="s">
+      <c r="B22" s="216" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="211"/>
+      <c r="C22" s="217"/>
     </row>
     <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="25"/>
       <c r="C23" s="19"/>
     </row>
     <row r="24" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="212" t="s">
+      <c r="B24" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="213"/>
+      <c r="C24" s="211"/>
     </row>
     <row r="25" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="210" t="s">
+      <c r="B25" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="211"/>
+      <c r="C25" s="217"/>
     </row>
     <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="25"/>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="212" t="s">
+      <c r="B27" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="213"/>
+      <c r="C27" s="211"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="210" t="s">
+      <c r="B28" s="216" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="211"/>
+      <c r="C28" s="217"/>
     </row>
     <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="25"/>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="212" t="s">
+      <c r="B30" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="213"/>
+      <c r="C30" s="211"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="210" t="s">
+      <c r="B31" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="211"/>
+      <c r="C31" s="217"/>
     </row>
     <row r="34" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16539,6 +16535,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B2:C2"/>
@@ -16549,16 +16555,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
@@ -17614,12 +17610,12 @@
   <sheetData>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="215"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -17634,32 +17630,32 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
     </row>
     <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="236" t="s">
+      <c r="B5" s="222" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="238"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="224"/>
     </row>
     <row r="6" spans="1:12" ht="364" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="218"/>
-      <c r="C6" s="219"/>
-      <c r="D6" s="219"/>
-      <c r="E6" s="220"/>
+      <c r="B6" s="225"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="227"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="221" t="s">
+      <c r="B7" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="221"/>
+      <c r="C7" s="218"/>
       <c r="E7" s="59" t="s">
         <v>79</v>
       </c>
@@ -17669,37 +17665,37 @@
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="230" t="s">
+      <c r="B9" s="236" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="232"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="238"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="227" t="s">
+      <c r="B10" s="233" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="228"/>
-      <c r="D10" s="229"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="235"/>
       <c r="E10" s="93" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="233" t="s">
+      <c r="B11" s="239" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="235"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="241"/>
     </row>
     <row r="12" spans="1:12" ht="349" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="225" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="219"/>
-      <c r="D12" s="222"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="231"/>
       <c r="E12" s="146" t="s">
         <v>85</v>
       </c>
@@ -18131,34 +18127,34 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="223" t="s">
+      <c r="B53" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="224"/>
-      <c r="D53" s="224"/>
-      <c r="E53" s="225"/>
+      <c r="C53" s="220"/>
+      <c r="D53" s="220"/>
+      <c r="E53" s="221"/>
     </row>
     <row r="54" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="236" t="s">
+      <c r="B54" s="222" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="237"/>
-      <c r="D54" s="237"/>
-      <c r="E54" s="238"/>
+      <c r="C54" s="223"/>
+      <c r="D54" s="223"/>
+      <c r="E54" s="224"/>
     </row>
     <row r="55" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="218" t="s">
+      <c r="B55" s="225" t="s">
         <v>1077</v>
       </c>
-      <c r="C55" s="219"/>
-      <c r="D55" s="219"/>
-      <c r="E55" s="220"/>
+      <c r="C55" s="226"/>
+      <c r="D55" s="226"/>
+      <c r="E55" s="227"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="221" t="s">
+      <c r="B56" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="221"/>
+      <c r="C56" s="218"/>
       <c r="E56" s="59" t="s">
         <v>96</v>
       </c>
@@ -18170,34 +18166,34 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="223" t="s">
+      <c r="B59" s="219" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="224"/>
-      <c r="D59" s="224"/>
-      <c r="E59" s="225"/>
+      <c r="C59" s="220"/>
+      <c r="D59" s="220"/>
+      <c r="E59" s="221"/>
     </row>
     <row r="60" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="239" t="s">
+      <c r="B60" s="228" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="240"/>
-      <c r="D60" s="240"/>
-      <c r="E60" s="241"/>
+      <c r="C60" s="229"/>
+      <c r="D60" s="229"/>
+      <c r="E60" s="230"/>
     </row>
     <row r="61" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="218" t="s">
+      <c r="B61" s="225" t="s">
         <v>1078</v>
       </c>
-      <c r="C61" s="219"/>
-      <c r="D61" s="219"/>
-      <c r="E61" s="220"/>
+      <c r="C61" s="226"/>
+      <c r="D61" s="226"/>
+      <c r="E61" s="227"/>
     </row>
     <row r="62" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="221" t="s">
+      <c r="B62" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="221"/>
+      <c r="C62" s="218"/>
       <c r="E62" s="59" t="s">
         <v>100</v>
       </c>
@@ -18222,14 +18218,6 @@
     <row r="78" spans="2:4" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B12:D12"/>
@@ -18239,23 +18227,31 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:E50">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="46" priority="1">
       <formula>$B15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D50">
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>"Amber"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
       <formula>"Select a rating"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18506,12 +18502,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B15:C40 B6:B14">
-    <cfRule type="expression" dxfId="42" priority="2">
-      <formula>$B6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C14">
+  <conditionalFormatting sqref="B6:C40">
     <cfRule type="expression" dxfId="41" priority="1">
       <formula>$B6=""</formula>
     </cfRule>
@@ -18529,8 +18520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504D5B1B-461C-4DE2-9E08-BF956850FFFF}">
   <dimension ref="A1:BH154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18624,14 +18615,14 @@
     </row>
     <row r="2" spans="1:60" s="12" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="215"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -18750,14 +18741,14 @@
     </row>
     <row r="4" spans="1:60" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="277" t="s">
+      <c r="B4" s="246" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="278"/>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="279"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="248"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -18814,14 +18805,14 @@
     </row>
     <row r="5" spans="1:60" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="280" t="s">
+      <c r="B5" s="249" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="281"/>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="283"/>
+      <c r="C5" s="250"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="252"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -18878,14 +18869,14 @@
     </row>
     <row r="6" spans="1:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="283" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="261"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="286"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -18945,13 +18936,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="259" t="s">
+      <c r="C7" s="284" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="259"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="261"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="286"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -19011,13 +19002,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="262" t="s">
+      <c r="C8" s="268" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="262"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="264"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="269"/>
+      <c r="F8" s="269"/>
+      <c r="G8" s="270"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -19077,13 +19068,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="262" t="s">
+      <c r="C9" s="268" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="262"/>
-      <c r="E9" s="263"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="264"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="269"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="270"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -19143,13 +19134,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="262" t="s">
+      <c r="C10" s="268" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="262"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="264"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="269"/>
+      <c r="G10" s="270"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -19209,13 +19200,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="262" t="s">
+      <c r="C11" s="268" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="262"/>
-      <c r="E11" s="263"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="264"/>
+      <c r="D11" s="268"/>
+      <c r="E11" s="269"/>
+      <c r="F11" s="269"/>
+      <c r="G11" s="270"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -19275,13 +19266,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="267" t="s">
+      <c r="C12" s="271" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="267"/>
-      <c r="E12" s="268"/>
-      <c r="F12" s="268"/>
-      <c r="G12" s="269"/>
+      <c r="D12" s="271"/>
+      <c r="E12" s="272"/>
+      <c r="F12" s="272"/>
+      <c r="G12" s="273"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -19485,60 +19476,60 @@
     </row>
     <row r="16" spans="1:60" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="251" t="s">
+      <c r="B16" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="253" t="s">
+      <c r="C16" s="274" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="284" t="s">
+      <c r="D16" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="273" t="s">
+      <c r="E16" s="279" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="274"/>
-      <c r="G16" s="271" t="s">
+      <c r="F16" s="280"/>
+      <c r="G16" s="277" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="271"/>
-      <c r="I16" s="271"/>
-      <c r="J16" s="271"/>
-      <c r="K16" s="272"/>
-      <c r="L16" s="255" t="s">
+      <c r="H16" s="277"/>
+      <c r="I16" s="277"/>
+      <c r="J16" s="277"/>
+      <c r="K16" s="278"/>
+      <c r="L16" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="257"/>
+      <c r="M16" s="266"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="266"/>
+      <c r="P16" s="267"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="244" t="s">
+      <c r="R16" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
       <c r="T16" s="52"/>
       <c r="U16" s="52"/>
       <c r="V16" s="52"/>
-      <c r="W16" s="265"/>
-      <c r="X16" s="265"/>
-      <c r="Y16" s="265"/>
-      <c r="Z16" s="265"/>
-      <c r="AA16" s="265"/>
-      <c r="AB16" s="265"/>
-      <c r="AC16" s="265"/>
-      <c r="AD16" s="265"/>
-      <c r="AE16" s="265"/>
-      <c r="AF16" s="265"/>
-      <c r="AG16" s="265"/>
-      <c r="AH16" s="265"/>
-      <c r="AI16" s="265"/>
-      <c r="AJ16" s="265"/>
-      <c r="AK16" s="265"/>
+      <c r="W16" s="244"/>
+      <c r="X16" s="244"/>
+      <c r="Y16" s="244"/>
+      <c r="Z16" s="244"/>
+      <c r="AA16" s="244"/>
+      <c r="AB16" s="244"/>
+      <c r="AC16" s="244"/>
+      <c r="AD16" s="244"/>
+      <c r="AE16" s="244"/>
+      <c r="AF16" s="244"/>
+      <c r="AG16" s="244"/>
+      <c r="AH16" s="244"/>
+      <c r="AI16" s="244"/>
+      <c r="AJ16" s="244"/>
+      <c r="AK16" s="244"/>
       <c r="AL16" s="52"/>
-      <c r="AM16" s="265"/>
+      <c r="AM16" s="244"/>
       <c r="AN16" s="112"/>
       <c r="AO16" s="112"/>
       <c r="AP16" s="112"/>
@@ -19563,13 +19554,13 @@
     </row>
     <row r="17" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="285"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="275"/>
+      <c r="D17" s="256"/>
       <c r="E17" s="185" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="275" t="s">
+      <c r="F17" s="281" t="s">
         <v>132</v>
       </c>
       <c r="G17" s="85" t="s">
@@ -19584,7 +19575,7 @@
       <c r="J17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K17" s="246" t="s">
+      <c r="K17" s="260" t="s">
         <v>132</v>
       </c>
       <c r="L17" s="84" t="s">
@@ -19599,13 +19590,13 @@
       <c r="O17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P17" s="248" t="s">
+      <c r="P17" s="262" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="249" t="s">
+      <c r="Q17" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="245"/>
+      <c r="R17" s="259"/>
       <c r="S17" s="112"/>
       <c r="T17" s="54"/>
       <c r="U17" s="54"/>
@@ -19614,19 +19605,19 @@
       <c r="X17" s="52"/>
       <c r="Y17" s="52"/>
       <c r="Z17" s="52"/>
-      <c r="AA17" s="266"/>
+      <c r="AA17" s="245"/>
       <c r="AB17" s="52"/>
       <c r="AC17" s="52"/>
       <c r="AD17" s="52"/>
       <c r="AE17" s="52"/>
-      <c r="AF17" s="266"/>
+      <c r="AF17" s="245"/>
       <c r="AG17" s="52"/>
       <c r="AH17" s="52"/>
       <c r="AI17" s="52"/>
       <c r="AJ17" s="52"/>
-      <c r="AK17" s="266"/>
-      <c r="AL17" s="266"/>
-      <c r="AM17" s="265"/>
+      <c r="AK17" s="245"/>
+      <c r="AL17" s="245"/>
+      <c r="AM17" s="244"/>
       <c r="AN17" s="112"/>
       <c r="AO17" s="112"/>
       <c r="AP17" s="112"/>
@@ -19651,13 +19642,13 @@
     </row>
     <row r="18" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="252"/>
-      <c r="C18" s="270"/>
-      <c r="D18" s="286"/>
+      <c r="B18" s="254"/>
+      <c r="C18" s="276"/>
+      <c r="D18" s="257"/>
       <c r="E18" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="276"/>
+      <c r="F18" s="282"/>
       <c r="G18" s="179" t="s">
         <v>137</v>
       </c>
@@ -19670,7 +19661,7 @@
       <c r="J18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K18" s="247"/>
+      <c r="K18" s="261"/>
       <c r="L18" s="68" t="s">
         <v>137</v>
       </c>
@@ -19683,9 +19674,9 @@
       <c r="O18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P18" s="247"/>
-      <c r="Q18" s="250"/>
-      <c r="R18" s="245"/>
+      <c r="P18" s="261"/>
+      <c r="Q18" s="264"/>
+      <c r="R18" s="259"/>
       <c r="S18" s="112"/>
       <c r="T18" s="53"/>
       <c r="U18" s="53"/>
@@ -19694,19 +19685,19 @@
       <c r="X18" s="55"/>
       <c r="Y18" s="55"/>
       <c r="Z18" s="55"/>
-      <c r="AA18" s="266"/>
+      <c r="AA18" s="245"/>
       <c r="AB18" s="55"/>
       <c r="AC18" s="55"/>
       <c r="AD18" s="55"/>
       <c r="AE18" s="55"/>
-      <c r="AF18" s="266"/>
+      <c r="AF18" s="245"/>
       <c r="AG18" s="55"/>
       <c r="AH18" s="55"/>
       <c r="AI18" s="55"/>
       <c r="AJ18" s="55"/>
-      <c r="AK18" s="266"/>
-      <c r="AL18" s="266"/>
-      <c r="AM18" s="265"/>
+      <c r="AK18" s="245"/>
+      <c r="AL18" s="245"/>
+      <c r="AM18" s="244"/>
       <c r="AN18" s="112"/>
       <c r="AO18" s="112"/>
       <c r="AP18" s="112"/>
@@ -21497,37 +21488,37 @@
     </row>
     <row r="42" spans="1:60" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="251" t="s">
+      <c r="B42" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="251" t="s">
+      <c r="C42" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="253" t="s">
+      <c r="D42" s="274" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="255" t="s">
+      <c r="E42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="255" t="s">
+      <c r="F42" s="266"/>
+      <c r="G42" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="256"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="257"/>
-      <c r="L42" s="255" t="s">
+      <c r="H42" s="266"/>
+      <c r="I42" s="266"/>
+      <c r="J42" s="266"/>
+      <c r="K42" s="267"/>
+      <c r="L42" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="256"/>
-      <c r="N42" s="256"/>
-      <c r="O42" s="256"/>
-      <c r="P42" s="257"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="266"/>
+      <c r="O42" s="266"/>
+      <c r="P42" s="267"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="244" t="s">
+      <c r="R42" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -21539,18 +21530,18 @@
       <c r="Y42" s="112"/>
       <c r="Z42" s="112"/>
       <c r="AA42" s="112"/>
-      <c r="AB42" s="265"/>
-      <c r="AC42" s="265"/>
-      <c r="AD42" s="265"/>
-      <c r="AE42" s="265"/>
-      <c r="AF42" s="265"/>
-      <c r="AG42" s="265"/>
-      <c r="AH42" s="265"/>
-      <c r="AI42" s="265"/>
-      <c r="AJ42" s="265"/>
-      <c r="AK42" s="265"/>
+      <c r="AB42" s="244"/>
+      <c r="AC42" s="244"/>
+      <c r="AD42" s="244"/>
+      <c r="AE42" s="244"/>
+      <c r="AF42" s="244"/>
+      <c r="AG42" s="244"/>
+      <c r="AH42" s="244"/>
+      <c r="AI42" s="244"/>
+      <c r="AJ42" s="244"/>
+      <c r="AK42" s="244"/>
       <c r="AL42" s="52"/>
-      <c r="AM42" s="265"/>
+      <c r="AM42" s="244"/>
       <c r="AN42" s="112"/>
       <c r="AO42" s="112"/>
       <c r="AP42" s="112"/>
@@ -21575,13 +21566,13 @@
     </row>
     <row r="43" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="252"/>
-      <c r="C43" s="252"/>
-      <c r="D43" s="254"/>
+      <c r="B43" s="254"/>
+      <c r="C43" s="254"/>
+      <c r="D43" s="275"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="246" t="s">
+      <c r="F43" s="260" t="s">
         <v>132</v>
       </c>
       <c r="G43" s="84" t="s">
@@ -21596,7 +21587,7 @@
       <c r="J43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K43" s="246" t="s">
+      <c r="K43" s="260" t="s">
         <v>132</v>
       </c>
       <c r="L43" s="84" t="s">
@@ -21611,13 +21602,13 @@
       <c r="O43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P43" s="248" t="s">
+      <c r="P43" s="262" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="249" t="s">
+      <c r="Q43" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="245"/>
+      <c r="R43" s="259"/>
       <c r="S43" s="112"/>
       <c r="T43" s="54"/>
       <c r="U43" s="54"/>
@@ -21626,19 +21617,19 @@
       <c r="X43" s="52"/>
       <c r="Y43" s="52"/>
       <c r="Z43" s="52"/>
-      <c r="AA43" s="266"/>
+      <c r="AA43" s="245"/>
       <c r="AB43" s="52"/>
       <c r="AC43" s="52"/>
       <c r="AD43" s="52"/>
       <c r="AE43" s="52"/>
-      <c r="AF43" s="266"/>
+      <c r="AF43" s="245"/>
       <c r="AG43" s="52"/>
       <c r="AH43" s="52"/>
       <c r="AI43" s="52"/>
       <c r="AJ43" s="52"/>
-      <c r="AK43" s="266"/>
-      <c r="AL43" s="266"/>
-      <c r="AM43" s="265"/>
+      <c r="AK43" s="245"/>
+      <c r="AL43" s="245"/>
+      <c r="AM43" s="244"/>
       <c r="AN43" s="112"/>
       <c r="AO43" s="112"/>
       <c r="AP43" s="112"/>
@@ -21663,13 +21654,13 @@
     </row>
     <row r="44" spans="1:60" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="252"/>
-      <c r="C44" s="252"/>
-      <c r="D44" s="252"/>
+      <c r="B44" s="254"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="254"/>
       <c r="E44" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="247"/>
+      <c r="F44" s="261"/>
       <c r="G44" s="67" t="s">
         <v>137</v>
       </c>
@@ -21682,7 +21673,7 @@
       <c r="J44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="247"/>
+      <c r="K44" s="261"/>
       <c r="L44" s="68" t="s">
         <v>137</v>
       </c>
@@ -21695,9 +21686,9 @@
       <c r="O44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="247"/>
-      <c r="Q44" s="250"/>
-      <c r="R44" s="245"/>
+      <c r="P44" s="261"/>
+      <c r="Q44" s="264"/>
+      <c r="R44" s="259"/>
       <c r="S44" s="112"/>
       <c r="T44" s="53"/>
       <c r="U44" s="53"/>
@@ -21706,19 +21697,19 @@
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55"/>
-      <c r="AA44" s="266"/>
+      <c r="AA44" s="245"/>
       <c r="AB44" s="55"/>
       <c r="AC44" s="55"/>
       <c r="AD44" s="55"/>
       <c r="AE44" s="55"/>
-      <c r="AF44" s="266"/>
+      <c r="AF44" s="245"/>
       <c r="AG44" s="55"/>
       <c r="AH44" s="55"/>
       <c r="AI44" s="55"/>
       <c r="AJ44" s="55"/>
-      <c r="AK44" s="266"/>
-      <c r="AL44" s="266"/>
-      <c r="AM44" s="265"/>
+      <c r="AK44" s="245"/>
+      <c r="AL44" s="245"/>
+      <c r="AM44" s="244"/>
       <c r="AN44" s="112"/>
       <c r="AO44" s="112"/>
       <c r="AP44" s="112"/>
@@ -29353,6 +29344,37 @@
     <protectedRange sqref="L45:O45" name="Section_B_1_5"/>
   </protectedRanges>
   <mergeCells count="47">
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AK17:AK18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="AB42:AF42"/>
     <mergeCell ref="AG42:AK42"/>
@@ -29369,37 +29391,6 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AK17:AK18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E18 G18:J18">
@@ -29410,83 +29401,83 @@
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44:J44">
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+      <formula>"Forecast"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:J44">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+      <formula>"Actual"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:O18">
-    <cfRule type="cellIs" dxfId="36" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="85" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="86" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:O44">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18:Z18">
-    <cfRule type="cellIs" dxfId="32" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="41" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W44:Z44">
-    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AE18">
-    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="40" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB44:AE44">
-    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG18:AJ18">
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="37" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="38" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG44:AJ44">
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
-      <formula>"Forecast"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
-      <formula>"Actual"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29615,14 +29606,14 @@
     </row>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="215"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -29703,14 +29694,14 @@
     </row>
     <row r="4" spans="1:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="290" t="s">
+      <c r="B4" s="297" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="291"/>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="292"/>
+      <c r="C4" s="298"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="298"/>
+      <c r="G4" s="299"/>
       <c r="H4" s="112"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -29748,14 +29739,14 @@
     </row>
     <row r="5" spans="1:41" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="293" t="s">
+      <c r="B5" s="300" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="295"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="302"/>
       <c r="H5" s="112"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -29793,14 +29784,14 @@
     </row>
     <row r="6" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="296" t="s">
+      <c r="B6" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="297"/>
-      <c r="D6" s="297"/>
-      <c r="E6" s="297"/>
-      <c r="F6" s="297"/>
-      <c r="G6" s="298"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="304"/>
+      <c r="F6" s="304"/>
+      <c r="G6" s="305"/>
       <c r="H6" s="112"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -29841,13 +29832,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="260" t="s">
+      <c r="C7" s="285" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="298"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="304"/>
+      <c r="F7" s="304"/>
+      <c r="G7" s="305"/>
       <c r="H7" s="112"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -29888,13 +29879,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="263" t="s">
+      <c r="C8" s="269" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="300"/>
+      <c r="D8" s="292"/>
+      <c r="E8" s="292"/>
+      <c r="F8" s="292"/>
+      <c r="G8" s="293"/>
       <c r="H8" s="112"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -29935,13 +29926,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="263" t="s">
+      <c r="C9" s="269" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="300"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="293"/>
       <c r="H9" s="112"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -29982,13 +29973,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="263" t="s">
+      <c r="C10" s="269" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
-      <c r="G10" s="300"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="293"/>
       <c r="H10" s="112"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -30029,13 +30020,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="263" t="s">
+      <c r="C11" s="269" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="299"/>
-      <c r="E11" s="299"/>
-      <c r="F11" s="299"/>
-      <c r="G11" s="300"/>
+      <c r="D11" s="292"/>
+      <c r="E11" s="292"/>
+      <c r="F11" s="292"/>
+      <c r="G11" s="293"/>
       <c r="H11" s="112"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -30076,13 +30067,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="268" t="s">
+      <c r="C12" s="272" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="301"/>
-      <c r="E12" s="301"/>
-      <c r="F12" s="301"/>
-      <c r="G12" s="302"/>
+      <c r="D12" s="294"/>
+      <c r="E12" s="294"/>
+      <c r="F12" s="294"/>
+      <c r="G12" s="295"/>
       <c r="H12" s="112"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -30229,37 +30220,37 @@
     </row>
     <row r="16" spans="1:41" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="251" t="s">
+      <c r="B16" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="251" t="s">
+      <c r="C16" s="253" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="253" t="s">
+      <c r="D16" s="274" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="255" t="s">
+      <c r="E16" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="256"/>
-      <c r="G16" s="255" t="s">
+      <c r="F16" s="266"/>
+      <c r="G16" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="257"/>
-      <c r="L16" s="255" t="s">
+      <c r="H16" s="266"/>
+      <c r="I16" s="266"/>
+      <c r="J16" s="266"/>
+      <c r="K16" s="267"/>
+      <c r="L16" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="257"/>
+      <c r="M16" s="266"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="266"/>
+      <c r="P16" s="267"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="244" t="s">
+      <c r="R16" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
@@ -30288,9 +30279,9 @@
     </row>
     <row r="17" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="252"/>
-      <c r="D17" s="254"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="275"/>
       <c r="E17" s="84" t="s">
         <v>131</v>
       </c>
@@ -30327,10 +30318,10 @@
       <c r="P17" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="249" t="s">
+      <c r="Q17" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="245"/>
+      <c r="R17" s="259"/>
       <c r="S17" s="112"/>
       <c r="T17" s="112"/>
       <c r="U17" s="112"/>
@@ -30357,9 +30348,9 @@
     </row>
     <row r="18" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="289"/>
-      <c r="C18" s="289"/>
-      <c r="D18" s="252"/>
+      <c r="B18" s="296"/>
+      <c r="C18" s="296"/>
+      <c r="D18" s="254"/>
       <c r="E18" s="22" t="s">
         <v>136</v>
       </c>
@@ -30390,8 +30381,8 @@
         <v>137</v>
       </c>
       <c r="P18" s="288"/>
-      <c r="Q18" s="303"/>
-      <c r="R18" s="305"/>
+      <c r="Q18" s="289"/>
+      <c r="R18" s="291"/>
       <c r="S18" s="112"/>
       <c r="T18" s="112"/>
       <c r="U18" s="112"/>
@@ -31471,9 +31462,9 @@
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36" s="112"/>
-      <c r="Z36" s="304"/>
-      <c r="AA36" s="304"/>
-      <c r="AB36" s="304"/>
+      <c r="Z36" s="290"/>
+      <c r="AA36" s="290"/>
+      <c r="AB36" s="290"/>
       <c r="AC36" s="112"/>
       <c r="AD36" s="112"/>
       <c r="AE36" s="112"/>
@@ -31726,37 +31717,37 @@
     </row>
     <row r="42" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="251" t="s">
+      <c r="B42" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="251" t="s">
+      <c r="C42" s="253" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="253" t="s">
+      <c r="D42" s="274" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="255" t="s">
+      <c r="E42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="255" t="s">
+      <c r="F42" s="266"/>
+      <c r="G42" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="256"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="257"/>
-      <c r="L42" s="255" t="s">
+      <c r="H42" s="266"/>
+      <c r="I42" s="266"/>
+      <c r="J42" s="266"/>
+      <c r="K42" s="267"/>
+      <c r="L42" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="256"/>
-      <c r="N42" s="256"/>
-      <c r="O42" s="256"/>
-      <c r="P42" s="257"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="266"/>
+      <c r="O42" s="266"/>
+      <c r="P42" s="267"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="244" t="s">
+      <c r="R42" s="258" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -31785,9 +31776,9 @@
     </row>
     <row r="43" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="252"/>
-      <c r="C43" s="252"/>
-      <c r="D43" s="254"/>
+      <c r="B43" s="254"/>
+      <c r="C43" s="254"/>
+      <c r="D43" s="275"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
@@ -31824,10 +31815,10 @@
       <c r="P43" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="249" t="s">
+      <c r="Q43" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="245"/>
+      <c r="R43" s="259"/>
       <c r="S43" s="112"/>
       <c r="T43" s="112"/>
       <c r="U43" s="112"/>
@@ -31854,9 +31845,9 @@
     </row>
     <row r="44" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="252"/>
-      <c r="C44" s="252"/>
-      <c r="D44" s="252"/>
+      <c r="B44" s="254"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="254"/>
       <c r="E44" s="22" t="s">
         <v>136</v>
       </c>
@@ -31873,7 +31864,7 @@
       <c r="J44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="247"/>
+      <c r="K44" s="261"/>
       <c r="L44" s="141" t="s">
         <v>137</v>
       </c>
@@ -31886,9 +31877,9 @@
       <c r="O44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="247"/>
-      <c r="Q44" s="250"/>
-      <c r="R44" s="245"/>
+      <c r="P44" s="261"/>
+      <c r="Q44" s="264"/>
+      <c r="R44" s="259"/>
       <c r="S44" s="112"/>
       <c r="T44" s="112"/>
       <c r="U44" s="112"/>
@@ -37456,25 +37447,11 @@
     <protectedRange sqref="Q19" name="Section_B_1_3"/>
   </protectedRanges>
   <mergeCells count="33">
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:D18"/>
@@ -37484,57 +37461,71 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
   </mergeCells>
-  <conditionalFormatting sqref="G18:J18">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+      <formula>"Forecast"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>"Actual"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>"Forecast"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:J18">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"Actual"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:J44">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:O18">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:O44">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
-      <formula>"Forecast"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
-      <formula>"Actual"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
-      <formula>"Forecast"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
-      <formula>"Actual"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37606,15 +37597,15 @@
   <sheetData>
     <row r="2" spans="1:32" s="97" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="112"/>
-      <c r="B2" s="359" t="s">
+      <c r="B2" s="306" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="361"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="307"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="308"/>
       <c r="I2" s="18"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -37642,15 +37633,15 @@
     </row>
     <row r="4" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="221"/>
       <c r="I4" s="112"/>
       <c r="J4" s="112"/>
       <c r="K4" s="112"/>
@@ -37678,15 +37669,15 @@
     </row>
     <row r="5" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="375" t="s">
+      <c r="B5" s="329" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="376"/>
-      <c r="D5" s="376"/>
-      <c r="E5" s="376"/>
-      <c r="F5" s="376"/>
-      <c r="G5" s="376"/>
-      <c r="H5" s="377"/>
+      <c r="C5" s="330"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="331"/>
       <c r="I5" s="112"/>
       <c r="J5" s="112"/>
       <c r="K5" s="112"/>
@@ -37749,18 +37740,18 @@
       <c r="AF6" s="112"/>
     </row>
     <row r="7" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="368" t="s">
+      <c r="A7" s="322" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="378" t="s">
+      <c r="B7" s="332" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="379"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="379"/>
-      <c r="H7" s="380"/>
+      <c r="C7" s="333"/>
+      <c r="D7" s="333"/>
+      <c r="E7" s="333"/>
+      <c r="F7" s="333"/>
+      <c r="G7" s="333"/>
+      <c r="H7" s="334"/>
       <c r="I7" s="112"/>
       <c r="J7" s="112"/>
       <c r="K7" s="112"/>
@@ -37787,16 +37778,16 @@
       <c r="AF7" s="112"/>
     </row>
     <row r="8" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="368"/>
-      <c r="B8" s="369" t="s">
+      <c r="A8" s="322"/>
+      <c r="B8" s="323" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="370"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
-      <c r="G8" s="370"/>
-      <c r="H8" s="371"/>
+      <c r="C8" s="324"/>
+      <c r="D8" s="324"/>
+      <c r="E8" s="324"/>
+      <c r="F8" s="324"/>
+      <c r="G8" s="324"/>
+      <c r="H8" s="325"/>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
@@ -37823,16 +37814,16 @@
       <c r="AF8" s="112"/>
     </row>
     <row r="9" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="368"/>
-      <c r="B9" s="381" t="s">
+      <c r="A9" s="322"/>
+      <c r="B9" s="335" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="382"/>
-      <c r="D9" s="382"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="382"/>
-      <c r="G9" s="382"/>
-      <c r="H9" s="383"/>
+      <c r="C9" s="336"/>
+      <c r="D9" s="336"/>
+      <c r="E9" s="336"/>
+      <c r="F9" s="336"/>
+      <c r="G9" s="336"/>
+      <c r="H9" s="337"/>
       <c r="I9" s="112"/>
       <c r="J9" s="112"/>
       <c r="K9" s="112"/>
@@ -37859,7 +37850,7 @@
       <c r="AF9" s="112"/>
     </row>
     <row r="10" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="368"/>
+      <c r="A10" s="322"/>
       <c r="B10" s="112"/>
       <c r="C10" s="112"/>
       <c r="D10" s="112"/>
@@ -37893,7 +37884,7 @@
       <c r="AF10" s="112"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="368"/>
+      <c r="A11" s="322"/>
       <c r="B11" s="169" t="s">
         <v>260</v>
       </c>
@@ -38001,18 +37992,18 @@
       <c r="AF13" s="112"/>
     </row>
     <row r="14" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="384" t="s">
+      <c r="A14" s="338" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="365" t="s">
+      <c r="B14" s="319" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="366"/>
-      <c r="D14" s="366"/>
-      <c r="E14" s="366"/>
-      <c r="F14" s="366"/>
-      <c r="G14" s="366"/>
-      <c r="H14" s="367"/>
+      <c r="C14" s="320"/>
+      <c r="D14" s="320"/>
+      <c r="E14" s="320"/>
+      <c r="F14" s="320"/>
+      <c r="G14" s="320"/>
+      <c r="H14" s="321"/>
       <c r="I14" s="112"/>
       <c r="J14" s="112"/>
       <c r="K14" s="112"/>
@@ -38039,16 +38030,16 @@
       <c r="AF14" s="112"/>
     </row>
     <row r="15" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="384"/>
-      <c r="B15" s="372" t="s">
+      <c r="A15" s="338"/>
+      <c r="B15" s="326" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="373"/>
-      <c r="D15" s="373"/>
-      <c r="E15" s="373"/>
-      <c r="F15" s="373"/>
-      <c r="G15" s="373"/>
-      <c r="H15" s="374"/>
+      <c r="C15" s="327"/>
+      <c r="D15" s="327"/>
+      <c r="E15" s="327"/>
+      <c r="F15" s="327"/>
+      <c r="G15" s="327"/>
+      <c r="H15" s="328"/>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
       <c r="K15" s="112"/>
@@ -38075,7 +38066,7 @@
       <c r="AF15" s="112"/>
     </row>
     <row r="16" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="384"/>
+      <c r="A16" s="338"/>
       <c r="B16" s="340" t="s">
         <v>162</v>
       </c>
@@ -38111,7 +38102,7 @@
       <c r="AF16" s="112"/>
     </row>
     <row r="17" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="384"/>
+      <c r="A17" s="338"/>
       <c r="B17" s="171" t="s">
         <v>163</v>
       </c>
@@ -38147,7 +38138,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="384"/>
+      <c r="A18" s="338"/>
       <c r="B18" s="128">
         <v>120</v>
       </c>
@@ -38255,18 +38246,18 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32" s="97" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="384" t="s">
+      <c r="A21" s="338" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="365" t="s">
+      <c r="B21" s="319" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="366"/>
-      <c r="D21" s="366"/>
-      <c r="E21" s="366"/>
-      <c r="F21" s="366"/>
-      <c r="G21" s="366"/>
-      <c r="H21" s="367"/>
+      <c r="C21" s="320"/>
+      <c r="D21" s="320"/>
+      <c r="E21" s="320"/>
+      <c r="F21" s="320"/>
+      <c r="G21" s="320"/>
+      <c r="H21" s="321"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -38293,16 +38284,16 @@
       <c r="AF21" s="3"/>
     </row>
     <row r="22" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="384"/>
-      <c r="B22" s="372" t="s">
+      <c r="A22" s="338"/>
+      <c r="B22" s="326" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="373"/>
-      <c r="D22" s="373"/>
-      <c r="E22" s="373"/>
-      <c r="F22" s="373"/>
-      <c r="G22" s="373"/>
-      <c r="H22" s="374"/>
+      <c r="C22" s="327"/>
+      <c r="D22" s="327"/>
+      <c r="E22" s="327"/>
+      <c r="F22" s="327"/>
+      <c r="G22" s="327"/>
+      <c r="H22" s="328"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -38329,16 +38320,16 @@
       <c r="AF22" s="3"/>
     </row>
     <row r="23" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="384"/>
-      <c r="B23" s="343" t="s">
+      <c r="A23" s="338"/>
+      <c r="B23" s="309" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="344"/>
-      <c r="D23" s="344"/>
-      <c r="E23" s="344"/>
-      <c r="F23" s="344"/>
-      <c r="G23" s="344"/>
-      <c r="H23" s="345"/>
+      <c r="C23" s="310"/>
+      <c r="D23" s="310"/>
+      <c r="E23" s="310"/>
+      <c r="F23" s="310"/>
+      <c r="G23" s="310"/>
+      <c r="H23" s="311"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -38365,7 +38356,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="384"/>
+      <c r="A24" s="338"/>
       <c r="B24" s="171" t="s">
         <v>163</v>
       </c>
@@ -38401,7 +38392,7 @@
       <c r="AF24" s="3"/>
     </row>
     <row r="25" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="384"/>
+      <c r="A25" s="338"/>
       <c r="B25" s="128">
         <v>119</v>
       </c>
@@ -38509,18 +38500,18 @@
       <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" s="97" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="385" t="s">
+      <c r="A28" s="339" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="365" t="s">
+      <c r="B28" s="319" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="366"/>
-      <c r="D28" s="366"/>
-      <c r="E28" s="366"/>
-      <c r="F28" s="366"/>
-      <c r="G28" s="366"/>
-      <c r="H28" s="367"/>
+      <c r="C28" s="320"/>
+      <c r="D28" s="320"/>
+      <c r="E28" s="320"/>
+      <c r="F28" s="320"/>
+      <c r="G28" s="320"/>
+      <c r="H28" s="321"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -38547,16 +38538,16 @@
       <c r="AF28" s="3"/>
     </row>
     <row r="29" spans="1:32" s="97" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="385"/>
-      <c r="B29" s="372" t="s">
+      <c r="A29" s="339"/>
+      <c r="B29" s="326" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="373"/>
-      <c r="D29" s="373"/>
-      <c r="E29" s="373"/>
-      <c r="F29" s="373"/>
-      <c r="G29" s="373"/>
-      <c r="H29" s="374"/>
+      <c r="C29" s="327"/>
+      <c r="D29" s="327"/>
+      <c r="E29" s="327"/>
+      <c r="F29" s="327"/>
+      <c r="G29" s="327"/>
+      <c r="H29" s="328"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -38583,16 +38574,16 @@
       <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="385"/>
-      <c r="B30" s="343" t="s">
+      <c r="A30" s="339"/>
+      <c r="B30" s="309" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="344"/>
-      <c r="D30" s="344"/>
-      <c r="E30" s="344"/>
-      <c r="F30" s="344"/>
-      <c r="G30" s="344"/>
-      <c r="H30" s="345"/>
+      <c r="C30" s="310"/>
+      <c r="D30" s="310"/>
+      <c r="E30" s="310"/>
+      <c r="F30" s="310"/>
+      <c r="G30" s="310"/>
+      <c r="H30" s="311"/>
       <c r="I30" s="112"/>
       <c r="J30" s="112"/>
       <c r="K30" s="112"/>
@@ -38619,16 +38610,16 @@
       <c r="AF30" s="112"/>
     </row>
     <row r="31" spans="1:32" ht="239.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="385"/>
-      <c r="B31" s="326" t="s">
+      <c r="A31" s="339"/>
+      <c r="B31" s="312" t="s">
         <v>1088</v>
       </c>
-      <c r="C31" s="222"/>
-      <c r="D31" s="222"/>
-      <c r="E31" s="327"/>
-      <c r="F31" s="327"/>
-      <c r="G31" s="327"/>
-      <c r="H31" s="328"/>
+      <c r="C31" s="231"/>
+      <c r="D31" s="231"/>
+      <c r="E31" s="313"/>
+      <c r="F31" s="313"/>
+      <c r="G31" s="313"/>
+      <c r="H31" s="314"/>
       <c r="I31" s="112"/>
       <c r="J31" s="112"/>
       <c r="K31" s="112"/>
@@ -38655,13 +38646,13 @@
       <c r="AF31" s="112"/>
     </row>
     <row r="32" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="385"/>
-      <c r="B32" s="221" t="s">
+      <c r="A32" s="339"/>
+      <c r="B32" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="221"/>
-      <c r="D32" s="221"/>
-      <c r="E32" s="221"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="218"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="59" t="s">
@@ -38729,18 +38720,18 @@
       <c r="AF33" s="112"/>
     </row>
     <row r="34" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="368" t="s">
+      <c r="A34" s="322" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="365" t="s">
+      <c r="B34" s="319" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="366"/>
-      <c r="D34" s="366"/>
-      <c r="E34" s="366"/>
-      <c r="F34" s="366"/>
-      <c r="G34" s="366"/>
-      <c r="H34" s="367"/>
+      <c r="C34" s="320"/>
+      <c r="D34" s="320"/>
+      <c r="E34" s="320"/>
+      <c r="F34" s="320"/>
+      <c r="G34" s="320"/>
+      <c r="H34" s="321"/>
       <c r="I34" s="112"/>
       <c r="J34" s="112"/>
       <c r="K34" s="112"/>
@@ -38767,16 +38758,16 @@
       <c r="AF34" s="112"/>
     </row>
     <row r="35" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="368"/>
-      <c r="B35" s="372" t="s">
+      <c r="A35" s="322"/>
+      <c r="B35" s="326" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="373"/>
-      <c r="D35" s="373"/>
-      <c r="E35" s="373"/>
-      <c r="F35" s="373"/>
-      <c r="G35" s="373"/>
-      <c r="H35" s="374"/>
+      <c r="C35" s="327"/>
+      <c r="D35" s="327"/>
+      <c r="E35" s="327"/>
+      <c r="F35" s="327"/>
+      <c r="G35" s="327"/>
+      <c r="H35" s="328"/>
       <c r="I35" s="112"/>
       <c r="J35" s="112"/>
       <c r="K35" s="112"/>
@@ -38803,16 +38794,16 @@
       <c r="AF35" s="112"/>
     </row>
     <row r="36" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="368"/>
+      <c r="A36" s="322"/>
       <c r="B36" s="356" t="s">
         <v>179</v>
       </c>
       <c r="C36" s="357"/>
       <c r="D36" s="357"/>
-      <c r="E36" s="344"/>
-      <c r="F36" s="344"/>
-      <c r="G36" s="344"/>
-      <c r="H36" s="345"/>
+      <c r="E36" s="310"/>
+      <c r="F36" s="310"/>
+      <c r="G36" s="310"/>
+      <c r="H36" s="311"/>
       <c r="I36" s="112"/>
       <c r="J36" s="112"/>
       <c r="K36" s="112"/>
@@ -38839,7 +38830,7 @@
       <c r="AF36" s="112"/>
     </row>
     <row r="37" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="368"/>
+      <c r="A37" s="322"/>
       <c r="B37" s="171" t="s">
         <v>163</v>
       </c>
@@ -38875,7 +38866,7 @@
       <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="368"/>
+      <c r="A38" s="322"/>
       <c r="B38" s="128">
         <v>120</v>
       </c>
@@ -38948,22 +38939,22 @@
     </row>
     <row r="40" spans="1:32" s="107" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A40" s="105"/>
-      <c r="B40" s="346" t="s">
+      <c r="B40" s="343" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="347"/>
-      <c r="D40" s="347"/>
-      <c r="E40" s="347"/>
-      <c r="F40" s="347"/>
-      <c r="G40" s="347"/>
-      <c r="H40" s="347"/>
-      <c r="I40" s="347"/>
-      <c r="J40" s="347"/>
-      <c r="K40" s="347"/>
-      <c r="L40" s="347"/>
-      <c r="M40" s="347"/>
-      <c r="N40" s="347"/>
-      <c r="O40" s="348"/>
+      <c r="C40" s="344"/>
+      <c r="D40" s="344"/>
+      <c r="E40" s="344"/>
+      <c r="F40" s="344"/>
+      <c r="G40" s="344"/>
+      <c r="H40" s="344"/>
+      <c r="I40" s="344"/>
+      <c r="J40" s="344"/>
+      <c r="K40" s="344"/>
+      <c r="L40" s="344"/>
+      <c r="M40" s="344"/>
+      <c r="N40" s="344"/>
+      <c r="O40" s="345"/>
       <c r="P40" s="112"/>
       <c r="Q40" s="105"/>
       <c r="R40" s="105"/>
@@ -39020,28 +39011,28 @@
     </row>
     <row r="42" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="329" t="s">
+      <c r="B42" s="364" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="255" t="s">
+      <c r="C42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="256"/>
-      <c r="E42" s="255" t="s">
+      <c r="D42" s="266"/>
+      <c r="E42" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="256"/>
-      <c r="H42" s="256"/>
+      <c r="F42" s="266"/>
+      <c r="G42" s="266"/>
+      <c r="H42" s="266"/>
       <c r="I42" s="358"/>
-      <c r="J42" s="256" t="s">
+      <c r="J42" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="K42" s="256"/>
-      <c r="L42" s="256"/>
-      <c r="M42" s="256"/>
-      <c r="N42" s="257"/>
-      <c r="O42" s="353" t="s">
+      <c r="K42" s="266"/>
+      <c r="L42" s="266"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="267"/>
+      <c r="O42" s="352" t="s">
         <v>130</v>
       </c>
       <c r="P42" s="112"/>
@@ -39064,11 +39055,11 @@
     </row>
     <row r="43" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="330"/>
+      <c r="B43" s="365"/>
       <c r="C43" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="355" t="s">
+      <c r="D43" s="318" t="s">
         <v>132</v>
       </c>
       <c r="E43" s="173" t="s">
@@ -39083,7 +39074,7 @@
       <c r="H43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="I43" s="355" t="s">
+      <c r="I43" s="318" t="s">
         <v>132</v>
       </c>
       <c r="J43" s="173" t="s">
@@ -39098,10 +39089,10 @@
       <c r="M43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="N43" s="355" t="s">
+      <c r="N43" s="318" t="s">
         <v>132</v>
       </c>
-      <c r="O43" s="354"/>
+      <c r="O43" s="353"/>
       <c r="P43" s="112"/>
       <c r="Q43" s="112"/>
       <c r="R43" s="112"/>
@@ -39122,11 +39113,11 @@
     </row>
     <row r="44" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="112"/>
-      <c r="B44" s="330"/>
+      <c r="B44" s="365"/>
       <c r="C44" s="175" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="275"/>
+      <c r="D44" s="281"/>
       <c r="E44" s="176" t="s">
         <v>137</v>
       </c>
@@ -39139,7 +39130,7 @@
       <c r="H44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="I44" s="275"/>
+      <c r="I44" s="281"/>
       <c r="J44" s="175" t="s">
         <v>137</v>
       </c>
@@ -39152,8 +39143,8 @@
       <c r="M44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="N44" s="275"/>
-      <c r="O44" s="354"/>
+      <c r="N44" s="281"/>
+      <c r="O44" s="353"/>
       <c r="P44" s="112"/>
       <c r="Q44" s="112"/>
       <c r="R44" s="112"/>
@@ -39749,15 +39740,15 @@
     </row>
     <row r="54" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A54" s="112"/>
-      <c r="B54" s="337" t="s">
+      <c r="B54" s="372" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="338"/>
-      <c r="D54" s="338"/>
-      <c r="E54" s="338"/>
-      <c r="F54" s="338"/>
-      <c r="G54" s="338"/>
-      <c r="H54" s="339"/>
+      <c r="C54" s="373"/>
+      <c r="D54" s="373"/>
+      <c r="E54" s="373"/>
+      <c r="F54" s="373"/>
+      <c r="G54" s="373"/>
+      <c r="H54" s="374"/>
       <c r="I54" s="112"/>
       <c r="J54" s="112"/>
       <c r="K54" s="112"/>
@@ -39785,15 +39776,15 @@
     </row>
     <row r="55" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="112"/>
-      <c r="B55" s="331" t="s">
+      <c r="B55" s="366" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="332"/>
-      <c r="D55" s="332"/>
-      <c r="E55" s="332"/>
-      <c r="F55" s="332"/>
-      <c r="G55" s="332"/>
-      <c r="H55" s="333"/>
+      <c r="C55" s="367"/>
+      <c r="D55" s="367"/>
+      <c r="E55" s="367"/>
+      <c r="F55" s="367"/>
+      <c r="G55" s="367"/>
+      <c r="H55" s="368"/>
       <c r="I55" s="112"/>
       <c r="J55" s="112"/>
       <c r="K55" s="112"/>
@@ -39821,15 +39812,15 @@
     </row>
     <row r="56" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="112"/>
-      <c r="B56" s="350" t="s">
+      <c r="B56" s="348" t="s">
         <v>195</v>
       </c>
-      <c r="C56" s="351"/>
-      <c r="D56" s="351"/>
-      <c r="E56" s="351"/>
-      <c r="F56" s="351"/>
-      <c r="G56" s="351"/>
-      <c r="H56" s="352"/>
+      <c r="C56" s="349"/>
+      <c r="D56" s="349"/>
+      <c r="E56" s="349"/>
+      <c r="F56" s="349"/>
+      <c r="G56" s="349"/>
+      <c r="H56" s="350"/>
       <c r="I56" s="112"/>
       <c r="J56" s="112"/>
       <c r="K56" s="112"/>
@@ -39857,15 +39848,15 @@
     </row>
     <row r="57" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="112"/>
-      <c r="B57" s="326" t="s">
+      <c r="B57" s="312" t="s">
         <v>1089</v>
       </c>
-      <c r="C57" s="222"/>
-      <c r="D57" s="222"/>
-      <c r="E57" s="327"/>
-      <c r="F57" s="327"/>
-      <c r="G57" s="327"/>
-      <c r="H57" s="328"/>
+      <c r="C57" s="231"/>
+      <c r="D57" s="231"/>
+      <c r="E57" s="313"/>
+      <c r="F57" s="313"/>
+      <c r="G57" s="313"/>
+      <c r="H57" s="314"/>
       <c r="I57" s="112"/>
       <c r="J57" s="112"/>
       <c r="K57" s="112"/>
@@ -39893,12 +39884,12 @@
     </row>
     <row r="58" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="112"/>
-      <c r="B58" s="221" t="s">
+      <c r="B58" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="221"/>
-      <c r="D58" s="221"/>
-      <c r="E58" s="221"/>
+      <c r="C58" s="218"/>
+      <c r="D58" s="218"/>
+      <c r="E58" s="218"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="59" t="s">
@@ -39967,15 +39958,15 @@
     </row>
     <row r="60" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="112"/>
-      <c r="B60" s="362" t="s">
+      <c r="B60" s="315" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="363"/>
-      <c r="D60" s="363"/>
-      <c r="E60" s="363"/>
-      <c r="F60" s="363"/>
-      <c r="G60" s="363"/>
-      <c r="H60" s="364"/>
+      <c r="C60" s="316"/>
+      <c r="D60" s="316"/>
+      <c r="E60" s="316"/>
+      <c r="F60" s="316"/>
+      <c r="G60" s="316"/>
+      <c r="H60" s="317"/>
       <c r="I60" s="112"/>
       <c r="J60" s="112"/>
       <c r="K60" s="112"/>
@@ -40003,15 +39994,15 @@
     </row>
     <row r="61" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="112"/>
-      <c r="B61" s="334" t="s">
+      <c r="B61" s="369" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="335"/>
-      <c r="D61" s="335"/>
-      <c r="E61" s="335"/>
-      <c r="F61" s="335"/>
-      <c r="G61" s="335"/>
-      <c r="H61" s="336"/>
+      <c r="C61" s="370"/>
+      <c r="D61" s="370"/>
+      <c r="E61" s="370"/>
+      <c r="F61" s="370"/>
+      <c r="G61" s="370"/>
+      <c r="H61" s="371"/>
       <c r="I61" s="112"/>
       <c r="J61" s="112"/>
       <c r="K61" s="112"/>
@@ -40039,15 +40030,15 @@
     </row>
     <row r="62" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="112"/>
-      <c r="B62" s="323" t="s">
+      <c r="B62" s="361" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="324"/>
-      <c r="D62" s="324"/>
-      <c r="E62" s="324"/>
-      <c r="F62" s="324"/>
-      <c r="G62" s="324"/>
-      <c r="H62" s="325"/>
+      <c r="C62" s="362"/>
+      <c r="D62" s="362"/>
+      <c r="E62" s="362"/>
+      <c r="F62" s="362"/>
+      <c r="G62" s="362"/>
+      <c r="H62" s="363"/>
       <c r="I62" s="112"/>
       <c r="J62" s="112"/>
       <c r="K62" s="112"/>
@@ -40075,15 +40066,15 @@
     </row>
     <row r="63" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="112"/>
-      <c r="B63" s="326" t="s">
+      <c r="B63" s="312" t="s">
         <v>1090</v>
       </c>
-      <c r="C63" s="222"/>
-      <c r="D63" s="222"/>
-      <c r="E63" s="327"/>
-      <c r="F63" s="327"/>
-      <c r="G63" s="327"/>
-      <c r="H63" s="328"/>
+      <c r="C63" s="231"/>
+      <c r="D63" s="231"/>
+      <c r="E63" s="313"/>
+      <c r="F63" s="313"/>
+      <c r="G63" s="313"/>
+      <c r="H63" s="314"/>
       <c r="I63" s="112"/>
       <c r="J63" s="112"/>
       <c r="K63" s="112"/>
@@ -40294,41 +40285,41 @@
       <c r="B69" s="178" t="s">
         <v>206</v>
       </c>
-      <c r="C69" s="314" t="s">
+      <c r="C69" s="354" t="s">
         <v>207</v>
       </c>
-      <c r="D69" s="315"/>
-      <c r="E69" s="314" t="s">
+      <c r="D69" s="355"/>
+      <c r="E69" s="354" t="s">
         <v>208</v>
       </c>
-      <c r="F69" s="315"/>
-      <c r="G69" s="316" t="s">
+      <c r="F69" s="355"/>
+      <c r="G69" s="346" t="s">
         <v>209</v>
       </c>
-      <c r="H69" s="317"/>
-      <c r="I69" s="314" t="s">
+      <c r="H69" s="351"/>
+      <c r="I69" s="354" t="s">
         <v>210</v>
       </c>
-      <c r="J69" s="315"/>
+      <c r="J69" s="355"/>
       <c r="K69" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="L69" s="312" t="s">
+      <c r="L69" s="383" t="s">
         <v>212</v>
       </c>
-      <c r="M69" s="313"/>
-      <c r="N69" s="316" t="s">
+      <c r="M69" s="384"/>
+      <c r="N69" s="346" t="s">
         <v>213</v>
       </c>
-      <c r="O69" s="317"/>
-      <c r="P69" s="314" t="s">
+      <c r="O69" s="351"/>
+      <c r="P69" s="354" t="s">
         <v>214</v>
       </c>
-      <c r="Q69" s="315"/>
-      <c r="R69" s="316" t="s">
+      <c r="Q69" s="355"/>
+      <c r="R69" s="346" t="s">
         <v>215</v>
       </c>
-      <c r="S69" s="349"/>
+      <c r="S69" s="347"/>
       <c r="T69" s="112"/>
       <c r="U69" s="112"/>
       <c r="V69" s="112"/>
@@ -40348,41 +40339,41 @@
       <c r="B70" s="123">
         <v>1</v>
       </c>
-      <c r="C70" s="310" t="s">
+      <c r="C70" s="379" t="s">
         <v>423</v>
       </c>
-      <c r="D70" s="310"/>
-      <c r="E70" s="311" t="s">
+      <c r="D70" s="379"/>
+      <c r="E70" s="359" t="s">
         <v>302</v>
       </c>
-      <c r="F70" s="311"/>
-      <c r="G70" s="310" t="s">
+      <c r="F70" s="359"/>
+      <c r="G70" s="379" t="s">
         <v>420</v>
       </c>
-      <c r="H70" s="310"/>
-      <c r="I70" s="311" t="s">
+      <c r="H70" s="379"/>
+      <c r="I70" s="359" t="s">
         <v>305</v>
       </c>
-      <c r="J70" s="311"/>
+      <c r="J70" s="359"/>
       <c r="K70" s="114">
         <v>20</v>
       </c>
-      <c r="L70" s="318" t="s">
+      <c r="L70" s="385" t="s">
         <v>1091</v>
       </c>
-      <c r="M70" s="318"/>
-      <c r="N70" s="321" t="s">
+      <c r="M70" s="385"/>
+      <c r="N70" s="376" t="s">
         <v>1092</v>
       </c>
-      <c r="O70" s="321"/>
-      <c r="P70" s="310" t="s">
+      <c r="O70" s="376"/>
+      <c r="P70" s="379" t="s">
         <v>136</v>
       </c>
-      <c r="Q70" s="310"/>
-      <c r="R70" s="311" t="s">
+      <c r="Q70" s="379"/>
+      <c r="R70" s="359" t="s">
         <v>7</v>
       </c>
-      <c r="S70" s="322"/>
+      <c r="S70" s="378"/>
       <c r="T70" s="112"/>
       <c r="U70" s="112"/>
       <c r="V70" s="112"/>
@@ -40400,45 +40391,45 @@
     <row r="71" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="112"/>
       <c r="B71" s="194"/>
-      <c r="C71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J71" s="308" t="s">
+      <c r="C71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J71" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K71" s="193"/>
-      <c r="L71" s="307"/>
-      <c r="M71" s="307"/>
-      <c r="N71" s="308"/>
-      <c r="O71" s="308"/>
-      <c r="P71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q71" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R71" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S71" s="309" t="s">
+      <c r="L71" s="375"/>
+      <c r="M71" s="375"/>
+      <c r="N71" s="360"/>
+      <c r="O71" s="360"/>
+      <c r="P71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q71" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R71" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S71" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T71" s="112"/>
@@ -40458,45 +40449,45 @@
     <row r="72" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="112"/>
       <c r="B72" s="194"/>
-      <c r="C72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J72" s="308" t="s">
+      <c r="C72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K72" s="193"/>
-      <c r="L72" s="307"/>
-      <c r="M72" s="307"/>
-      <c r="N72" s="308"/>
-      <c r="O72" s="308"/>
-      <c r="P72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q72" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R72" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S72" s="309" t="s">
+      <c r="L72" s="375"/>
+      <c r="M72" s="375"/>
+      <c r="N72" s="360"/>
+      <c r="O72" s="360"/>
+      <c r="P72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q72" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R72" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S72" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T72" s="112"/>
@@ -40516,45 +40507,45 @@
     <row r="73" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="112"/>
       <c r="B73" s="194"/>
-      <c r="C73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J73" s="308" t="s">
+      <c r="C73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J73" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K73" s="193"/>
-      <c r="L73" s="307"/>
-      <c r="M73" s="307"/>
-      <c r="N73" s="308"/>
-      <c r="O73" s="308"/>
-      <c r="P73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q73" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R73" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S73" s="309" t="s">
+      <c r="L73" s="375"/>
+      <c r="M73" s="375"/>
+      <c r="N73" s="360"/>
+      <c r="O73" s="360"/>
+      <c r="P73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q73" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R73" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S73" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T73" s="112"/>
@@ -40574,45 +40565,45 @@
     <row r="74" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="112"/>
       <c r="B74" s="194"/>
-      <c r="C74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J74" s="308" t="s">
+      <c r="C74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J74" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K74" s="193"/>
-      <c r="L74" s="307"/>
-      <c r="M74" s="307"/>
-      <c r="N74" s="308"/>
-      <c r="O74" s="308"/>
-      <c r="P74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q74" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R74" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S74" s="309" t="s">
+      <c r="L74" s="375"/>
+      <c r="M74" s="375"/>
+      <c r="N74" s="360"/>
+      <c r="O74" s="360"/>
+      <c r="P74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q74" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R74" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S74" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T74" s="112"/>
@@ -40632,45 +40623,45 @@
     <row r="75" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="112"/>
       <c r="B75" s="194"/>
-      <c r="C75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J75" s="308" t="s">
+      <c r="C75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J75" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K75" s="193"/>
-      <c r="L75" s="307"/>
-      <c r="M75" s="307"/>
-      <c r="N75" s="308"/>
-      <c r="O75" s="308"/>
-      <c r="P75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q75" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R75" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S75" s="309" t="s">
+      <c r="L75" s="375"/>
+      <c r="M75" s="375"/>
+      <c r="N75" s="360"/>
+      <c r="O75" s="360"/>
+      <c r="P75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q75" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R75" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S75" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T75" s="112"/>
@@ -40690,45 +40681,45 @@
     <row r="76" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="112"/>
       <c r="B76" s="194"/>
-      <c r="C76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J76" s="308" t="s">
+      <c r="C76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J76" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K76" s="193"/>
-      <c r="L76" s="307"/>
-      <c r="M76" s="307"/>
-      <c r="N76" s="308"/>
-      <c r="O76" s="308"/>
-      <c r="P76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q76" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R76" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S76" s="309" t="s">
+      <c r="L76" s="375"/>
+      <c r="M76" s="375"/>
+      <c r="N76" s="360"/>
+      <c r="O76" s="360"/>
+      <c r="P76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q76" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R76" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S76" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T76" s="112"/>
@@ -40748,45 +40739,45 @@
     <row r="77" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="112"/>
       <c r="B77" s="194"/>
-      <c r="C77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J77" s="308" t="s">
+      <c r="C77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J77" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K77" s="193"/>
-      <c r="L77" s="307"/>
-      <c r="M77" s="307"/>
-      <c r="N77" s="308"/>
-      <c r="O77" s="308"/>
-      <c r="P77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q77" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R77" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S77" s="309" t="s">
+      <c r="L77" s="375"/>
+      <c r="M77" s="375"/>
+      <c r="N77" s="360"/>
+      <c r="O77" s="360"/>
+      <c r="P77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q77" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R77" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S77" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T77" s="112"/>
@@ -40806,45 +40797,45 @@
     <row r="78" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="112"/>
       <c r="B78" s="194"/>
-      <c r="C78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J78" s="308" t="s">
+      <c r="C78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K78" s="193"/>
-      <c r="L78" s="307"/>
-      <c r="M78" s="307"/>
-      <c r="N78" s="308"/>
-      <c r="O78" s="308"/>
-      <c r="P78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q78" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R78" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S78" s="309" t="s">
+      <c r="L78" s="375"/>
+      <c r="M78" s="375"/>
+      <c r="N78" s="360"/>
+      <c r="O78" s="360"/>
+      <c r="P78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q78" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R78" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S78" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T78" s="112"/>
@@ -40864,45 +40855,45 @@
     <row r="79" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="112"/>
       <c r="B79" s="194"/>
-      <c r="C79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J79" s="308" t="s">
+      <c r="C79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J79" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K79" s="193"/>
-      <c r="L79" s="307"/>
-      <c r="M79" s="307"/>
-      <c r="N79" s="308"/>
-      <c r="O79" s="308"/>
-      <c r="P79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q79" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R79" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S79" s="309" t="s">
+      <c r="L79" s="375"/>
+      <c r="M79" s="375"/>
+      <c r="N79" s="360"/>
+      <c r="O79" s="360"/>
+      <c r="P79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q79" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R79" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S79" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T79" s="112"/>
@@ -40922,45 +40913,45 @@
     <row r="80" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="112"/>
       <c r="B80" s="194"/>
-      <c r="C80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J80" s="308" t="s">
+      <c r="C80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J80" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K80" s="193"/>
-      <c r="L80" s="307"/>
-      <c r="M80" s="307"/>
-      <c r="N80" s="308"/>
-      <c r="O80" s="308"/>
-      <c r="P80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q80" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R80" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S80" s="309" t="s">
+      <c r="L80" s="375"/>
+      <c r="M80" s="375"/>
+      <c r="N80" s="360"/>
+      <c r="O80" s="360"/>
+      <c r="P80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q80" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R80" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S80" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T80" s="112"/>
@@ -40980,45 +40971,45 @@
     <row r="81" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="112"/>
       <c r="B81" s="194"/>
-      <c r="C81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J81" s="308" t="s">
+      <c r="C81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J81" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K81" s="193"/>
-      <c r="L81" s="307"/>
-      <c r="M81" s="307"/>
-      <c r="N81" s="308"/>
-      <c r="O81" s="308"/>
-      <c r="P81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q81" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R81" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S81" s="309" t="s">
+      <c r="L81" s="375"/>
+      <c r="M81" s="375"/>
+      <c r="N81" s="360"/>
+      <c r="O81" s="360"/>
+      <c r="P81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q81" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R81" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S81" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T81" s="112"/>
@@ -41038,45 +41029,45 @@
     <row r="82" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="112"/>
       <c r="B82" s="194"/>
-      <c r="C82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J82" s="308" t="s">
+      <c r="C82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J82" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K82" s="193"/>
-      <c r="L82" s="307"/>
-      <c r="M82" s="307"/>
-      <c r="N82" s="308"/>
-      <c r="O82" s="308"/>
-      <c r="P82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q82" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R82" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S82" s="309" t="s">
+      <c r="L82" s="375"/>
+      <c r="M82" s="375"/>
+      <c r="N82" s="360"/>
+      <c r="O82" s="360"/>
+      <c r="P82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q82" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R82" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S82" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T82" s="112"/>
@@ -41096,45 +41087,45 @@
     <row r="83" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="112"/>
       <c r="B83" s="194"/>
-      <c r="C83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J83" s="308" t="s">
+      <c r="C83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J83" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K83" s="193"/>
-      <c r="L83" s="307"/>
-      <c r="M83" s="307"/>
-      <c r="N83" s="308"/>
-      <c r="O83" s="308"/>
-      <c r="P83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q83" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R83" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S83" s="309" t="s">
+      <c r="L83" s="375"/>
+      <c r="M83" s="375"/>
+      <c r="N83" s="360"/>
+      <c r="O83" s="360"/>
+      <c r="P83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q83" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R83" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S83" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T83" s="112"/>
@@ -41154,45 +41145,45 @@
     <row r="84" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="112"/>
       <c r="B84" s="194"/>
-      <c r="C84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J84" s="308" t="s">
+      <c r="C84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J84" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K84" s="193"/>
-      <c r="L84" s="307"/>
-      <c r="M84" s="307"/>
-      <c r="N84" s="308"/>
-      <c r="O84" s="308"/>
-      <c r="P84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q84" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R84" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S84" s="309" t="s">
+      <c r="L84" s="375"/>
+      <c r="M84" s="375"/>
+      <c r="N84" s="360"/>
+      <c r="O84" s="360"/>
+      <c r="P84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q84" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R84" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S84" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T84" s="112"/>
@@ -41212,45 +41203,45 @@
     <row r="85" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="112"/>
       <c r="B85" s="194"/>
-      <c r="C85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J85" s="308" t="s">
+      <c r="C85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J85" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K85" s="193"/>
-      <c r="L85" s="307"/>
-      <c r="M85" s="307"/>
-      <c r="N85" s="308"/>
-      <c r="O85" s="308"/>
-      <c r="P85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q85" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R85" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S85" s="309" t="s">
+      <c r="L85" s="375"/>
+      <c r="M85" s="375"/>
+      <c r="N85" s="360"/>
+      <c r="O85" s="360"/>
+      <c r="P85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q85" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R85" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S85" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T85" s="112"/>
@@ -41270,45 +41261,45 @@
     <row r="86" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="112"/>
       <c r="B86" s="194"/>
-      <c r="C86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="F86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="H86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="I86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="J86" s="308" t="s">
+      <c r="C86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="I86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="J86" s="360" t="s">
         <v>91</v>
       </c>
       <c r="K86" s="193"/>
-      <c r="L86" s="307"/>
-      <c r="M86" s="307"/>
-      <c r="N86" s="308"/>
-      <c r="O86" s="308"/>
-      <c r="P86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q86" s="307" t="s">
-        <v>91</v>
-      </c>
-      <c r="R86" s="308" t="s">
-        <v>91</v>
-      </c>
-      <c r="S86" s="309" t="s">
+      <c r="L86" s="375"/>
+      <c r="M86" s="375"/>
+      <c r="N86" s="360"/>
+      <c r="O86" s="360"/>
+      <c r="P86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q86" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="R86" s="360" t="s">
+        <v>91</v>
+      </c>
+      <c r="S86" s="377" t="s">
         <v>91</v>
       </c>
       <c r="T86" s="112"/>
@@ -41328,45 +41319,45 @@
     <row r="87" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="112"/>
       <c r="B87" s="195"/>
-      <c r="C87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="F87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="G87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="H87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="I87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="J87" s="319" t="s">
+      <c r="C87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="H87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="I87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="J87" s="380" t="s">
         <v>91</v>
       </c>
       <c r="K87" s="196"/>
-      <c r="L87" s="306"/>
-      <c r="M87" s="306"/>
-      <c r="N87" s="319"/>
-      <c r="O87" s="319"/>
-      <c r="P87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q87" s="306" t="s">
-        <v>91</v>
-      </c>
-      <c r="R87" s="319" t="s">
-        <v>91</v>
-      </c>
-      <c r="S87" s="320" t="s">
+      <c r="L87" s="382"/>
+      <c r="M87" s="382"/>
+      <c r="N87" s="380"/>
+      <c r="O87" s="380"/>
+      <c r="P87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q87" s="382" t="s">
+        <v>91</v>
+      </c>
+      <c r="R87" s="380" t="s">
+        <v>91</v>
+      </c>
+      <c r="S87" s="381" t="s">
         <v>91</v>
       </c>
       <c r="T87" s="112"/>
@@ -41489,6 +41480,177 @@
     </row>
   </sheetData>
   <mergeCells count="195">
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="D43:D44"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B30:H30"/>
     <mergeCell ref="B31:H31"/>
@@ -41513,177 +41675,6 @@
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="I86:J86"/>
   </mergeCells>
   <conditionalFormatting sqref="C44 E44:H44">
     <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
@@ -41775,12 +41766,12 @@
     <row r="1" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="215"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -41821,12 +41812,12 @@
     <row r="3" spans="1:41" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:41" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
       <c r="F4" s="112"/>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
@@ -41866,12 +41857,12 @@
     </row>
     <row r="5" spans="1:41" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="343" t="s">
+      <c r="B5" s="309" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="345"/>
+      <c r="C5" s="310"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="311"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
@@ -42265,23 +42256,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42556,23 +42536,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
-    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
-    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -42599,9 +42585,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
+    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
+    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Validation_Failures.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Validation_Failures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PearceJ\stash\funding-service-design-post-award-data-store\tests\integration_tests\mock_pf_returns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484FE3B3-D829-4ECD-8047-49AA142D50AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5424965B-D79C-4C37-844E-0905EB435357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="661" firstSheet="4" activeTab="10" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
@@ -6117,6 +6117,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6135,14 +6141,20 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6152,36 +6164,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6213,16 +6195,127 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6246,12 +6339,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6261,119 +6348,11 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6405,22 +6384,83 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6432,6 +6472,105 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6440,9 +6579,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6506,142 +6642,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -7642,10 +7642,10 @@
     <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="215"/>
+      <c r="C2" s="217"/>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -7897,8 +7897,8 @@
   </sheetPr>
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="C177" sqref="A1:C177"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8455,7 +8455,7 @@
         <v>331</v>
       </c>
       <c r="C72" s="125" t="s">
-        <v>366</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
@@ -8466,7 +8466,7 @@
         <v>331</v>
       </c>
       <c r="C73" s="125" t="s">
-        <v>366</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
@@ -8477,7 +8477,7 @@
         <v>331</v>
       </c>
       <c r="C74" s="125" t="s">
-        <v>366</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
@@ -8488,7 +8488,7 @@
         <v>331</v>
       </c>
       <c r="C75" s="125" t="s">
-        <v>366</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
@@ -8499,7 +8499,7 @@
         <v>331</v>
       </c>
       <c r="C76" s="125" t="s">
-        <v>366</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
@@ -8510,7 +8510,7 @@
         <v>331</v>
       </c>
       <c r="C77" s="125" t="s">
-        <v>366</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
@@ -16323,10 +16323,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="215"/>
+      <c r="C2" s="217"/>
     </row>
     <row r="3" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="205" t="s">
@@ -16336,16 +16336,16 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="211"/>
+      <c r="C4" s="213"/>
     </row>
     <row r="5" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="213" t="s">
+      <c r="C5" s="215" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="6"/>
@@ -16357,138 +16357,138 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="215"/>
+      <c r="C7" s="217"/>
       <c r="I7" s="112"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I8" s="112"/>
     </row>
     <row r="9" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="210" t="s">
+      <c r="B9" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="211"/>
+      <c r="C9" s="213"/>
     </row>
     <row r="10" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="213"/>
+      <c r="C10" s="215"/>
     </row>
     <row r="11" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="210" t="s">
+      <c r="B12" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="211"/>
+      <c r="C12" s="213"/>
     </row>
     <row r="13" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="216" t="s">
+      <c r="B13" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="217"/>
+      <c r="C13" s="211"/>
     </row>
     <row r="14" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="210" t="s">
+      <c r="B15" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="211"/>
+      <c r="C15" s="213"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="216" t="s">
+      <c r="B16" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="217"/>
+      <c r="C16" s="211"/>
     </row>
     <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="2:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="210" t="s">
+      <c r="B18" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="211"/>
+      <c r="C18" s="213"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="216" t="s">
+      <c r="B19" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="217"/>
+      <c r="C19" s="211"/>
     </row>
     <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" s="25"/>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="210" t="s">
+      <c r="B21" s="212" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="211"/>
+      <c r="C21" s="213"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="216" t="s">
+      <c r="B22" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="217"/>
+      <c r="C22" s="211"/>
     </row>
     <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="25"/>
       <c r="C23" s="19"/>
     </row>
     <row r="24" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="210" t="s">
+      <c r="B24" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="211"/>
+      <c r="C24" s="213"/>
     </row>
     <row r="25" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="216" t="s">
+      <c r="B25" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="217"/>
+      <c r="C25" s="211"/>
     </row>
     <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="25"/>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="210" t="s">
+      <c r="B27" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="211"/>
+      <c r="C27" s="213"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="216" t="s">
+      <c r="B28" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="217"/>
+      <c r="C28" s="211"/>
     </row>
     <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="25"/>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="210" t="s">
+      <c r="B30" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="211"/>
+      <c r="C30" s="213"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="216" t="s">
+      <c r="B31" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="217"/>
+      <c r="C31" s="211"/>
     </row>
     <row r="34" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16535,6 +16535,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
@@ -16545,16 +16555,6 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
@@ -17610,12 +17610,12 @@
   <sheetData>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="217"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -17630,32 +17630,32 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225"/>
     </row>
     <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="222" t="s">
+      <c r="B5" s="236" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="223"/>
-      <c r="D5" s="223"/>
-      <c r="E5" s="224"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="238"/>
     </row>
     <row r="6" spans="1:12" ht="364" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="225"/>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="227"/>
+      <c r="B6" s="218"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="220"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="218" t="s">
+      <c r="B7" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="218"/>
+      <c r="C7" s="221"/>
       <c r="E7" s="59" t="s">
         <v>79</v>
       </c>
@@ -17665,37 +17665,37 @@
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="236" t="s">
+      <c r="B9" s="230" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="237"/>
-      <c r="D9" s="237"/>
-      <c r="E9" s="238"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="232"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="233" t="s">
+      <c r="B10" s="227" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="234"/>
-      <c r="D10" s="235"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="229"/>
       <c r="E10" s="93" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="239" t="s">
+      <c r="B11" s="233" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
-      <c r="E11" s="241"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="235"/>
     </row>
     <row r="12" spans="1:12" ht="349" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="225" t="s">
+      <c r="B12" s="218" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="226"/>
-      <c r="D12" s="231"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="222"/>
       <c r="E12" s="146" t="s">
         <v>85</v>
       </c>
@@ -18127,34 +18127,34 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="219" t="s">
+      <c r="B53" s="223" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="220"/>
-      <c r="D53" s="220"/>
-      <c r="E53" s="221"/>
+      <c r="C53" s="224"/>
+      <c r="D53" s="224"/>
+      <c r="E53" s="225"/>
     </row>
     <row r="54" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="222" t="s">
+      <c r="B54" s="236" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="223"/>
-      <c r="D54" s="223"/>
-      <c r="E54" s="224"/>
+      <c r="C54" s="237"/>
+      <c r="D54" s="237"/>
+      <c r="E54" s="238"/>
     </row>
     <row r="55" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="225" t="s">
+      <c r="B55" s="218" t="s">
         <v>1077</v>
       </c>
-      <c r="C55" s="226"/>
-      <c r="D55" s="226"/>
-      <c r="E55" s="227"/>
+      <c r="C55" s="219"/>
+      <c r="D55" s="219"/>
+      <c r="E55" s="220"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="218" t="s">
+      <c r="B56" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="218"/>
+      <c r="C56" s="221"/>
       <c r="E56" s="59" t="s">
         <v>96</v>
       </c>
@@ -18166,34 +18166,34 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="219" t="s">
+      <c r="B59" s="223" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="220"/>
-      <c r="D59" s="220"/>
-      <c r="E59" s="221"/>
+      <c r="C59" s="224"/>
+      <c r="D59" s="224"/>
+      <c r="E59" s="225"/>
     </row>
     <row r="60" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="228" t="s">
+      <c r="B60" s="239" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="229"/>
-      <c r="D60" s="229"/>
-      <c r="E60" s="230"/>
+      <c r="C60" s="240"/>
+      <c r="D60" s="240"/>
+      <c r="E60" s="241"/>
     </row>
     <row r="61" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="225" t="s">
+      <c r="B61" s="218" t="s">
         <v>1078</v>
       </c>
-      <c r="C61" s="226"/>
-      <c r="D61" s="226"/>
-      <c r="E61" s="227"/>
+      <c r="C61" s="219"/>
+      <c r="D61" s="219"/>
+      <c r="E61" s="220"/>
     </row>
     <row r="62" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="218" t="s">
+      <c r="B62" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="218"/>
+      <c r="C62" s="221"/>
       <c r="E62" s="59" t="s">
         <v>100</v>
       </c>
@@ -18218,6 +18218,14 @@
     <row r="78" spans="2:4" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B12:D12"/>
@@ -18227,14 +18235,6 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:E50">
     <cfRule type="expression" dxfId="46" priority="1">
@@ -18615,14 +18615,14 @@
     </row>
     <row r="2" spans="1:60" s="12" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="217"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -18741,14 +18741,14 @@
     </row>
     <row r="4" spans="1:60" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="277" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="248"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="279"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -18805,14 +18805,14 @@
     </row>
     <row r="5" spans="1:60" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="280" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="250"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="252"/>
+      <c r="C5" s="281"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="283"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -18869,14 +18869,14 @@
     </row>
     <row r="6" spans="1:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="283" t="s">
+      <c r="B6" s="258" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
-      <c r="G6" s="286"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="261"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -18936,13 +18936,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="284" t="s">
+      <c r="C7" s="259" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="284"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="286"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
+      <c r="G7" s="261"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -19002,13 +19002,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="268" t="s">
+      <c r="C8" s="262" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="268"/>
-      <c r="E8" s="269"/>
-      <c r="F8" s="269"/>
-      <c r="G8" s="270"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="264"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -19068,13 +19068,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="268" t="s">
+      <c r="C9" s="262" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="268"/>
-      <c r="E9" s="269"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="270"/>
+      <c r="D9" s="262"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="264"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -19134,13 +19134,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="268" t="s">
+      <c r="C10" s="262" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="268"/>
-      <c r="E10" s="269"/>
-      <c r="F10" s="269"/>
-      <c r="G10" s="270"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="264"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -19200,13 +19200,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="268" t="s">
+      <c r="C11" s="262" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="268"/>
-      <c r="E11" s="269"/>
-      <c r="F11" s="269"/>
-      <c r="G11" s="270"/>
+      <c r="D11" s="262"/>
+      <c r="E11" s="263"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="264"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -19266,13 +19266,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="271" t="s">
+      <c r="C12" s="267" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="271"/>
-      <c r="E12" s="272"/>
-      <c r="F12" s="272"/>
-      <c r="G12" s="273"/>
+      <c r="D12" s="267"/>
+      <c r="E12" s="268"/>
+      <c r="F12" s="268"/>
+      <c r="G12" s="269"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -19476,60 +19476,60 @@
     </row>
     <row r="16" spans="1:60" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="253" t="s">
+      <c r="B16" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="274" t="s">
+      <c r="C16" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="255" t="s">
+      <c r="D16" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="279" t="s">
+      <c r="E16" s="273" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="280"/>
-      <c r="G16" s="277" t="s">
+      <c r="F16" s="274"/>
+      <c r="G16" s="271" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="277"/>
-      <c r="I16" s="277"/>
-      <c r="J16" s="277"/>
-      <c r="K16" s="278"/>
-      <c r="L16" s="265" t="s">
+      <c r="H16" s="271"/>
+      <c r="I16" s="271"/>
+      <c r="J16" s="271"/>
+      <c r="K16" s="272"/>
+      <c r="L16" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="266"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="267"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="257"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="258" t="s">
+      <c r="R16" s="244" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
       <c r="T16" s="52"/>
       <c r="U16" s="52"/>
       <c r="V16" s="52"/>
-      <c r="W16" s="244"/>
-      <c r="X16" s="244"/>
-      <c r="Y16" s="244"/>
-      <c r="Z16" s="244"/>
-      <c r="AA16" s="244"/>
-      <c r="AB16" s="244"/>
-      <c r="AC16" s="244"/>
-      <c r="AD16" s="244"/>
-      <c r="AE16" s="244"/>
-      <c r="AF16" s="244"/>
-      <c r="AG16" s="244"/>
-      <c r="AH16" s="244"/>
-      <c r="AI16" s="244"/>
-      <c r="AJ16" s="244"/>
-      <c r="AK16" s="244"/>
+      <c r="W16" s="265"/>
+      <c r="X16" s="265"/>
+      <c r="Y16" s="265"/>
+      <c r="Z16" s="265"/>
+      <c r="AA16" s="265"/>
+      <c r="AB16" s="265"/>
+      <c r="AC16" s="265"/>
+      <c r="AD16" s="265"/>
+      <c r="AE16" s="265"/>
+      <c r="AF16" s="265"/>
+      <c r="AG16" s="265"/>
+      <c r="AH16" s="265"/>
+      <c r="AI16" s="265"/>
+      <c r="AJ16" s="265"/>
+      <c r="AK16" s="265"/>
       <c r="AL16" s="52"/>
-      <c r="AM16" s="244"/>
+      <c r="AM16" s="265"/>
       <c r="AN16" s="112"/>
       <c r="AO16" s="112"/>
       <c r="AP16" s="112"/>
@@ -19554,13 +19554,13 @@
     </row>
     <row r="17" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="254"/>
-      <c r="C17" s="275"/>
-      <c r="D17" s="256"/>
+      <c r="B17" s="252"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="285"/>
       <c r="E17" s="185" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="281" t="s">
+      <c r="F17" s="275" t="s">
         <v>132</v>
       </c>
       <c r="G17" s="85" t="s">
@@ -19575,7 +19575,7 @@
       <c r="J17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K17" s="260" t="s">
+      <c r="K17" s="246" t="s">
         <v>132</v>
       </c>
       <c r="L17" s="84" t="s">
@@ -19590,13 +19590,13 @@
       <c r="O17" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P17" s="262" t="s">
+      <c r="P17" s="248" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="263" t="s">
+      <c r="Q17" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="259"/>
+      <c r="R17" s="245"/>
       <c r="S17" s="112"/>
       <c r="T17" s="54"/>
       <c r="U17" s="54"/>
@@ -19605,19 +19605,19 @@
       <c r="X17" s="52"/>
       <c r="Y17" s="52"/>
       <c r="Z17" s="52"/>
-      <c r="AA17" s="245"/>
+      <c r="AA17" s="266"/>
       <c r="AB17" s="52"/>
       <c r="AC17" s="52"/>
       <c r="AD17" s="52"/>
       <c r="AE17" s="52"/>
-      <c r="AF17" s="245"/>
+      <c r="AF17" s="266"/>
       <c r="AG17" s="52"/>
       <c r="AH17" s="52"/>
       <c r="AI17" s="52"/>
       <c r="AJ17" s="52"/>
-      <c r="AK17" s="245"/>
-      <c r="AL17" s="245"/>
-      <c r="AM17" s="244"/>
+      <c r="AK17" s="266"/>
+      <c r="AL17" s="266"/>
+      <c r="AM17" s="265"/>
       <c r="AN17" s="112"/>
       <c r="AO17" s="112"/>
       <c r="AP17" s="112"/>
@@ -19642,13 +19642,13 @@
     </row>
     <row r="18" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="254"/>
-      <c r="C18" s="276"/>
-      <c r="D18" s="257"/>
+      <c r="B18" s="252"/>
+      <c r="C18" s="270"/>
+      <c r="D18" s="286"/>
       <c r="E18" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="282"/>
+      <c r="F18" s="276"/>
       <c r="G18" s="179" t="s">
         <v>137</v>
       </c>
@@ -19661,7 +19661,7 @@
       <c r="J18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K18" s="261"/>
+      <c r="K18" s="247"/>
       <c r="L18" s="68" t="s">
         <v>137</v>
       </c>
@@ -19674,9 +19674,9 @@
       <c r="O18" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P18" s="261"/>
-      <c r="Q18" s="264"/>
-      <c r="R18" s="259"/>
+      <c r="P18" s="247"/>
+      <c r="Q18" s="250"/>
+      <c r="R18" s="245"/>
       <c r="S18" s="112"/>
       <c r="T18" s="53"/>
       <c r="U18" s="53"/>
@@ -19685,19 +19685,19 @@
       <c r="X18" s="55"/>
       <c r="Y18" s="55"/>
       <c r="Z18" s="55"/>
-      <c r="AA18" s="245"/>
+      <c r="AA18" s="266"/>
       <c r="AB18" s="55"/>
       <c r="AC18" s="55"/>
       <c r="AD18" s="55"/>
       <c r="AE18" s="55"/>
-      <c r="AF18" s="245"/>
+      <c r="AF18" s="266"/>
       <c r="AG18" s="55"/>
       <c r="AH18" s="55"/>
       <c r="AI18" s="55"/>
       <c r="AJ18" s="55"/>
-      <c r="AK18" s="245"/>
-      <c r="AL18" s="245"/>
-      <c r="AM18" s="244"/>
+      <c r="AK18" s="266"/>
+      <c r="AL18" s="266"/>
+      <c r="AM18" s="265"/>
       <c r="AN18" s="112"/>
       <c r="AO18" s="112"/>
       <c r="AP18" s="112"/>
@@ -21488,37 +21488,37 @@
     </row>
     <row r="42" spans="1:60" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="253" t="s">
+      <c r="B42" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="253" t="s">
+      <c r="C42" s="251" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="274" t="s">
+      <c r="D42" s="253" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="265" t="s">
+      <c r="E42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="265" t="s">
+      <c r="F42" s="256"/>
+      <c r="G42" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="266"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="266"/>
-      <c r="K42" s="267"/>
-      <c r="L42" s="265" t="s">
+      <c r="H42" s="256"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="257"/>
+      <c r="L42" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="266"/>
-      <c r="N42" s="266"/>
-      <c r="O42" s="266"/>
-      <c r="P42" s="267"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="256"/>
+      <c r="O42" s="256"/>
+      <c r="P42" s="257"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="258" t="s">
+      <c r="R42" s="244" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -21530,18 +21530,18 @@
       <c r="Y42" s="112"/>
       <c r="Z42" s="112"/>
       <c r="AA42" s="112"/>
-      <c r="AB42" s="244"/>
-      <c r="AC42" s="244"/>
-      <c r="AD42" s="244"/>
-      <c r="AE42" s="244"/>
-      <c r="AF42" s="244"/>
-      <c r="AG42" s="244"/>
-      <c r="AH42" s="244"/>
-      <c r="AI42" s="244"/>
-      <c r="AJ42" s="244"/>
-      <c r="AK42" s="244"/>
+      <c r="AB42" s="265"/>
+      <c r="AC42" s="265"/>
+      <c r="AD42" s="265"/>
+      <c r="AE42" s="265"/>
+      <c r="AF42" s="265"/>
+      <c r="AG42" s="265"/>
+      <c r="AH42" s="265"/>
+      <c r="AI42" s="265"/>
+      <c r="AJ42" s="265"/>
+      <c r="AK42" s="265"/>
       <c r="AL42" s="52"/>
-      <c r="AM42" s="244"/>
+      <c r="AM42" s="265"/>
       <c r="AN42" s="112"/>
       <c r="AO42" s="112"/>
       <c r="AP42" s="112"/>
@@ -21566,13 +21566,13 @@
     </row>
     <row r="43" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="254"/>
-      <c r="C43" s="254"/>
-      <c r="D43" s="275"/>
+      <c r="B43" s="252"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="254"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="260" t="s">
+      <c r="F43" s="246" t="s">
         <v>132</v>
       </c>
       <c r="G43" s="84" t="s">
@@ -21587,7 +21587,7 @@
       <c r="J43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K43" s="260" t="s">
+      <c r="K43" s="246" t="s">
         <v>132</v>
       </c>
       <c r="L43" s="84" t="s">
@@ -21602,13 +21602,13 @@
       <c r="O43" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="P43" s="262" t="s">
+      <c r="P43" s="248" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="263" t="s">
+      <c r="Q43" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="259"/>
+      <c r="R43" s="245"/>
       <c r="S43" s="112"/>
       <c r="T43" s="54"/>
       <c r="U43" s="54"/>
@@ -21617,19 +21617,19 @@
       <c r="X43" s="52"/>
       <c r="Y43" s="52"/>
       <c r="Z43" s="52"/>
-      <c r="AA43" s="245"/>
+      <c r="AA43" s="266"/>
       <c r="AB43" s="52"/>
       <c r="AC43" s="52"/>
       <c r="AD43" s="52"/>
       <c r="AE43" s="52"/>
-      <c r="AF43" s="245"/>
+      <c r="AF43" s="266"/>
       <c r="AG43" s="52"/>
       <c r="AH43" s="52"/>
       <c r="AI43" s="52"/>
       <c r="AJ43" s="52"/>
-      <c r="AK43" s="245"/>
-      <c r="AL43" s="245"/>
-      <c r="AM43" s="244"/>
+      <c r="AK43" s="266"/>
+      <c r="AL43" s="266"/>
+      <c r="AM43" s="265"/>
       <c r="AN43" s="112"/>
       <c r="AO43" s="112"/>
       <c r="AP43" s="112"/>
@@ -21654,13 +21654,13 @@
     </row>
     <row r="44" spans="1:60" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="254"/>
-      <c r="C44" s="254"/>
-      <c r="D44" s="254"/>
+      <c r="B44" s="252"/>
+      <c r="C44" s="252"/>
+      <c r="D44" s="252"/>
       <c r="E44" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="261"/>
+      <c r="F44" s="247"/>
       <c r="G44" s="67" t="s">
         <v>137</v>
       </c>
@@ -21673,7 +21673,7 @@
       <c r="J44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="261"/>
+      <c r="K44" s="247"/>
       <c r="L44" s="68" t="s">
         <v>137</v>
       </c>
@@ -21686,9 +21686,9 @@
       <c r="O44" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="261"/>
-      <c r="Q44" s="264"/>
-      <c r="R44" s="259"/>
+      <c r="P44" s="247"/>
+      <c r="Q44" s="250"/>
+      <c r="R44" s="245"/>
       <c r="S44" s="112"/>
       <c r="T44" s="53"/>
       <c r="U44" s="53"/>
@@ -21697,19 +21697,19 @@
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55"/>
-      <c r="AA44" s="245"/>
+      <c r="AA44" s="266"/>
       <c r="AB44" s="55"/>
       <c r="AC44" s="55"/>
       <c r="AD44" s="55"/>
       <c r="AE44" s="55"/>
-      <c r="AF44" s="245"/>
+      <c r="AF44" s="266"/>
       <c r="AG44" s="55"/>
       <c r="AH44" s="55"/>
       <c r="AI44" s="55"/>
       <c r="AJ44" s="55"/>
-      <c r="AK44" s="245"/>
-      <c r="AL44" s="245"/>
-      <c r="AM44" s="244"/>
+      <c r="AK44" s="266"/>
+      <c r="AL44" s="266"/>
+      <c r="AM44" s="265"/>
       <c r="AN44" s="112"/>
       <c r="AO44" s="112"/>
       <c r="AP44" s="112"/>
@@ -29344,37 +29344,6 @@
     <protectedRange sqref="L45:O45" name="Section_B_1_5"/>
   </protectedRanges>
   <mergeCells count="47">
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AK17:AK18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="AB42:AF42"/>
     <mergeCell ref="AG42:AK42"/>
@@ -29391,6 +29360,37 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AK17:AK18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E18 G18:J18">
@@ -29606,14 +29606,14 @@
     </row>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="217"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -29694,14 +29694,14 @@
     </row>
     <row r="4" spans="1:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="297" t="s">
+      <c r="B4" s="290" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="298"/>
-      <c r="D4" s="298"/>
-      <c r="E4" s="298"/>
-      <c r="F4" s="298"/>
-      <c r="G4" s="299"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="292"/>
       <c r="H4" s="112"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -29739,14 +29739,14 @@
     </row>
     <row r="5" spans="1:41" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="300" t="s">
+      <c r="B5" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="302"/>
+      <c r="C5" s="294"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="294"/>
+      <c r="F5" s="294"/>
+      <c r="G5" s="295"/>
       <c r="H5" s="112"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -29784,14 +29784,14 @@
     </row>
     <row r="6" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="303" t="s">
+      <c r="B6" s="296" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="304"/>
-      <c r="F6" s="304"/>
-      <c r="G6" s="305"/>
+      <c r="C6" s="297"/>
+      <c r="D6" s="297"/>
+      <c r="E6" s="297"/>
+      <c r="F6" s="297"/>
+      <c r="G6" s="298"/>
       <c r="H6" s="112"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -29832,13 +29832,13 @@
       <c r="B7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="285" t="s">
+      <c r="C7" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="305"/>
+      <c r="D7" s="297"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="298"/>
       <c r="H7" s="112"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -29879,13 +29879,13 @@
       <c r="B8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="269" t="s">
+      <c r="C8" s="263" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="292"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="292"/>
-      <c r="G8" s="293"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="300"/>
       <c r="H8" s="112"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -29926,13 +29926,13 @@
       <c r="B9" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="269" t="s">
+      <c r="C9" s="263" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="293"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="300"/>
       <c r="H9" s="112"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -29973,13 +29973,13 @@
       <c r="B10" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="269" t="s">
+      <c r="C10" s="263" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="293"/>
+      <c r="D10" s="299"/>
+      <c r="E10" s="299"/>
+      <c r="F10" s="299"/>
+      <c r="G10" s="300"/>
       <c r="H10" s="112"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -30020,13 +30020,13 @@
       <c r="B11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="269" t="s">
+      <c r="C11" s="263" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="292"/>
-      <c r="E11" s="292"/>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
+      <c r="D11" s="299"/>
+      <c r="E11" s="299"/>
+      <c r="F11" s="299"/>
+      <c r="G11" s="300"/>
       <c r="H11" s="112"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -30067,13 +30067,13 @@
       <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="272" t="s">
+      <c r="C12" s="268" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="294"/>
-      <c r="E12" s="294"/>
-      <c r="F12" s="294"/>
-      <c r="G12" s="295"/>
+      <c r="D12" s="301"/>
+      <c r="E12" s="301"/>
+      <c r="F12" s="301"/>
+      <c r="G12" s="302"/>
       <c r="H12" s="112"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -30220,37 +30220,37 @@
     </row>
     <row r="16" spans="1:41" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="253" t="s">
+      <c r="B16" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="253" t="s">
+      <c r="C16" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="274" t="s">
+      <c r="D16" s="253" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="265" t="s">
+      <c r="E16" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="266"/>
-      <c r="G16" s="265" t="s">
+      <c r="F16" s="256"/>
+      <c r="G16" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="266"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="266"/>
-      <c r="K16" s="267"/>
-      <c r="L16" s="265" t="s">
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="256"/>
+      <c r="K16" s="257"/>
+      <c r="L16" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="266"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="267"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="257"/>
       <c r="Q16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="258" t="s">
+      <c r="R16" s="244" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="112"/>
@@ -30279,9 +30279,9 @@
     </row>
     <row r="17" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="254"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="275"/>
+      <c r="B17" s="252"/>
+      <c r="C17" s="252"/>
+      <c r="D17" s="254"/>
       <c r="E17" s="84" t="s">
         <v>131</v>
       </c>
@@ -30318,10 +30318,10 @@
       <c r="P17" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="263" t="s">
+      <c r="Q17" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="259"/>
+      <c r="R17" s="245"/>
       <c r="S17" s="112"/>
       <c r="T17" s="112"/>
       <c r="U17" s="112"/>
@@ -30348,9 +30348,9 @@
     </row>
     <row r="18" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="296"/>
-      <c r="C18" s="296"/>
-      <c r="D18" s="254"/>
+      <c r="B18" s="289"/>
+      <c r="C18" s="289"/>
+      <c r="D18" s="252"/>
       <c r="E18" s="22" t="s">
         <v>136</v>
       </c>
@@ -30381,8 +30381,8 @@
         <v>137</v>
       </c>
       <c r="P18" s="288"/>
-      <c r="Q18" s="289"/>
-      <c r="R18" s="291"/>
+      <c r="Q18" s="303"/>
+      <c r="R18" s="305"/>
       <c r="S18" s="112"/>
       <c r="T18" s="112"/>
       <c r="U18" s="112"/>
@@ -31462,9 +31462,9 @@
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36" s="112"/>
-      <c r="Z36" s="290"/>
-      <c r="AA36" s="290"/>
-      <c r="AB36" s="290"/>
+      <c r="Z36" s="304"/>
+      <c r="AA36" s="304"/>
+      <c r="AB36" s="304"/>
       <c r="AC36" s="112"/>
       <c r="AD36" s="112"/>
       <c r="AE36" s="112"/>
@@ -31717,37 +31717,37 @@
     </row>
     <row r="42" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="253" t="s">
+      <c r="B42" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="253" t="s">
+      <c r="C42" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="274" t="s">
+      <c r="D42" s="253" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="265" t="s">
+      <c r="E42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="265" t="s">
+      <c r="F42" s="256"/>
+      <c r="G42" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="266"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="266"/>
-      <c r="K42" s="267"/>
-      <c r="L42" s="265" t="s">
+      <c r="H42" s="256"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="257"/>
+      <c r="L42" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="266"/>
-      <c r="N42" s="266"/>
-      <c r="O42" s="266"/>
-      <c r="P42" s="267"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="256"/>
+      <c r="O42" s="256"/>
+      <c r="P42" s="257"/>
       <c r="Q42" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="R42" s="258" t="s">
+      <c r="R42" s="244" t="s">
         <v>130</v>
       </c>
       <c r="S42" s="112"/>
@@ -31776,9 +31776,9 @@
     </row>
     <row r="43" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="254"/>
-      <c r="C43" s="254"/>
-      <c r="D43" s="275"/>
+      <c r="B43" s="252"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="254"/>
       <c r="E43" s="84" t="s">
         <v>131</v>
       </c>
@@ -31815,10 +31815,10 @@
       <c r="P43" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="263" t="s">
+      <c r="Q43" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="259"/>
+      <c r="R43" s="245"/>
       <c r="S43" s="112"/>
       <c r="T43" s="112"/>
       <c r="U43" s="112"/>
@@ -31845,9 +31845,9 @@
     </row>
     <row r="44" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="254"/>
-      <c r="C44" s="254"/>
-      <c r="D44" s="254"/>
+      <c r="B44" s="252"/>
+      <c r="C44" s="252"/>
+      <c r="D44" s="252"/>
       <c r="E44" s="22" t="s">
         <v>136</v>
       </c>
@@ -31864,7 +31864,7 @@
       <c r="J44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="261"/>
+      <c r="K44" s="247"/>
       <c r="L44" s="141" t="s">
         <v>137</v>
       </c>
@@ -31877,9 +31877,9 @@
       <c r="O44" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="261"/>
-      <c r="Q44" s="264"/>
-      <c r="R44" s="259"/>
+      <c r="P44" s="247"/>
+      <c r="Q44" s="250"/>
+      <c r="R44" s="245"/>
       <c r="S44" s="112"/>
       <c r="T44" s="112"/>
       <c r="U44" s="112"/>
@@ -37447,11 +37447,25 @@
     <protectedRange sqref="Q19" name="Section_B_1_3"/>
   </protectedRanges>
   <mergeCells count="33">
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:D18"/>
@@ -37461,25 +37475,11 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
   </mergeCells>
   <conditionalFormatting sqref="E18">
     <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
@@ -37597,15 +37597,15 @@
   <sheetData>
     <row r="2" spans="1:32" s="97" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="112"/>
-      <c r="B2" s="306" t="s">
+      <c r="B2" s="359" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="308"/>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="360"/>
+      <c r="F2" s="360"/>
+      <c r="G2" s="360"/>
+      <c r="H2" s="361"/>
       <c r="I2" s="18"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -37633,15 +37633,15 @@
     </row>
     <row r="4" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="225"/>
       <c r="I4" s="112"/>
       <c r="J4" s="112"/>
       <c r="K4" s="112"/>
@@ -37669,15 +37669,15 @@
     </row>
     <row r="5" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="329" t="s">
+      <c r="B5" s="375" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="330"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="331"/>
+      <c r="C5" s="376"/>
+      <c r="D5" s="376"/>
+      <c r="E5" s="376"/>
+      <c r="F5" s="376"/>
+      <c r="G5" s="376"/>
+      <c r="H5" s="377"/>
       <c r="I5" s="112"/>
       <c r="J5" s="112"/>
       <c r="K5" s="112"/>
@@ -37740,18 +37740,18 @@
       <c r="AF6" s="112"/>
     </row>
     <row r="7" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="322" t="s">
+      <c r="A7" s="368" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="332" t="s">
+      <c r="B7" s="378" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="333"/>
-      <c r="D7" s="333"/>
-      <c r="E7" s="333"/>
-      <c r="F7" s="333"/>
-      <c r="G7" s="333"/>
-      <c r="H7" s="334"/>
+      <c r="C7" s="379"/>
+      <c r="D7" s="379"/>
+      <c r="E7" s="379"/>
+      <c r="F7" s="379"/>
+      <c r="G7" s="379"/>
+      <c r="H7" s="380"/>
       <c r="I7" s="112"/>
       <c r="J7" s="112"/>
       <c r="K7" s="112"/>
@@ -37778,16 +37778,16 @@
       <c r="AF7" s="112"/>
     </row>
     <row r="8" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="322"/>
-      <c r="B8" s="323" t="s">
+      <c r="A8" s="368"/>
+      <c r="B8" s="369" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="324"/>
-      <c r="D8" s="324"/>
-      <c r="E8" s="324"/>
-      <c r="F8" s="324"/>
-      <c r="G8" s="324"/>
-      <c r="H8" s="325"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
+      <c r="G8" s="370"/>
+      <c r="H8" s="371"/>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
@@ -37814,16 +37814,16 @@
       <c r="AF8" s="112"/>
     </row>
     <row r="9" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="322"/>
-      <c r="B9" s="335" t="s">
+      <c r="A9" s="368"/>
+      <c r="B9" s="381" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="336"/>
-      <c r="D9" s="336"/>
-      <c r="E9" s="336"/>
-      <c r="F9" s="336"/>
-      <c r="G9" s="336"/>
-      <c r="H9" s="337"/>
+      <c r="C9" s="382"/>
+      <c r="D9" s="382"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="382"/>
+      <c r="G9" s="382"/>
+      <c r="H9" s="383"/>
       <c r="I9" s="112"/>
       <c r="J9" s="112"/>
       <c r="K9" s="112"/>
@@ -37850,7 +37850,7 @@
       <c r="AF9" s="112"/>
     </row>
     <row r="10" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="322"/>
+      <c r="A10" s="368"/>
       <c r="B10" s="112"/>
       <c r="C10" s="112"/>
       <c r="D10" s="112"/>
@@ -37884,7 +37884,7 @@
       <c r="AF10" s="112"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="322"/>
+      <c r="A11" s="368"/>
       <c r="B11" s="169" t="s">
         <v>260</v>
       </c>
@@ -37992,18 +37992,18 @@
       <c r="AF13" s="112"/>
     </row>
     <row r="14" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="338" t="s">
+      <c r="A14" s="384" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="319" t="s">
+      <c r="B14" s="365" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="320"/>
-      <c r="D14" s="320"/>
-      <c r="E14" s="320"/>
-      <c r="F14" s="320"/>
-      <c r="G14" s="320"/>
-      <c r="H14" s="321"/>
+      <c r="C14" s="366"/>
+      <c r="D14" s="366"/>
+      <c r="E14" s="366"/>
+      <c r="F14" s="366"/>
+      <c r="G14" s="366"/>
+      <c r="H14" s="367"/>
       <c r="I14" s="112"/>
       <c r="J14" s="112"/>
       <c r="K14" s="112"/>
@@ -38030,16 +38030,16 @@
       <c r="AF14" s="112"/>
     </row>
     <row r="15" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="338"/>
-      <c r="B15" s="326" t="s">
+      <c r="A15" s="384"/>
+      <c r="B15" s="372" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="327"/>
-      <c r="D15" s="327"/>
-      <c r="E15" s="327"/>
-      <c r="F15" s="327"/>
-      <c r="G15" s="327"/>
-      <c r="H15" s="328"/>
+      <c r="C15" s="373"/>
+      <c r="D15" s="373"/>
+      <c r="E15" s="373"/>
+      <c r="F15" s="373"/>
+      <c r="G15" s="373"/>
+      <c r="H15" s="374"/>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
       <c r="K15" s="112"/>
@@ -38066,7 +38066,7 @@
       <c r="AF15" s="112"/>
     </row>
     <row r="16" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="338"/>
+      <c r="A16" s="384"/>
       <c r="B16" s="340" t="s">
         <v>162</v>
       </c>
@@ -38102,7 +38102,7 @@
       <c r="AF16" s="112"/>
     </row>
     <row r="17" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="338"/>
+      <c r="A17" s="384"/>
       <c r="B17" s="171" t="s">
         <v>163</v>
       </c>
@@ -38138,7 +38138,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="338"/>
+      <c r="A18" s="384"/>
       <c r="B18" s="128">
         <v>120</v>
       </c>
@@ -38246,18 +38246,18 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32" s="97" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="338" t="s">
+      <c r="A21" s="384" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="319" t="s">
+      <c r="B21" s="365" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="320"/>
-      <c r="D21" s="320"/>
-      <c r="E21" s="320"/>
-      <c r="F21" s="320"/>
-      <c r="G21" s="320"/>
-      <c r="H21" s="321"/>
+      <c r="C21" s="366"/>
+      <c r="D21" s="366"/>
+      <c r="E21" s="366"/>
+      <c r="F21" s="366"/>
+      <c r="G21" s="366"/>
+      <c r="H21" s="367"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -38284,16 +38284,16 @@
       <c r="AF21" s="3"/>
     </row>
     <row r="22" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="338"/>
-      <c r="B22" s="326" t="s">
+      <c r="A22" s="384"/>
+      <c r="B22" s="372" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="327"/>
-      <c r="D22" s="327"/>
-      <c r="E22" s="327"/>
-      <c r="F22" s="327"/>
-      <c r="G22" s="327"/>
-      <c r="H22" s="328"/>
+      <c r="C22" s="373"/>
+      <c r="D22" s="373"/>
+      <c r="E22" s="373"/>
+      <c r="F22" s="373"/>
+      <c r="G22" s="373"/>
+      <c r="H22" s="374"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -38320,16 +38320,16 @@
       <c r="AF22" s="3"/>
     </row>
     <row r="23" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="338"/>
-      <c r="B23" s="309" t="s">
+      <c r="A23" s="384"/>
+      <c r="B23" s="343" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="310"/>
-      <c r="D23" s="310"/>
-      <c r="E23" s="310"/>
-      <c r="F23" s="310"/>
-      <c r="G23" s="310"/>
-      <c r="H23" s="311"/>
+      <c r="C23" s="344"/>
+      <c r="D23" s="344"/>
+      <c r="E23" s="344"/>
+      <c r="F23" s="344"/>
+      <c r="G23" s="344"/>
+      <c r="H23" s="345"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -38356,7 +38356,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="338"/>
+      <c r="A24" s="384"/>
       <c r="B24" s="171" t="s">
         <v>163</v>
       </c>
@@ -38392,7 +38392,7 @@
       <c r="AF24" s="3"/>
     </row>
     <row r="25" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="338"/>
+      <c r="A25" s="384"/>
       <c r="B25" s="128">
         <v>119</v>
       </c>
@@ -38500,18 +38500,18 @@
       <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" s="97" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="339" t="s">
+      <c r="A28" s="385" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="319" t="s">
+      <c r="B28" s="365" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="320"/>
-      <c r="D28" s="320"/>
-      <c r="E28" s="320"/>
-      <c r="F28" s="320"/>
-      <c r="G28" s="320"/>
-      <c r="H28" s="321"/>
+      <c r="C28" s="366"/>
+      <c r="D28" s="366"/>
+      <c r="E28" s="366"/>
+      <c r="F28" s="366"/>
+      <c r="G28" s="366"/>
+      <c r="H28" s="367"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -38538,16 +38538,16 @@
       <c r="AF28" s="3"/>
     </row>
     <row r="29" spans="1:32" s="97" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="339"/>
-      <c r="B29" s="326" t="s">
+      <c r="A29" s="385"/>
+      <c r="B29" s="372" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="327"/>
-      <c r="D29" s="327"/>
-      <c r="E29" s="327"/>
-      <c r="F29" s="327"/>
-      <c r="G29" s="327"/>
-      <c r="H29" s="328"/>
+      <c r="C29" s="373"/>
+      <c r="D29" s="373"/>
+      <c r="E29" s="373"/>
+      <c r="F29" s="373"/>
+      <c r="G29" s="373"/>
+      <c r="H29" s="374"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -38574,16 +38574,16 @@
       <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="339"/>
-      <c r="B30" s="309" t="s">
+      <c r="A30" s="385"/>
+      <c r="B30" s="343" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="310"/>
-      <c r="D30" s="310"/>
-      <c r="E30" s="310"/>
-      <c r="F30" s="310"/>
-      <c r="G30" s="310"/>
-      <c r="H30" s="311"/>
+      <c r="C30" s="344"/>
+      <c r="D30" s="344"/>
+      <c r="E30" s="344"/>
+      <c r="F30" s="344"/>
+      <c r="G30" s="344"/>
+      <c r="H30" s="345"/>
       <c r="I30" s="112"/>
       <c r="J30" s="112"/>
       <c r="K30" s="112"/>
@@ -38610,16 +38610,16 @@
       <c r="AF30" s="112"/>
     </row>
     <row r="31" spans="1:32" ht="239.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="339"/>
-      <c r="B31" s="312" t="s">
+      <c r="A31" s="385"/>
+      <c r="B31" s="326" t="s">
         <v>1088</v>
       </c>
-      <c r="C31" s="231"/>
-      <c r="D31" s="231"/>
-      <c r="E31" s="313"/>
-      <c r="F31" s="313"/>
-      <c r="G31" s="313"/>
-      <c r="H31" s="314"/>
+      <c r="C31" s="222"/>
+      <c r="D31" s="222"/>
+      <c r="E31" s="327"/>
+      <c r="F31" s="327"/>
+      <c r="G31" s="327"/>
+      <c r="H31" s="328"/>
       <c r="I31" s="112"/>
       <c r="J31" s="112"/>
       <c r="K31" s="112"/>
@@ -38646,13 +38646,13 @@
       <c r="AF31" s="112"/>
     </row>
     <row r="32" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="339"/>
-      <c r="B32" s="218" t="s">
+      <c r="A32" s="385"/>
+      <c r="B32" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
+      <c r="C32" s="221"/>
+      <c r="D32" s="221"/>
+      <c r="E32" s="221"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="59" t="s">
@@ -38720,18 +38720,18 @@
       <c r="AF33" s="112"/>
     </row>
     <row r="34" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="322" t="s">
+      <c r="A34" s="368" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="319" t="s">
+      <c r="B34" s="365" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="320"/>
-      <c r="D34" s="320"/>
-      <c r="E34" s="320"/>
-      <c r="F34" s="320"/>
-      <c r="G34" s="320"/>
-      <c r="H34" s="321"/>
+      <c r="C34" s="366"/>
+      <c r="D34" s="366"/>
+      <c r="E34" s="366"/>
+      <c r="F34" s="366"/>
+      <c r="G34" s="366"/>
+      <c r="H34" s="367"/>
       <c r="I34" s="112"/>
       <c r="J34" s="112"/>
       <c r="K34" s="112"/>
@@ -38758,16 +38758,16 @@
       <c r="AF34" s="112"/>
     </row>
     <row r="35" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="322"/>
-      <c r="B35" s="326" t="s">
+      <c r="A35" s="368"/>
+      <c r="B35" s="372" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="327"/>
-      <c r="D35" s="327"/>
-      <c r="E35" s="327"/>
-      <c r="F35" s="327"/>
-      <c r="G35" s="327"/>
-      <c r="H35" s="328"/>
+      <c r="C35" s="373"/>
+      <c r="D35" s="373"/>
+      <c r="E35" s="373"/>
+      <c r="F35" s="373"/>
+      <c r="G35" s="373"/>
+      <c r="H35" s="374"/>
       <c r="I35" s="112"/>
       <c r="J35" s="112"/>
       <c r="K35" s="112"/>
@@ -38794,16 +38794,16 @@
       <c r="AF35" s="112"/>
     </row>
     <row r="36" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="322"/>
+      <c r="A36" s="368"/>
       <c r="B36" s="356" t="s">
         <v>179</v>
       </c>
       <c r="C36" s="357"/>
       <c r="D36" s="357"/>
-      <c r="E36" s="310"/>
-      <c r="F36" s="310"/>
-      <c r="G36" s="310"/>
-      <c r="H36" s="311"/>
+      <c r="E36" s="344"/>
+      <c r="F36" s="344"/>
+      <c r="G36" s="344"/>
+      <c r="H36" s="345"/>
       <c r="I36" s="112"/>
       <c r="J36" s="112"/>
       <c r="K36" s="112"/>
@@ -38830,7 +38830,7 @@
       <c r="AF36" s="112"/>
     </row>
     <row r="37" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="322"/>
+      <c r="A37" s="368"/>
       <c r="B37" s="171" t="s">
         <v>163</v>
       </c>
@@ -38866,7 +38866,7 @@
       <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="322"/>
+      <c r="A38" s="368"/>
       <c r="B38" s="128">
         <v>120</v>
       </c>
@@ -38939,22 +38939,22 @@
     </row>
     <row r="40" spans="1:32" s="107" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A40" s="105"/>
-      <c r="B40" s="343" t="s">
+      <c r="B40" s="346" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="344"/>
-      <c r="D40" s="344"/>
-      <c r="E40" s="344"/>
-      <c r="F40" s="344"/>
-      <c r="G40" s="344"/>
-      <c r="H40" s="344"/>
-      <c r="I40" s="344"/>
-      <c r="J40" s="344"/>
-      <c r="K40" s="344"/>
-      <c r="L40" s="344"/>
-      <c r="M40" s="344"/>
-      <c r="N40" s="344"/>
-      <c r="O40" s="345"/>
+      <c r="C40" s="347"/>
+      <c r="D40" s="347"/>
+      <c r="E40" s="347"/>
+      <c r="F40" s="347"/>
+      <c r="G40" s="347"/>
+      <c r="H40" s="347"/>
+      <c r="I40" s="347"/>
+      <c r="J40" s="347"/>
+      <c r="K40" s="347"/>
+      <c r="L40" s="347"/>
+      <c r="M40" s="347"/>
+      <c r="N40" s="347"/>
+      <c r="O40" s="348"/>
       <c r="P40" s="112"/>
       <c r="Q40" s="105"/>
       <c r="R40" s="105"/>
@@ -39011,28 +39011,28 @@
     </row>
     <row r="42" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="364" t="s">
+      <c r="B42" s="329" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="265" t="s">
+      <c r="C42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="266"/>
-      <c r="E42" s="265" t="s">
+      <c r="D42" s="256"/>
+      <c r="E42" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="266"/>
-      <c r="H42" s="266"/>
+      <c r="F42" s="256"/>
+      <c r="G42" s="256"/>
+      <c r="H42" s="256"/>
       <c r="I42" s="358"/>
-      <c r="J42" s="266" t="s">
+      <c r="J42" s="256" t="s">
         <v>128</v>
       </c>
-      <c r="K42" s="266"/>
-      <c r="L42" s="266"/>
-      <c r="M42" s="266"/>
-      <c r="N42" s="267"/>
-      <c r="O42" s="352" t="s">
+      <c r="K42" s="256"/>
+      <c r="L42" s="256"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="257"/>
+      <c r="O42" s="353" t="s">
         <v>130</v>
       </c>
       <c r="P42" s="112"/>
@@ -39055,11 +39055,11 @@
     </row>
     <row r="43" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="365"/>
+      <c r="B43" s="330"/>
       <c r="C43" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="318" t="s">
+      <c r="D43" s="355" t="s">
         <v>132</v>
       </c>
       <c r="E43" s="173" t="s">
@@ -39074,7 +39074,7 @@
       <c r="H43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="I43" s="318" t="s">
+      <c r="I43" s="355" t="s">
         <v>132</v>
       </c>
       <c r="J43" s="173" t="s">
@@ -39089,10 +39089,10 @@
       <c r="M43" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="N43" s="318" t="s">
+      <c r="N43" s="355" t="s">
         <v>132</v>
       </c>
-      <c r="O43" s="353"/>
+      <c r="O43" s="354"/>
       <c r="P43" s="112"/>
       <c r="Q43" s="112"/>
       <c r="R43" s="112"/>
@@ -39113,11 +39113,11 @@
     </row>
     <row r="44" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="112"/>
-      <c r="B44" s="365"/>
+      <c r="B44" s="330"/>
       <c r="C44" s="175" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="281"/>
+      <c r="D44" s="275"/>
       <c r="E44" s="176" t="s">
         <v>137</v>
       </c>
@@ -39130,7 +39130,7 @@
       <c r="H44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="I44" s="281"/>
+      <c r="I44" s="275"/>
       <c r="J44" s="175" t="s">
         <v>137</v>
       </c>
@@ -39143,8 +39143,8 @@
       <c r="M44" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="N44" s="281"/>
-      <c r="O44" s="353"/>
+      <c r="N44" s="275"/>
+      <c r="O44" s="354"/>
       <c r="P44" s="112"/>
       <c r="Q44" s="112"/>
       <c r="R44" s="112"/>
@@ -39740,15 +39740,15 @@
     </row>
     <row r="54" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A54" s="112"/>
-      <c r="B54" s="372" t="s">
+      <c r="B54" s="337" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="373"/>
-      <c r="D54" s="373"/>
-      <c r="E54" s="373"/>
-      <c r="F54" s="373"/>
-      <c r="G54" s="373"/>
-      <c r="H54" s="374"/>
+      <c r="C54" s="338"/>
+      <c r="D54" s="338"/>
+      <c r="E54" s="338"/>
+      <c r="F54" s="338"/>
+      <c r="G54" s="338"/>
+      <c r="H54" s="339"/>
       <c r="I54" s="112"/>
       <c r="J54" s="112"/>
       <c r="K54" s="112"/>
@@ -39776,15 +39776,15 @@
     </row>
     <row r="55" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="112"/>
-      <c r="B55" s="366" t="s">
+      <c r="B55" s="331" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="367"/>
-      <c r="D55" s="367"/>
-      <c r="E55" s="367"/>
-      <c r="F55" s="367"/>
-      <c r="G55" s="367"/>
-      <c r="H55" s="368"/>
+      <c r="C55" s="332"/>
+      <c r="D55" s="332"/>
+      <c r="E55" s="332"/>
+      <c r="F55" s="332"/>
+      <c r="G55" s="332"/>
+      <c r="H55" s="333"/>
       <c r="I55" s="112"/>
       <c r="J55" s="112"/>
       <c r="K55" s="112"/>
@@ -39812,15 +39812,15 @@
     </row>
     <row r="56" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="112"/>
-      <c r="B56" s="348" t="s">
+      <c r="B56" s="350" t="s">
         <v>195</v>
       </c>
-      <c r="C56" s="349"/>
-      <c r="D56" s="349"/>
-      <c r="E56" s="349"/>
-      <c r="F56" s="349"/>
-      <c r="G56" s="349"/>
-      <c r="H56" s="350"/>
+      <c r="C56" s="351"/>
+      <c r="D56" s="351"/>
+      <c r="E56" s="351"/>
+      <c r="F56" s="351"/>
+      <c r="G56" s="351"/>
+      <c r="H56" s="352"/>
       <c r="I56" s="112"/>
       <c r="J56" s="112"/>
       <c r="K56" s="112"/>
@@ -39848,15 +39848,15 @@
     </row>
     <row r="57" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="112"/>
-      <c r="B57" s="312" t="s">
+      <c r="B57" s="326" t="s">
         <v>1089</v>
       </c>
-      <c r="C57" s="231"/>
-      <c r="D57" s="231"/>
-      <c r="E57" s="313"/>
-      <c r="F57" s="313"/>
-      <c r="G57" s="313"/>
-      <c r="H57" s="314"/>
+      <c r="C57" s="222"/>
+      <c r="D57" s="222"/>
+      <c r="E57" s="327"/>
+      <c r="F57" s="327"/>
+      <c r="G57" s="327"/>
+      <c r="H57" s="328"/>
       <c r="I57" s="112"/>
       <c r="J57" s="112"/>
       <c r="K57" s="112"/>
@@ -39884,12 +39884,12 @@
     </row>
     <row r="58" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="112"/>
-      <c r="B58" s="218" t="s">
+      <c r="B58" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="218"/>
-      <c r="D58" s="218"/>
-      <c r="E58" s="218"/>
+      <c r="C58" s="221"/>
+      <c r="D58" s="221"/>
+      <c r="E58" s="221"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="59" t="s">
@@ -39958,15 +39958,15 @@
     </row>
     <row r="60" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="112"/>
-      <c r="B60" s="315" t="s">
+      <c r="B60" s="362" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="316"/>
-      <c r="D60" s="316"/>
-      <c r="E60" s="316"/>
-      <c r="F60" s="316"/>
-      <c r="G60" s="316"/>
-      <c r="H60" s="317"/>
+      <c r="C60" s="363"/>
+      <c r="D60" s="363"/>
+      <c r="E60" s="363"/>
+      <c r="F60" s="363"/>
+      <c r="G60" s="363"/>
+      <c r="H60" s="364"/>
       <c r="I60" s="112"/>
       <c r="J60" s="112"/>
       <c r="K60" s="112"/>
@@ -39994,15 +39994,15 @@
     </row>
     <row r="61" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="112"/>
-      <c r="B61" s="369" t="s">
+      <c r="B61" s="334" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="370"/>
-      <c r="D61" s="370"/>
-      <c r="E61" s="370"/>
-      <c r="F61" s="370"/>
-      <c r="G61" s="370"/>
-      <c r="H61" s="371"/>
+      <c r="C61" s="335"/>
+      <c r="D61" s="335"/>
+      <c r="E61" s="335"/>
+      <c r="F61" s="335"/>
+      <c r="G61" s="335"/>
+      <c r="H61" s="336"/>
       <c r="I61" s="112"/>
       <c r="J61" s="112"/>
       <c r="K61" s="112"/>
@@ -40030,15 +40030,15 @@
     </row>
     <row r="62" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="112"/>
-      <c r="B62" s="361" t="s">
+      <c r="B62" s="323" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="362"/>
-      <c r="D62" s="362"/>
-      <c r="E62" s="362"/>
-      <c r="F62" s="362"/>
-      <c r="G62" s="362"/>
-      <c r="H62" s="363"/>
+      <c r="C62" s="324"/>
+      <c r="D62" s="324"/>
+      <c r="E62" s="324"/>
+      <c r="F62" s="324"/>
+      <c r="G62" s="324"/>
+      <c r="H62" s="325"/>
       <c r="I62" s="112"/>
       <c r="J62" s="112"/>
       <c r="K62" s="112"/>
@@ -40066,15 +40066,15 @@
     </row>
     <row r="63" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="112"/>
-      <c r="B63" s="312" t="s">
+      <c r="B63" s="326" t="s">
         <v>1090</v>
       </c>
-      <c r="C63" s="231"/>
-      <c r="D63" s="231"/>
-      <c r="E63" s="313"/>
-      <c r="F63" s="313"/>
-      <c r="G63" s="313"/>
-      <c r="H63" s="314"/>
+      <c r="C63" s="222"/>
+      <c r="D63" s="222"/>
+      <c r="E63" s="327"/>
+      <c r="F63" s="327"/>
+      <c r="G63" s="327"/>
+      <c r="H63" s="328"/>
       <c r="I63" s="112"/>
       <c r="J63" s="112"/>
       <c r="K63" s="112"/>
@@ -40285,41 +40285,41 @@
       <c r="B69" s="178" t="s">
         <v>206</v>
       </c>
-      <c r="C69" s="354" t="s">
+      <c r="C69" s="314" t="s">
         <v>207</v>
       </c>
-      <c r="D69" s="355"/>
-      <c r="E69" s="354" t="s">
+      <c r="D69" s="315"/>
+      <c r="E69" s="314" t="s">
         <v>208</v>
       </c>
-      <c r="F69" s="355"/>
-      <c r="G69" s="346" t="s">
+      <c r="F69" s="315"/>
+      <c r="G69" s="316" t="s">
         <v>209</v>
       </c>
-      <c r="H69" s="351"/>
-      <c r="I69" s="354" t="s">
+      <c r="H69" s="317"/>
+      <c r="I69" s="314" t="s">
         <v>210</v>
       </c>
-      <c r="J69" s="355"/>
+      <c r="J69" s="315"/>
       <c r="K69" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="L69" s="383" t="s">
+      <c r="L69" s="312" t="s">
         <v>212</v>
       </c>
-      <c r="M69" s="384"/>
-      <c r="N69" s="346" t="s">
+      <c r="M69" s="313"/>
+      <c r="N69" s="316" t="s">
         <v>213</v>
       </c>
-      <c r="O69" s="351"/>
-      <c r="P69" s="354" t="s">
+      <c r="O69" s="317"/>
+      <c r="P69" s="314" t="s">
         <v>214</v>
       </c>
-      <c r="Q69" s="355"/>
-      <c r="R69" s="346" t="s">
+      <c r="Q69" s="315"/>
+      <c r="R69" s="316" t="s">
         <v>215</v>
       </c>
-      <c r="S69" s="347"/>
+      <c r="S69" s="349"/>
       <c r="T69" s="112"/>
       <c r="U69" s="112"/>
       <c r="V69" s="112"/>
@@ -40339,41 +40339,41 @@
       <c r="B70" s="123">
         <v>1</v>
       </c>
-      <c r="C70" s="379" t="s">
+      <c r="C70" s="310" t="s">
         <v>423</v>
       </c>
-      <c r="D70" s="379"/>
-      <c r="E70" s="359" t="s">
+      <c r="D70" s="310"/>
+      <c r="E70" s="311" t="s">
         <v>302</v>
       </c>
-      <c r="F70" s="359"/>
-      <c r="G70" s="379" t="s">
+      <c r="F70" s="311"/>
+      <c r="G70" s="310" t="s">
         <v>420</v>
       </c>
-      <c r="H70" s="379"/>
-      <c r="I70" s="359" t="s">
+      <c r="H70" s="310"/>
+      <c r="I70" s="311" t="s">
         <v>305</v>
       </c>
-      <c r="J70" s="359"/>
+      <c r="J70" s="311"/>
       <c r="K70" s="114">
         <v>20</v>
       </c>
-      <c r="L70" s="385" t="s">
+      <c r="L70" s="318" t="s">
         <v>1091</v>
       </c>
-      <c r="M70" s="385"/>
-      <c r="N70" s="376" t="s">
+      <c r="M70" s="318"/>
+      <c r="N70" s="321" t="s">
         <v>1092</v>
       </c>
-      <c r="O70" s="376"/>
-      <c r="P70" s="379" t="s">
+      <c r="O70" s="321"/>
+      <c r="P70" s="310" t="s">
         <v>136</v>
       </c>
-      <c r="Q70" s="379"/>
-      <c r="R70" s="359" t="s">
+      <c r="Q70" s="310"/>
+      <c r="R70" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="S70" s="378"/>
+      <c r="S70" s="322"/>
       <c r="T70" s="112"/>
       <c r="U70" s="112"/>
       <c r="V70" s="112"/>
@@ -40391,45 +40391,45 @@
     <row r="71" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="112"/>
       <c r="B71" s="194"/>
-      <c r="C71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I71" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J71" s="360" t="s">
+      <c r="C71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J71" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K71" s="193"/>
-      <c r="L71" s="375"/>
-      <c r="M71" s="375"/>
-      <c r="N71" s="360"/>
-      <c r="O71" s="360"/>
-      <c r="P71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q71" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R71" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S71" s="377" t="s">
+      <c r="L71" s="307"/>
+      <c r="M71" s="307"/>
+      <c r="N71" s="308"/>
+      <c r="O71" s="308"/>
+      <c r="P71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q71" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R71" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S71" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T71" s="112"/>
@@ -40449,45 +40449,45 @@
     <row r="72" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="112"/>
       <c r="B72" s="194"/>
-      <c r="C72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I72" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J72" s="360" t="s">
+      <c r="C72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I72" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K72" s="193"/>
-      <c r="L72" s="375"/>
-      <c r="M72" s="375"/>
-      <c r="N72" s="360"/>
-      <c r="O72" s="360"/>
-      <c r="P72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q72" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R72" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S72" s="377" t="s">
+      <c r="L72" s="307"/>
+      <c r="M72" s="307"/>
+      <c r="N72" s="308"/>
+      <c r="O72" s="308"/>
+      <c r="P72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q72" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R72" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S72" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T72" s="112"/>
@@ -40507,45 +40507,45 @@
     <row r="73" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="112"/>
       <c r="B73" s="194"/>
-      <c r="C73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I73" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J73" s="360" t="s">
+      <c r="C73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I73" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J73" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K73" s="193"/>
-      <c r="L73" s="375"/>
-      <c r="M73" s="375"/>
-      <c r="N73" s="360"/>
-      <c r="O73" s="360"/>
-      <c r="P73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q73" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R73" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S73" s="377" t="s">
+      <c r="L73" s="307"/>
+      <c r="M73" s="307"/>
+      <c r="N73" s="308"/>
+      <c r="O73" s="308"/>
+      <c r="P73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q73" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R73" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S73" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T73" s="112"/>
@@ -40565,45 +40565,45 @@
     <row r="74" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="112"/>
       <c r="B74" s="194"/>
-      <c r="C74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F74" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I74" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J74" s="360" t="s">
+      <c r="C74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J74" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K74" s="193"/>
-      <c r="L74" s="375"/>
-      <c r="M74" s="375"/>
-      <c r="N74" s="360"/>
-      <c r="O74" s="360"/>
-      <c r="P74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q74" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R74" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S74" s="377" t="s">
+      <c r="L74" s="307"/>
+      <c r="M74" s="307"/>
+      <c r="N74" s="308"/>
+      <c r="O74" s="308"/>
+      <c r="P74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q74" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R74" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S74" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T74" s="112"/>
@@ -40623,45 +40623,45 @@
     <row r="75" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="112"/>
       <c r="B75" s="194"/>
-      <c r="C75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I75" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J75" s="360" t="s">
+      <c r="C75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I75" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J75" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K75" s="193"/>
-      <c r="L75" s="375"/>
-      <c r="M75" s="375"/>
-      <c r="N75" s="360"/>
-      <c r="O75" s="360"/>
-      <c r="P75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q75" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R75" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S75" s="377" t="s">
+      <c r="L75" s="307"/>
+      <c r="M75" s="307"/>
+      <c r="N75" s="308"/>
+      <c r="O75" s="308"/>
+      <c r="P75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q75" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R75" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S75" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T75" s="112"/>
@@ -40681,45 +40681,45 @@
     <row r="76" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="112"/>
       <c r="B76" s="194"/>
-      <c r="C76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F76" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I76" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J76" s="360" t="s">
+      <c r="C76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J76" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K76" s="193"/>
-      <c r="L76" s="375"/>
-      <c r="M76" s="375"/>
-      <c r="N76" s="360"/>
-      <c r="O76" s="360"/>
-      <c r="P76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q76" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R76" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S76" s="377" t="s">
+      <c r="L76" s="307"/>
+      <c r="M76" s="307"/>
+      <c r="N76" s="308"/>
+      <c r="O76" s="308"/>
+      <c r="P76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q76" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R76" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S76" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T76" s="112"/>
@@ -40739,45 +40739,45 @@
     <row r="77" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="112"/>
       <c r="B77" s="194"/>
-      <c r="C77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F77" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I77" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J77" s="360" t="s">
+      <c r="C77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I77" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J77" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K77" s="193"/>
-      <c r="L77" s="375"/>
-      <c r="M77" s="375"/>
-      <c r="N77" s="360"/>
-      <c r="O77" s="360"/>
-      <c r="P77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q77" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R77" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S77" s="377" t="s">
+      <c r="L77" s="307"/>
+      <c r="M77" s="307"/>
+      <c r="N77" s="308"/>
+      <c r="O77" s="308"/>
+      <c r="P77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q77" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R77" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S77" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T77" s="112"/>
@@ -40797,45 +40797,45 @@
     <row r="78" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="112"/>
       <c r="B78" s="194"/>
-      <c r="C78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I78" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J78" s="360" t="s">
+      <c r="C78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I78" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K78" s="193"/>
-      <c r="L78" s="375"/>
-      <c r="M78" s="375"/>
-      <c r="N78" s="360"/>
-      <c r="O78" s="360"/>
-      <c r="P78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q78" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R78" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S78" s="377" t="s">
+      <c r="L78" s="307"/>
+      <c r="M78" s="307"/>
+      <c r="N78" s="308"/>
+      <c r="O78" s="308"/>
+      <c r="P78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q78" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R78" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S78" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T78" s="112"/>
@@ -40855,45 +40855,45 @@
     <row r="79" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="112"/>
       <c r="B79" s="194"/>
-      <c r="C79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I79" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J79" s="360" t="s">
+      <c r="C79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I79" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J79" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K79" s="193"/>
-      <c r="L79" s="375"/>
-      <c r="M79" s="375"/>
-      <c r="N79" s="360"/>
-      <c r="O79" s="360"/>
-      <c r="P79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q79" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R79" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S79" s="377" t="s">
+      <c r="L79" s="307"/>
+      <c r="M79" s="307"/>
+      <c r="N79" s="308"/>
+      <c r="O79" s="308"/>
+      <c r="P79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q79" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R79" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S79" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T79" s="112"/>
@@ -40913,45 +40913,45 @@
     <row r="80" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="112"/>
       <c r="B80" s="194"/>
-      <c r="C80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I80" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J80" s="360" t="s">
+      <c r="C80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I80" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J80" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K80" s="193"/>
-      <c r="L80" s="375"/>
-      <c r="M80" s="375"/>
-      <c r="N80" s="360"/>
-      <c r="O80" s="360"/>
-      <c r="P80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q80" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R80" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S80" s="377" t="s">
+      <c r="L80" s="307"/>
+      <c r="M80" s="307"/>
+      <c r="N80" s="308"/>
+      <c r="O80" s="308"/>
+      <c r="P80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q80" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R80" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S80" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T80" s="112"/>
@@ -40971,45 +40971,45 @@
     <row r="81" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="112"/>
       <c r="B81" s="194"/>
-      <c r="C81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E81" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I81" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J81" s="360" t="s">
+      <c r="C81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I81" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J81" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K81" s="193"/>
-      <c r="L81" s="375"/>
-      <c r="M81" s="375"/>
-      <c r="N81" s="360"/>
-      <c r="O81" s="360"/>
-      <c r="P81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q81" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R81" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S81" s="377" t="s">
+      <c r="L81" s="307"/>
+      <c r="M81" s="307"/>
+      <c r="N81" s="308"/>
+      <c r="O81" s="308"/>
+      <c r="P81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q81" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R81" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S81" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T81" s="112"/>
@@ -41029,45 +41029,45 @@
     <row r="82" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="112"/>
       <c r="B82" s="194"/>
-      <c r="C82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I82" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J82" s="360" t="s">
+      <c r="C82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J82" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K82" s="193"/>
-      <c r="L82" s="375"/>
-      <c r="M82" s="375"/>
-      <c r="N82" s="360"/>
-      <c r="O82" s="360"/>
-      <c r="P82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q82" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R82" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S82" s="377" t="s">
+      <c r="L82" s="307"/>
+      <c r="M82" s="307"/>
+      <c r="N82" s="308"/>
+      <c r="O82" s="308"/>
+      <c r="P82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q82" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R82" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S82" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T82" s="112"/>
@@ -41087,45 +41087,45 @@
     <row r="83" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="112"/>
       <c r="B83" s="194"/>
-      <c r="C83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I83" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J83" s="360" t="s">
+      <c r="C83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I83" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J83" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K83" s="193"/>
-      <c r="L83" s="375"/>
-      <c r="M83" s="375"/>
-      <c r="N83" s="360"/>
-      <c r="O83" s="360"/>
-      <c r="P83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q83" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R83" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S83" s="377" t="s">
+      <c r="L83" s="307"/>
+      <c r="M83" s="307"/>
+      <c r="N83" s="308"/>
+      <c r="O83" s="308"/>
+      <c r="P83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q83" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R83" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S83" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T83" s="112"/>
@@ -41145,45 +41145,45 @@
     <row r="84" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="112"/>
       <c r="B84" s="194"/>
-      <c r="C84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F84" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I84" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J84" s="360" t="s">
+      <c r="C84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I84" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J84" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K84" s="193"/>
-      <c r="L84" s="375"/>
-      <c r="M84" s="375"/>
-      <c r="N84" s="360"/>
-      <c r="O84" s="360"/>
-      <c r="P84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q84" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R84" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S84" s="377" t="s">
+      <c r="L84" s="307"/>
+      <c r="M84" s="307"/>
+      <c r="N84" s="308"/>
+      <c r="O84" s="308"/>
+      <c r="P84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q84" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R84" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S84" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T84" s="112"/>
@@ -41203,45 +41203,45 @@
     <row r="85" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="112"/>
       <c r="B85" s="194"/>
-      <c r="C85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E85" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F85" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I85" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J85" s="360" t="s">
+      <c r="C85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I85" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J85" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K85" s="193"/>
-      <c r="L85" s="375"/>
-      <c r="M85" s="375"/>
-      <c r="N85" s="360"/>
-      <c r="O85" s="360"/>
-      <c r="P85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q85" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R85" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S85" s="377" t="s">
+      <c r="L85" s="307"/>
+      <c r="M85" s="307"/>
+      <c r="N85" s="308"/>
+      <c r="O85" s="308"/>
+      <c r="P85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q85" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R85" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S85" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T85" s="112"/>
@@ -41261,45 +41261,45 @@
     <row r="86" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="112"/>
       <c r="B86" s="194"/>
-      <c r="C86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="F86" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="H86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="I86" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="J86" s="360" t="s">
+      <c r="C86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="I86" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="J86" s="308" t="s">
         <v>91</v>
       </c>
       <c r="K86" s="193"/>
-      <c r="L86" s="375"/>
-      <c r="M86" s="375"/>
-      <c r="N86" s="360"/>
-      <c r="O86" s="360"/>
-      <c r="P86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q86" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="R86" s="360" t="s">
-        <v>91</v>
-      </c>
-      <c r="S86" s="377" t="s">
+      <c r="L86" s="307"/>
+      <c r="M86" s="307"/>
+      <c r="N86" s="308"/>
+      <c r="O86" s="308"/>
+      <c r="P86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q86" s="307" t="s">
+        <v>91</v>
+      </c>
+      <c r="R86" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="S86" s="309" t="s">
         <v>91</v>
       </c>
       <c r="T86" s="112"/>
@@ -41319,45 +41319,45 @@
     <row r="87" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="112"/>
       <c r="B87" s="195"/>
-      <c r="C87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="380" t="s">
-        <v>91</v>
-      </c>
-      <c r="F87" s="380" t="s">
-        <v>91</v>
-      </c>
-      <c r="G87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="H87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="I87" s="380" t="s">
-        <v>91</v>
-      </c>
-      <c r="J87" s="380" t="s">
+      <c r="C87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="H87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="I87" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="J87" s="319" t="s">
         <v>91</v>
       </c>
       <c r="K87" s="196"/>
-      <c r="L87" s="382"/>
-      <c r="M87" s="382"/>
-      <c r="N87" s="380"/>
-      <c r="O87" s="380"/>
-      <c r="P87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q87" s="382" t="s">
-        <v>91</v>
-      </c>
-      <c r="R87" s="380" t="s">
-        <v>91</v>
-      </c>
-      <c r="S87" s="381" t="s">
+      <c r="L87" s="306"/>
+      <c r="M87" s="306"/>
+      <c r="N87" s="319"/>
+      <c r="O87" s="319"/>
+      <c r="P87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q87" s="306" t="s">
+        <v>91</v>
+      </c>
+      <c r="R87" s="319" t="s">
+        <v>91</v>
+      </c>
+      <c r="S87" s="320" t="s">
         <v>91</v>
       </c>
       <c r="T87" s="112"/>
@@ -41480,6 +41480,177 @@
     </row>
   </sheetData>
   <mergeCells count="195">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I79:J79"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="C82:D82"/>
@@ -41504,177 +41675,6 @@
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="G86:H86"/>
     <mergeCell ref="I86:J86"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B35:H35"/>
   </mergeCells>
   <conditionalFormatting sqref="C44 E44:H44">
     <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
@@ -41766,12 +41766,12 @@
     <row r="1" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="217"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -41812,12 +41812,12 @@
     <row r="3" spans="1:41" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:41" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225"/>
       <c r="F4" s="112"/>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
@@ -41857,12 +41857,12 @@
     </row>
     <row r="5" spans="1:41" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="309" t="s">
+      <c r="B5" s="343" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="310"/>
-      <c r="D5" s="310"/>
-      <c r="E5" s="311"/>
+      <c r="C5" s="344"/>
+      <c r="D5" s="344"/>
+      <c r="E5" s="345"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
@@ -42256,12 +42256,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42536,29 +42547,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
+    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
+    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -42585,14 +42590,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
-    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
-    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Validation_Failures.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Validation_Failures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PearceJ\stash\funding-service-design-post-award-data-store\tests\integration_tests\mock_pf_returns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5424965B-D79C-4C37-844E-0905EB435357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04566C8E-1410-4387-8DEF-768F6909F52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="661" firstSheet="4" activeTab="10" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="661" firstSheet="2" activeTab="2" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="13" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="1113">
   <si>
     <t>Reporting Round</t>
   </si>
@@ -3743,9 +3743,6 @@
   </si>
   <si>
     <t>Head of Operations</t>
-  </si>
-  <si>
-    <t>einie</t>
   </si>
   <si>
     <t>inmv</t>
@@ -7897,8 +7894,8 @@
   </sheetPr>
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C179" sqref="C179"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8189,7 +8186,7 @@
         <v>299</v>
       </c>
       <c r="C48" s="125" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
@@ -8311,7 +8308,7 @@
         <v>139</v>
       </c>
       <c r="C59" s="125" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
@@ -8455,7 +8452,7 @@
         <v>331</v>
       </c>
       <c r="C72" s="125" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
@@ -8466,7 +8463,7 @@
         <v>331</v>
       </c>
       <c r="C73" s="125" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
@@ -8477,7 +8474,7 @@
         <v>331</v>
       </c>
       <c r="C74" s="125" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
@@ -8488,7 +8485,7 @@
         <v>331</v>
       </c>
       <c r="C75" s="125" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
@@ -8499,7 +8496,7 @@
         <v>331</v>
       </c>
       <c r="C76" s="125" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
@@ -8510,7 +8507,7 @@
         <v>331</v>
       </c>
       <c r="C77" s="125" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
@@ -8578,7 +8575,7 @@
         <v>342</v>
       </c>
       <c r="C84" s="125" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -8589,7 +8586,7 @@
         <v>139</v>
       </c>
       <c r="C85" s="125" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -8600,7 +8597,7 @@
         <v>139</v>
       </c>
       <c r="C86" s="125" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -8721,7 +8718,7 @@
         <v>139</v>
       </c>
       <c r="C97" s="125" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -8765,7 +8762,7 @@
         <v>342</v>
       </c>
       <c r="C101" s="125" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -8798,7 +8795,7 @@
         <v>139</v>
       </c>
       <c r="C104" s="125" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -16590,8 +16587,8 @@
   </sheetPr>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -17072,8 +17069,8 @@
     </row>
     <row r="24" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
-      <c r="B24" s="181" t="s">
-        <v>1110</v>
+      <c r="B24" s="181">
+        <v>0</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -17176,7 +17173,9 @@
     </row>
     <row r="29" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
-      <c r="B29" s="104"/>
+      <c r="B29" s="104">
+        <v>0</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="13"/>
@@ -17569,11 +17568,8 @@
       <formula1>$D$12:$D$27</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B24" r:id="rId1" display="test@testing.gov.uk" xr:uid="{47AF0A50-A9AD-46E2-80A8-D2E6DD22585B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 OFFICIAL - DLUHC USE ONLY&amp;1#_x000D_</oddHeader>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 OFFICIAL - DLUHC USE ONLY</oddFooter>
@@ -19841,7 +19837,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="154" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H20" s="155">
         <v>4</v>
@@ -41981,7 +41977,7 @@
         <v>406</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G9" s="80">
         <f>IFERROR(VALUE(LEFT(E9,1))*VALUE(LEFT(F9,1)),"N/A")</f>
@@ -42256,6 +42252,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
@@ -42275,7 +42280,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AB5DDB95A7ECBD49AA08D06BA3EF1CDA" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe5bfd8c052041f57bea8be2fc23aae3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="681fe441-c46c-4ea5-a5c5-b45872725697" xmlns:ns3="6bac55d2-c587-47e2-866b-bbb6fe14d104" xmlns:ns4="83a87e31-bf32-46ab-8e70-9fa18461fa4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f48421f1dce13a43278cc3c99628998" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -42546,16 +42551,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -42568,7 +42572,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38A08E56-31DD-4856-904D-CF4B4BDF8261}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42589,14 +42593,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{95c71a0f-75e1-4c8f-90e2-641c9351dd98}" enabled="1" method="Standard" siteId="{3e0088dc-0629-4ae6-aa8c-813e7a296f50}" removed="0"/>
